--- a/AAII_Financials/Quarterly/BABB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BABB_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,118 +665,131 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43890</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43799</v>
+      </c>
+      <c r="F7" s="2">
         <v>43708</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43616</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43524</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43434</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43343</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43251</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43159</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43069</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>42978</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42886</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42794</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42704</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E8" s="3">
         <v>800</v>
       </c>
       <c r="F8" s="3">
+        <v>800</v>
+      </c>
+      <c r="G8" s="3">
+        <v>800</v>
+      </c>
+      <c r="H8" s="3">
         <v>700</v>
-      </c>
-      <c r="G8" s="3">
-        <v>600</v>
-      </c>
-      <c r="H8" s="3">
-        <v>600</v>
       </c>
       <c r="I8" s="3">
         <v>600</v>
       </c>
       <c r="J8" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K8" s="3">
         <v>600</v>
       </c>
       <c r="L8" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M8" s="3">
         <v>600</v>
       </c>
       <c r="N8" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="O8" s="3">
         <v>600</v>
       </c>
       <c r="P8" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q8" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -819,8 +832,14 @@
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +882,14 @@
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1052,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,8 +1123,10 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1081,19 +1134,19 @@
         <v>600</v>
       </c>
       <c r="E17" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F17" s="3">
         <v>600</v>
       </c>
       <c r="G17" s="3">
+        <v>600</v>
+      </c>
+      <c r="H17" s="3">
+        <v>600</v>
+      </c>
+      <c r="I17" s="3">
         <v>500</v>
-      </c>
-      <c r="H17" s="3">
-        <v>400</v>
-      </c>
-      <c r="I17" s="3">
-        <v>400</v>
       </c>
       <c r="J17" s="3">
         <v>400</v>
@@ -1105,63 +1158,75 @@
         <v>400</v>
       </c>
       <c r="M17" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N17" s="3">
         <v>400</v>
       </c>
       <c r="O17" s="3">
+        <v>500</v>
+      </c>
+      <c r="P17" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q17" s="3">
         <v>600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>100</v>
+      </c>
+      <c r="F18" s="3">
         <v>200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>200</v>
       </c>
-      <c r="F18" s="3">
-        <v>100</v>
-      </c>
-      <c r="G18" s="3">
-        <v>100</v>
-      </c>
       <c r="H18" s="3">
+        <v>100</v>
+      </c>
+      <c r="I18" s="3">
+        <v>100</v>
+      </c>
+      <c r="J18" s="3">
         <v>200</v>
-      </c>
-      <c r="I18" s="3">
-        <v>200</v>
-      </c>
-      <c r="J18" s="3">
-        <v>100</v>
       </c>
       <c r="K18" s="3">
         <v>200</v>
       </c>
       <c r="L18" s="3">
+        <v>100</v>
+      </c>
+      <c r="M18" s="3">
         <v>200</v>
       </c>
-      <c r="M18" s="3">
-        <v>100</v>
-      </c>
       <c r="N18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P18" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1243,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1222,35 +1289,41 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>100</v>
+      </c>
+      <c r="F21" s="3">
         <v>200</v>
       </c>
-      <c r="E21" s="3">
-        <v>100</v>
-      </c>
-      <c r="F21" s="3">
-        <v>100</v>
-      </c>
       <c r="G21" s="3">
         <v>100</v>
       </c>
       <c r="H21" s="3">
+        <v>100</v>
+      </c>
+      <c r="I21" s="3">
+        <v>100</v>
+      </c>
+      <c r="J21" s="3">
         <v>200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>200</v>
       </c>
-      <c r="J21" s="3">
-        <v>100</v>
-      </c>
-      <c r="K21" s="3">
-        <v>100</v>
-      </c>
       <c r="L21" s="3">
         <v>100</v>
       </c>
@@ -1264,39 +1337,45 @@
         <v>100</v>
       </c>
       <c r="P21" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>100</v>
+      </c>
+      <c r="R21" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1310,35 +1389,41 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>100</v>
+      </c>
+      <c r="F23" s="3">
         <v>200</v>
       </c>
-      <c r="E23" s="3">
-        <v>100</v>
-      </c>
-      <c r="F23" s="3">
-        <v>100</v>
-      </c>
       <c r="G23" s="3">
         <v>100</v>
       </c>
       <c r="H23" s="3">
+        <v>100</v>
+      </c>
+      <c r="I23" s="3">
+        <v>100</v>
+      </c>
+      <c r="J23" s="3">
         <v>200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>200</v>
       </c>
-      <c r="J23" s="3">
-        <v>100</v>
-      </c>
-      <c r="K23" s="3">
-        <v>100</v>
-      </c>
       <c r="L23" s="3">
         <v>100</v>
       </c>
@@ -1352,10 +1437,16 @@
         <v>100</v>
       </c>
       <c r="P23" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>100</v>
+      </c>
+      <c r="R23" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1369,14 +1460,14 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-200</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
@@ -1398,8 +1489,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,13 +1539,19 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3">
         <v>100</v>
@@ -1457,20 +1560,20 @@
         <v>100</v>
       </c>
       <c r="G26" s="3">
+        <v>100</v>
+      </c>
+      <c r="H26" s="3">
+        <v>100</v>
+      </c>
+      <c r="I26" s="3">
         <v>300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>200</v>
       </c>
-      <c r="J26" s="3">
-        <v>100</v>
-      </c>
-      <c r="K26" s="3">
-        <v>100</v>
-      </c>
       <c r="L26" s="3">
         <v>100</v>
       </c>
@@ -1484,15 +1587,21 @@
         <v>100</v>
       </c>
       <c r="P26" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>100</v>
+      </c>
+      <c r="R26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E27" s="3">
         <v>100</v>
@@ -1501,20 +1610,20 @@
         <v>100</v>
       </c>
       <c r="G27" s="3">
+        <v>100</v>
+      </c>
+      <c r="H27" s="3">
+        <v>100</v>
+      </c>
+      <c r="I27" s="3">
         <v>300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>200</v>
       </c>
-      <c r="J27" s="3">
-        <v>100</v>
-      </c>
-      <c r="K27" s="3">
-        <v>100</v>
-      </c>
       <c r="L27" s="3">
         <v>100</v>
       </c>
@@ -1528,10 +1637,16 @@
         <v>100</v>
       </c>
       <c r="P27" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>100</v>
+      </c>
+      <c r="R27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1588,15 +1709,15 @@
       <c r="F29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="3">
         <v>-200</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1609,17 +1730,23 @@
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1839,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1750,13 +1889,19 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E33" s="3">
         <v>100</v>
@@ -1768,17 +1913,17 @@
         <v>100</v>
       </c>
       <c r="H33" s="3">
+        <v>100</v>
+      </c>
+      <c r="I33" s="3">
+        <v>100</v>
+      </c>
+      <c r="J33" s="3">
         <v>200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>200</v>
       </c>
-      <c r="J33" s="3">
-        <v>100</v>
-      </c>
-      <c r="K33" s="3">
-        <v>100</v>
-      </c>
       <c r="L33" s="3">
         <v>100</v>
       </c>
@@ -1792,10 +1937,16 @@
         <v>100</v>
       </c>
       <c r="P33" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>100</v>
+      </c>
+      <c r="R33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,13 +1989,19 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E35" s="3">
         <v>100</v>
@@ -1856,17 +2013,17 @@
         <v>100</v>
       </c>
       <c r="H35" s="3">
+        <v>100</v>
+      </c>
+      <c r="I35" s="3">
+        <v>100</v>
+      </c>
+      <c r="J35" s="3">
         <v>200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>200</v>
       </c>
-      <c r="J35" s="3">
-        <v>100</v>
-      </c>
-      <c r="K35" s="3">
-        <v>100</v>
-      </c>
       <c r="L35" s="3">
         <v>100</v>
       </c>
@@ -1880,59 +2037,71 @@
         <v>100</v>
       </c>
       <c r="P35" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>100</v>
+      </c>
+      <c r="R35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43890</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43799</v>
+      </c>
+      <c r="F38" s="2">
         <v>43708</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43616</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43524</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43434</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43343</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43251</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43159</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43069</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>42978</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42886</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42794</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42704</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,37 +2138,39 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="E41" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F41" s="3">
         <v>1000</v>
       </c>
       <c r="G41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I41" s="3">
         <v>1100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>800</v>
-      </c>
-      <c r="K41" s="3">
-        <v>800</v>
-      </c>
-      <c r="L41" s="3">
-        <v>700</v>
       </c>
       <c r="M41" s="3">
         <v>800</v>
@@ -2006,13 +2179,19 @@
         <v>700</v>
       </c>
       <c r="O41" s="3">
+        <v>800</v>
+      </c>
+      <c r="P41" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q41" s="3">
         <v>900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2234,14 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,8 +2284,14 @@
       <c r="P43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>100</v>
+      </c>
+      <c r="R43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2113,11 +2304,11 @@
       <c r="F44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
+      <c r="G44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I44" s="3">
         <v>0</v>
@@ -2143,8 +2334,14 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2161,25 +2358,25 @@
         <v>500</v>
       </c>
       <c r="H45" s="3">
+        <v>500</v>
+      </c>
+      <c r="I45" s="3">
+        <v>500</v>
+      </c>
+      <c r="J45" s="3">
         <v>700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>700</v>
-      </c>
-      <c r="J45" s="3">
-        <v>800</v>
-      </c>
-      <c r="K45" s="3">
-        <v>800</v>
       </c>
       <c r="L45" s="3">
         <v>800</v>
       </c>
       <c r="M45" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="N45" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="O45" s="3">
         <v>700</v>
@@ -2187,52 +2384,64 @@
       <c r="P45" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>700</v>
+      </c>
+      <c r="R45" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F46" s="3">
         <v>1600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1600</v>
-      </c>
-      <c r="J46" s="3">
-        <v>1600</v>
-      </c>
-      <c r="K46" s="3">
-        <v>1700</v>
       </c>
       <c r="L46" s="3">
         <v>1600</v>
       </c>
       <c r="M46" s="3">
+        <v>1700</v>
+      </c>
+      <c r="N46" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O46" s="3">
         <v>1500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,8 +2484,14 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2287,17 +2502,17 @@
         <v>400</v>
       </c>
       <c r="F48" s="3">
+        <v>400</v>
+      </c>
+      <c r="G48" s="3">
+        <v>400</v>
+      </c>
+      <c r="H48" s="3">
         <v>500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>500</v>
       </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
       <c r="J48" s="3">
         <v>0</v>
       </c>
@@ -2319,8 +2534,14 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2584,14 @@
       <c r="P49" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>2000</v>
+      </c>
+      <c r="R49" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2684,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2734,14 @@
       <c r="P52" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>200</v>
+      </c>
+      <c r="R52" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,13 +2784,19 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="E54" s="3">
         <v>4200</v>
@@ -2554,37 +2805,43 @@
         <v>4200</v>
       </c>
       <c r="G54" s="3">
+        <v>4200</v>
+      </c>
+      <c r="H54" s="3">
+        <v>4200</v>
+      </c>
+      <c r="I54" s="3">
         <v>4400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>3900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>3800</v>
-      </c>
-      <c r="J54" s="3">
-        <v>3800</v>
-      </c>
-      <c r="K54" s="3">
-        <v>3900</v>
       </c>
       <c r="L54" s="3">
         <v>3800</v>
       </c>
       <c r="M54" s="3">
+        <v>3900</v>
+      </c>
+      <c r="N54" s="3">
         <v>3800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
+        <v>3800</v>
+      </c>
+      <c r="P54" s="3">
         <v>3700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>3900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2878,10 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2652,19 +2913,25 @@
         <v>0</v>
       </c>
       <c r="M57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2698,31 +2965,37 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>5</v>
+      <c r="N58" s="3">
+        <v>0</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>900</v>
+      </c>
+      <c r="F59" s="3">
         <v>800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>800</v>
-      </c>
-      <c r="F59" s="3">
-        <v>900</v>
-      </c>
-      <c r="G59" s="3">
-        <v>900</v>
       </c>
       <c r="H59" s="3">
         <v>900</v>
@@ -2731,10 +3004,10 @@
         <v>900</v>
       </c>
       <c r="J59" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="K59" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="L59" s="3">
         <v>1000</v>
@@ -2746,24 +3019,30 @@
         <v>1000</v>
       </c>
       <c r="O59" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="P59" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R59" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E60" s="3">
         <v>900</v>
       </c>
       <c r="F60" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="G60" s="3">
         <v>900</v>
@@ -2775,10 +3054,10 @@
         <v>900</v>
       </c>
       <c r="J60" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="K60" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="L60" s="3">
         <v>1000</v>
@@ -2787,16 +3066,22 @@
         <v>1000</v>
       </c>
       <c r="N60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P60" s="3">
         <v>1100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,29 +3124,35 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E62" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F62" s="3">
         <v>500</v>
       </c>
       <c r="G62" s="3">
+        <v>500</v>
+      </c>
+      <c r="H62" s="3">
+        <v>500</v>
+      </c>
+      <c r="I62" s="3">
         <v>400</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>5</v>
       </c>
@@ -2874,17 +3165,23 @@
       <c r="M62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
-      </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,8 +3324,14 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3024,25 +3339,25 @@
         <v>1300</v>
       </c>
       <c r="E66" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="F66" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="G66" s="3">
         <v>1400</v>
       </c>
       <c r="H66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J66" s="3">
         <v>900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>900</v>
-      </c>
-      <c r="J66" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K66" s="3">
-        <v>1000</v>
       </c>
       <c r="L66" s="3">
         <v>1000</v>
@@ -3051,16 +3366,22 @@
         <v>1000</v>
       </c>
       <c r="N66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P66" s="3">
         <v>1100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,31 +3594,37 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-11300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="G72" s="3">
         <v>-11400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-11500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-11300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-11300</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-11400</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-11500</v>
       </c>
       <c r="K72" s="3">
         <v>-11400</v>
@@ -3286,19 +3633,25 @@
         <v>-11500</v>
       </c>
       <c r="M72" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="N72" s="3">
         <v>-11500</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-11600</v>
       </c>
       <c r="O72" s="3">
         <v>-11500</v>
       </c>
       <c r="P72" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-11500</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R72" s="3">
+        <v>-11500</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,31 +3794,37 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="E76" s="3">
         <v>2900</v>
       </c>
       <c r="F76" s="3">
+        <v>2900</v>
+      </c>
+      <c r="G76" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H76" s="3">
         <v>2800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>3000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>3000</v>
-      </c>
-      <c r="I76" s="3">
-        <v>2900</v>
-      </c>
-      <c r="J76" s="3">
-        <v>2800</v>
       </c>
       <c r="K76" s="3">
         <v>2900</v>
@@ -3462,19 +3833,25 @@
         <v>2800</v>
       </c>
       <c r="M76" s="3">
+        <v>2900</v>
+      </c>
+      <c r="N76" s="3">
+        <v>2800</v>
+      </c>
+      <c r="O76" s="3">
         <v>2700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>2700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>2800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,62 +3894,74 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43890</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43799</v>
+      </c>
+      <c r="F80" s="2">
         <v>43708</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43616</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43524</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43434</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43343</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43251</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43159</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43069</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>42978</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42886</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42794</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42704</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E81" s="3">
         <v>100</v>
@@ -3584,17 +3973,17 @@
         <v>100</v>
       </c>
       <c r="H81" s="3">
+        <v>100</v>
+      </c>
+      <c r="I81" s="3">
+        <v>100</v>
+      </c>
+      <c r="J81" s="3">
         <v>200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>200</v>
       </c>
-      <c r="J81" s="3">
-        <v>100</v>
-      </c>
-      <c r="K81" s="3">
-        <v>100</v>
-      </c>
       <c r="L81" s="3">
         <v>100</v>
       </c>
@@ -3608,10 +3997,16 @@
         <v>100</v>
       </c>
       <c r="P81" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>100</v>
+      </c>
+      <c r="R81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4023,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +4069,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4319,14 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3901,19 +4334,19 @@
         <v>100</v>
       </c>
       <c r="E89" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F89" s="3">
         <v>100</v>
       </c>
       <c r="G89" s="3">
+        <v>100</v>
+      </c>
+      <c r="H89" s="3">
+        <v>100</v>
+      </c>
+      <c r="I89" s="3">
         <v>200</v>
-      </c>
-      <c r="H89" s="3">
-        <v>200</v>
-      </c>
-      <c r="I89" s="3">
-        <v>100</v>
       </c>
       <c r="J89" s="3">
         <v>200</v>
@@ -3922,22 +4355,28 @@
         <v>100</v>
       </c>
       <c r="L89" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M89" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N89" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="O89" s="3">
         <v>200</v>
       </c>
       <c r="P89" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>200</v>
+      </c>
+      <c r="R89" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,37 +4393,39 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -3992,14 +4433,20 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4539,14 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4130,8 +4589,14 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,25 +4613,27 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E96" s="3">
         <v>-100</v>
       </c>
       <c r="F96" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G96" s="3">
         <v>-100</v>
       </c>
       <c r="H96" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="I96" s="3">
         <v>-100</v>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R96" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,25 +4809,31 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E100" s="3">
         <v>-100</v>
       </c>
       <c r="F100" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G100" s="3">
         <v>-100</v>
       </c>
       <c r="H100" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="I100" s="3">
         <v>-100</v>
@@ -4368,8 +4859,14 @@
       <c r="P100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4909,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
-        <v>100</v>
-      </c>
-      <c r="H102" s="3">
-        <v>100</v>
-      </c>
       <c r="I102" s="3">
         <v>100</v>
       </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
       <c r="M102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>100</v>
+      </c>
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
-        <v>100</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
+        <v>100</v>
+      </c>
+      <c r="R102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BABB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BABB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
   <si>
     <t>BABB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,93 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43982</v>
+      </c>
+      <c r="E7" s="2">
         <v>43890</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43799</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43708</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43616</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43524</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43434</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43343</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43251</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43159</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43069</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42978</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42886</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42794</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42704</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>400</v>
+      </c>
+      <c r="E8" s="3">
         <v>700</v>
-      </c>
-      <c r="E8" s="3">
-        <v>800</v>
       </c>
       <c r="F8" s="3">
         <v>800</v>
@@ -756,10 +760,10 @@
         <v>800</v>
       </c>
       <c r="H8" s="3">
+        <v>800</v>
+      </c>
+      <c r="I8" s="3">
         <v>700</v>
-      </c>
-      <c r="I8" s="3">
-        <v>600</v>
       </c>
       <c r="J8" s="3">
         <v>600</v>
@@ -768,10 +772,10 @@
         <v>600</v>
       </c>
       <c r="L8" s="3">
+        <v>600</v>
+      </c>
+      <c r="M8" s="3">
         <v>500</v>
-      </c>
-      <c r="M8" s="3">
-        <v>600</v>
       </c>
       <c r="N8" s="3">
         <v>600</v>
@@ -780,16 +784,19 @@
         <v>600</v>
       </c>
       <c r="P8" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q8" s="3">
         <v>500</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>600</v>
       </c>
       <c r="R8" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -838,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,19 +1151,20 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>400</v>
+      </c>
+      <c r="E17" s="3">
         <v>600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>700</v>
-      </c>
-      <c r="F17" s="3">
-        <v>600</v>
       </c>
       <c r="G17" s="3">
         <v>600</v>
@@ -1146,10 +1173,10 @@
         <v>600</v>
       </c>
       <c r="I17" s="3">
+        <v>600</v>
+      </c>
+      <c r="J17" s="3">
         <v>500</v>
-      </c>
-      <c r="J17" s="3">
-        <v>400</v>
       </c>
       <c r="K17" s="3">
         <v>400</v>
@@ -1164,69 +1191,75 @@
         <v>400</v>
       </c>
       <c r="O17" s="3">
+        <v>400</v>
+      </c>
+      <c r="P17" s="3">
         <v>500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E18" s="3">
         <v>100</v>
       </c>
       <c r="F18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G18" s="3">
         <v>200</v>
       </c>
       <c r="H18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I18" s="3">
         <v>100</v>
       </c>
       <c r="J18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K18" s="3">
         <v>200</v>
       </c>
       <c r="L18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N18" s="3">
         <v>200</v>
       </c>
       <c r="O18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P18" s="3">
         <v>100</v>
       </c>
       <c r="Q18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R18" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1295,23 +1329,26 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E21" s="3">
         <v>100</v>
       </c>
       <c r="F21" s="3">
+        <v>100</v>
+      </c>
+      <c r="G21" s="3">
         <v>200</v>
       </c>
-      <c r="G21" s="3">
-        <v>100</v>
-      </c>
       <c r="H21" s="3">
         <v>100</v>
       </c>
@@ -1319,13 +1356,13 @@
         <v>100</v>
       </c>
       <c r="J21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K21" s="3">
         <v>200</v>
       </c>
       <c r="L21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M21" s="3">
         <v>100</v>
@@ -1343,10 +1380,13 @@
         <v>100</v>
       </c>
       <c r="R21" s="3">
+        <v>100</v>
+      </c>
+      <c r="S21" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1371,14 +1411,14 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>5</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1395,23 +1435,26 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
         <v>100</v>
       </c>
       <c r="F23" s="3">
+        <v>100</v>
+      </c>
+      <c r="G23" s="3">
         <v>200</v>
       </c>
-      <c r="G23" s="3">
-        <v>100</v>
-      </c>
       <c r="H23" s="3">
         <v>100</v>
       </c>
@@ -1419,13 +1462,13 @@
         <v>100</v>
       </c>
       <c r="J23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K23" s="3">
         <v>200</v>
       </c>
       <c r="L23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M23" s="3">
         <v>100</v>
@@ -1443,10 +1486,13 @@
         <v>100</v>
       </c>
       <c r="R23" s="3">
+        <v>100</v>
+      </c>
+      <c r="S23" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1466,11 +1512,11 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-200</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,16 +1594,19 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F26" s="3">
         <v>100</v>
@@ -1566,16 +1618,16 @@
         <v>100</v>
       </c>
       <c r="I26" s="3">
+        <v>100</v>
+      </c>
+      <c r="J26" s="3">
         <v>300</v>
-      </c>
-      <c r="J26" s="3">
-        <v>200</v>
       </c>
       <c r="K26" s="3">
         <v>200</v>
       </c>
       <c r="L26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M26" s="3">
         <v>100</v>
@@ -1593,18 +1645,21 @@
         <v>100</v>
       </c>
       <c r="R26" s="3">
+        <v>100</v>
+      </c>
+      <c r="S26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F27" s="3">
         <v>100</v>
@@ -1616,16 +1671,16 @@
         <v>100</v>
       </c>
       <c r="I27" s="3">
+        <v>100</v>
+      </c>
+      <c r="J27" s="3">
         <v>300</v>
-      </c>
-      <c r="J27" s="3">
-        <v>200</v>
       </c>
       <c r="K27" s="3">
         <v>200</v>
       </c>
       <c r="L27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M27" s="3">
         <v>100</v>
@@ -1643,10 +1698,13 @@
         <v>100</v>
       </c>
       <c r="R27" s="3">
+        <v>100</v>
+      </c>
+      <c r="S27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1715,12 +1776,12 @@
       <c r="H29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="3">
         <v>-200</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1736,8 +1797,8 @@
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="P29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1895,16 +1965,19 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F33" s="3">
         <v>100</v>
@@ -1919,13 +1992,13 @@
         <v>100</v>
       </c>
       <c r="J33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K33" s="3">
         <v>200</v>
       </c>
       <c r="L33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M33" s="3">
         <v>100</v>
@@ -1943,10 +2016,13 @@
         <v>100</v>
       </c>
       <c r="R33" s="3">
+        <v>100</v>
+      </c>
+      <c r="S33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,16 +2071,19 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F35" s="3">
         <v>100</v>
@@ -2019,13 +2098,13 @@
         <v>100</v>
       </c>
       <c r="J35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K35" s="3">
         <v>200</v>
       </c>
       <c r="L35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M35" s="3">
         <v>100</v>
@@ -2043,65 +2122,71 @@
         <v>100</v>
       </c>
       <c r="R35" s="3">
+        <v>100</v>
+      </c>
+      <c r="S35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43982</v>
+      </c>
+      <c r="E38" s="2">
         <v>43890</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43799</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43708</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43616</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43524</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43434</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43343</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43251</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43159</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43069</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42978</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42886</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42794</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42704</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,19 +2226,20 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E41" s="3">
         <v>900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1100</v>
-      </c>
-      <c r="F41" s="3">
-        <v>1000</v>
       </c>
       <c r="G41" s="3">
         <v>1000</v>
@@ -2161,37 +2248,40 @@
         <v>1000</v>
       </c>
       <c r="I41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J41" s="3">
         <v>1100</v>
-      </c>
-      <c r="J41" s="3">
-        <v>900</v>
       </c>
       <c r="K41" s="3">
         <v>900</v>
       </c>
       <c r="L41" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M41" s="3">
         <v>800</v>
       </c>
       <c r="N41" s="3">
+        <v>800</v>
+      </c>
+      <c r="O41" s="3">
         <v>700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,13 +2330,16 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3">
         <v>100</v>
@@ -2290,8 +2383,11 @@
       <c r="R43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2310,8 +2406,8 @@
       <c r="H44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I44" s="3">
-        <v>0</v>
+      <c r="I44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J44" s="3">
         <v>0</v>
@@ -2340,13 +2436,16 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E45" s="3">
         <v>500</v>
@@ -2364,13 +2463,13 @@
         <v>500</v>
       </c>
       <c r="J45" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K45" s="3">
         <v>700</v>
       </c>
       <c r="L45" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M45" s="3">
         <v>800</v>
@@ -2379,7 +2478,7 @@
         <v>800</v>
       </c>
       <c r="O45" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="P45" s="3">
         <v>700</v>
@@ -2390,58 +2489,64 @@
       <c r="R45" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E46" s="3">
         <v>1500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1700</v>
-      </c>
-      <c r="F46" s="3">
-        <v>1600</v>
       </c>
       <c r="G46" s="3">
         <v>1600</v>
       </c>
       <c r="H46" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I46" s="3">
         <v>1500</v>
-      </c>
-      <c r="I46" s="3">
-        <v>1700</v>
       </c>
       <c r="J46" s="3">
         <v>1700</v>
       </c>
       <c r="K46" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="L46" s="3">
         <v>1600</v>
       </c>
       <c r="M46" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N46" s="3">
         <v>1700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1600</v>
-      </c>
-      <c r="O46" s="3">
-        <v>1500</v>
       </c>
       <c r="P46" s="3">
         <v>1500</v>
       </c>
       <c r="Q46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R46" s="3">
         <v>1700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,13 +2595,16 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E48" s="3">
         <v>400</v>
@@ -2508,13 +2616,13 @@
         <v>400</v>
       </c>
       <c r="H48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I48" s="3">
         <v>500</v>
       </c>
       <c r="J48" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -2540,8 +2648,11 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,16 +2913,19 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E54" s="3">
         <v>4000</v>
-      </c>
-      <c r="E54" s="3">
-        <v>4200</v>
       </c>
       <c r="F54" s="3">
         <v>4200</v>
@@ -2811,37 +2937,40 @@
         <v>4200</v>
       </c>
       <c r="I54" s="3">
+        <v>4200</v>
+      </c>
+      <c r="J54" s="3">
         <v>4400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3900</v>
-      </c>
-      <c r="K54" s="3">
-        <v>3800</v>
       </c>
       <c r="L54" s="3">
         <v>3800</v>
       </c>
       <c r="M54" s="3">
+        <v>3800</v>
+      </c>
+      <c r="N54" s="3">
         <v>3900</v>
-      </c>
-      <c r="N54" s="3">
-        <v>3800</v>
       </c>
       <c r="O54" s="3">
         <v>3800</v>
       </c>
       <c r="P54" s="3">
+        <v>3800</v>
+      </c>
+      <c r="Q54" s="3">
         <v>3700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,8 +3010,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2919,19 +3050,22 @@
         <v>0</v>
       </c>
       <c r="O57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P57" s="3">
         <v>100</v>
       </c>
       <c r="Q57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2971,34 +3105,37 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="E59" s="3">
         <v>900</v>
       </c>
       <c r="F59" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="G59" s="3">
         <v>800</v>
       </c>
       <c r="H59" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="I59" s="3">
         <v>900</v>
@@ -3010,7 +3147,7 @@
         <v>900</v>
       </c>
       <c r="L59" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="M59" s="3">
         <v>1000</v>
@@ -3025,27 +3162,30 @@
         <v>1000</v>
       </c>
       <c r="Q59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R59" s="3">
         <v>1100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="E60" s="3">
         <v>900</v>
       </c>
       <c r="F60" s="3">
+        <v>900</v>
+      </c>
+      <c r="G60" s="3">
         <v>800</v>
-      </c>
-      <c r="G60" s="3">
-        <v>900</v>
       </c>
       <c r="H60" s="3">
         <v>900</v>
@@ -3060,7 +3200,7 @@
         <v>900</v>
       </c>
       <c r="L60" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="M60" s="3">
         <v>1000</v>
@@ -3072,21 +3212,24 @@
         <v>1000</v>
       </c>
       <c r="P60" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="Q60" s="3">
         <v>1100</v>
       </c>
       <c r="R60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S60" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -3130,8 +3273,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3142,7 +3288,7 @@
         <v>400</v>
       </c>
       <c r="F62" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G62" s="3">
         <v>500</v>
@@ -3151,11 +3297,11 @@
         <v>500</v>
       </c>
       <c r="I62" s="3">
+        <v>500</v>
+      </c>
+      <c r="J62" s="3">
         <v>400</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>5</v>
       </c>
@@ -3171,8 +3317,8 @@
       <c r="O62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,8 +3485,11 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3345,7 +3503,7 @@
         <v>1300</v>
       </c>
       <c r="G66" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="H66" s="3">
         <v>1400</v>
@@ -3354,13 +3512,13 @@
         <v>1400</v>
       </c>
       <c r="J66" s="3">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="K66" s="3">
         <v>900</v>
       </c>
       <c r="L66" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="M66" s="3">
         <v>1000</v>
@@ -3372,16 +3530,19 @@
         <v>1000</v>
       </c>
       <c r="P66" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="Q66" s="3">
         <v>1100</v>
       </c>
       <c r="R66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S66" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-11500</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-11300</v>
       </c>
       <c r="F72" s="3">
         <v>-11300</v>
       </c>
       <c r="G72" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="H72" s="3">
         <v>-11400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-11500</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-11300</v>
       </c>
       <c r="J72" s="3">
         <v>-11300</v>
       </c>
       <c r="K72" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="L72" s="3">
         <v>-11400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-11500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-11400</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-11500</v>
       </c>
       <c r="O72" s="3">
         <v>-11500</v>
       </c>
       <c r="P72" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-11600</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-11500</v>
       </c>
       <c r="R72" s="3">
         <v>-11500</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3">
+        <v>-11500</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,16 +3983,19 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E76" s="3">
         <v>2800</v>
-      </c>
-      <c r="E76" s="3">
-        <v>2900</v>
       </c>
       <c r="F76" s="3">
         <v>2900</v>
@@ -3818,40 +4004,43 @@
         <v>2900</v>
       </c>
       <c r="H76" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I76" s="3">
         <v>2800</v>
-      </c>
-      <c r="I76" s="3">
-        <v>3000</v>
       </c>
       <c r="J76" s="3">
         <v>3000</v>
       </c>
       <c r="K76" s="3">
+        <v>3000</v>
+      </c>
+      <c r="L76" s="3">
         <v>2900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2800</v>
-      </c>
-      <c r="O76" s="3">
-        <v>2700</v>
       </c>
       <c r="P76" s="3">
         <v>2700</v>
       </c>
       <c r="Q76" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="R76" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,71 +4089,77 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43982</v>
+      </c>
+      <c r="E80" s="2">
         <v>43890</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43799</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43708</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43616</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43524</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43434</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43343</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43251</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43159</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43069</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42978</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42886</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42794</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42704</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F81" s="3">
         <v>100</v>
@@ -3979,13 +4174,13 @@
         <v>100</v>
       </c>
       <c r="J81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K81" s="3">
         <v>200</v>
       </c>
       <c r="L81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M81" s="3">
         <v>100</v>
@@ -4003,10 +4198,13 @@
         <v>100</v>
       </c>
       <c r="R81" s="3">
+        <v>100</v>
+      </c>
+      <c r="S81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,20 +4539,23 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="E89" s="3">
+        <v>100</v>
+      </c>
+      <c r="F89" s="3">
         <v>200</v>
       </c>
-      <c r="F89" s="3">
-        <v>100</v>
-      </c>
       <c r="G89" s="3">
         <v>100</v>
       </c>
@@ -4346,37 +4563,40 @@
         <v>100</v>
       </c>
       <c r="I89" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J89" s="3">
         <v>200</v>
       </c>
       <c r="K89" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L89" s="3">
+        <v>100</v>
+      </c>
+      <c r="M89" s="3">
         <v>200</v>
       </c>
-      <c r="M89" s="3">
-        <v>100</v>
-      </c>
       <c r="N89" s="3">
         <v>100</v>
       </c>
       <c r="O89" s="3">
+        <v>100</v>
+      </c>
+      <c r="P89" s="3">
         <v>200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>200</v>
       </c>
-      <c r="R89" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4421,14 +4642,14 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -4439,14 +4660,17 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>5</v>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,16 +4848,17 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E96" s="3">
         <v>-200</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-100</v>
       </c>
       <c r="F96" s="3">
         <v>-100</v>
@@ -4633,10 +4867,10 @@
         <v>-100</v>
       </c>
       <c r="H96" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I96" s="3">
         <v>-200</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-100</v>
       </c>
       <c r="J96" s="3">
         <v>-100</v>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,16 +5058,19 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-200</v>
-      </c>
-      <c r="E100" s="3">
-        <v>-100</v>
       </c>
       <c r="F100" s="3">
         <v>-100</v>
@@ -4833,10 +5079,10 @@
         <v>-100</v>
       </c>
       <c r="H100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I100" s="3">
         <v>-200</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-100</v>
       </c>
       <c r="J100" s="3">
         <v>-100</v>
@@ -4865,8 +5111,11 @@
       <c r="R100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,29 +5164,32 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
-        <v>100</v>
-      </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
-        <v>100</v>
-      </c>
       <c r="J102" s="3">
         <v>100</v>
       </c>
@@ -4945,7 +5197,7 @@
         <v>100</v>
       </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M102" s="3">
         <v>0</v>
@@ -4954,15 +5206,18 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
-        <v>100</v>
-      </c>
       <c r="R102" s="3">
+        <v>100</v>
+      </c>
+      <c r="S102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BABB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BABB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
   <si>
     <t>BABB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E7" s="2">
         <v>43982</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43890</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43799</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43708</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43616</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43524</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43434</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43343</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43251</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43159</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43069</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42978</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42886</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42794</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42704</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>600</v>
+      </c>
+      <c r="E8" s="3">
         <v>400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>700</v>
-      </c>
-      <c r="F8" s="3">
-        <v>800</v>
       </c>
       <c r="G8" s="3">
         <v>800</v>
@@ -763,10 +767,10 @@
         <v>800</v>
       </c>
       <c r="I8" s="3">
+        <v>800</v>
+      </c>
+      <c r="J8" s="3">
         <v>700</v>
-      </c>
-      <c r="J8" s="3">
-        <v>600</v>
       </c>
       <c r="K8" s="3">
         <v>600</v>
@@ -775,10 +779,10 @@
         <v>600</v>
       </c>
       <c r="M8" s="3">
+        <v>600</v>
+      </c>
+      <c r="N8" s="3">
         <v>500</v>
-      </c>
-      <c r="N8" s="3">
-        <v>600</v>
       </c>
       <c r="O8" s="3">
         <v>600</v>
@@ -787,16 +791,19 @@
         <v>600</v>
       </c>
       <c r="Q8" s="3">
+        <v>600</v>
+      </c>
+      <c r="R8" s="3">
         <v>500</v>
-      </c>
-      <c r="R8" s="3">
-        <v>600</v>
       </c>
       <c r="S8" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,22 +1178,23 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>500</v>
+      </c>
+      <c r="E17" s="3">
         <v>400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>700</v>
-      </c>
-      <c r="G17" s="3">
-        <v>600</v>
       </c>
       <c r="H17" s="3">
         <v>600</v>
@@ -1176,10 +1203,10 @@
         <v>600</v>
       </c>
       <c r="J17" s="3">
+        <v>600</v>
+      </c>
+      <c r="K17" s="3">
         <v>500</v>
-      </c>
-      <c r="K17" s="3">
-        <v>400</v>
       </c>
       <c r="L17" s="3">
         <v>400</v>
@@ -1194,72 +1221,78 @@
         <v>400</v>
       </c>
       <c r="P17" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q17" s="3">
         <v>500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
         <v>100</v>
       </c>
       <c r="G18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H18" s="3">
         <v>200</v>
       </c>
       <c r="I18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J18" s="3">
         <v>100</v>
       </c>
       <c r="K18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L18" s="3">
         <v>200</v>
       </c>
       <c r="M18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O18" s="3">
         <v>200</v>
       </c>
       <c r="P18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q18" s="3">
         <v>100</v>
       </c>
       <c r="R18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S18" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1332,26 +1366,29 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-100</v>
       </c>
-      <c r="E21" s="3">
-        <v>100</v>
-      </c>
       <c r="F21" s="3">
         <v>100</v>
       </c>
       <c r="G21" s="3">
+        <v>100</v>
+      </c>
+      <c r="H21" s="3">
         <v>200</v>
       </c>
-      <c r="H21" s="3">
-        <v>100</v>
-      </c>
       <c r="I21" s="3">
         <v>100</v>
       </c>
@@ -1359,13 +1396,13 @@
         <v>100</v>
       </c>
       <c r="K21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L21" s="3">
         <v>200</v>
       </c>
       <c r="M21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N21" s="3">
         <v>100</v>
@@ -1383,10 +1420,13 @@
         <v>100</v>
       </c>
       <c r="S21" s="3">
+        <v>100</v>
+      </c>
+      <c r="T21" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1414,14 +1454,14 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>5</v>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1438,26 +1478,29 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
-        <v>100</v>
-      </c>
       <c r="F23" s="3">
         <v>100</v>
       </c>
       <c r="G23" s="3">
+        <v>100</v>
+      </c>
+      <c r="H23" s="3">
         <v>200</v>
       </c>
-      <c r="H23" s="3">
-        <v>100</v>
-      </c>
       <c r="I23" s="3">
         <v>100</v>
       </c>
@@ -1465,13 +1508,13 @@
         <v>100</v>
       </c>
       <c r="K23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L23" s="3">
         <v>200</v>
       </c>
       <c r="M23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N23" s="3">
         <v>100</v>
@@ -1489,10 +1532,13 @@
         <v>100</v>
       </c>
       <c r="S23" s="3">
+        <v>100</v>
+      </c>
+      <c r="T23" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1515,11 +1561,11 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-200</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,19 +1646,22 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
       <c r="F26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G26" s="3">
         <v>100</v>
@@ -1621,16 +1673,16 @@
         <v>100</v>
       </c>
       <c r="J26" s="3">
+        <v>100</v>
+      </c>
+      <c r="K26" s="3">
         <v>300</v>
-      </c>
-      <c r="K26" s="3">
-        <v>200</v>
       </c>
       <c r="L26" s="3">
         <v>200</v>
       </c>
       <c r="M26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N26" s="3">
         <v>100</v>
@@ -1648,21 +1700,24 @@
         <v>100</v>
       </c>
       <c r="S26" s="3">
+        <v>100</v>
+      </c>
+      <c r="T26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G27" s="3">
         <v>100</v>
@@ -1674,16 +1729,16 @@
         <v>100</v>
       </c>
       <c r="J27" s="3">
+        <v>100</v>
+      </c>
+      <c r="K27" s="3">
         <v>300</v>
-      </c>
-      <c r="K27" s="3">
-        <v>200</v>
       </c>
       <c r="L27" s="3">
         <v>200</v>
       </c>
       <c r="M27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N27" s="3">
         <v>100</v>
@@ -1701,10 +1756,13 @@
         <v>100</v>
       </c>
       <c r="S27" s="3">
+        <v>100</v>
+      </c>
+      <c r="T27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1779,12 +1840,12 @@
       <c r="I29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="3">
         <v>-200</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1800,8 +1861,8 @@
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1968,19 +2038,22 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G33" s="3">
         <v>100</v>
@@ -1995,13 +2068,13 @@
         <v>100</v>
       </c>
       <c r="K33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L33" s="3">
         <v>200</v>
       </c>
       <c r="M33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N33" s="3">
         <v>100</v>
@@ -2019,10 +2092,13 @@
         <v>100</v>
       </c>
       <c r="S33" s="3">
+        <v>100</v>
+      </c>
+      <c r="T33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,19 +2150,22 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G35" s="3">
         <v>100</v>
@@ -2101,13 +2180,13 @@
         <v>100</v>
       </c>
       <c r="K35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L35" s="3">
         <v>200</v>
       </c>
       <c r="M35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N35" s="3">
         <v>100</v>
@@ -2125,68 +2204,74 @@
         <v>100</v>
       </c>
       <c r="S35" s="3">
+        <v>100</v>
+      </c>
+      <c r="T35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E38" s="2">
         <v>43982</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43890</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43799</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43708</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43616</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43524</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43434</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43343</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43251</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43159</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43069</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42978</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42886</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42794</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42704</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,22 +2313,23 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E41" s="3">
         <v>1000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1100</v>
-      </c>
-      <c r="G41" s="3">
-        <v>1000</v>
       </c>
       <c r="H41" s="3">
         <v>1000</v>
@@ -2251,37 +2338,40 @@
         <v>1000</v>
       </c>
       <c r="J41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K41" s="3">
         <v>1100</v>
-      </c>
-      <c r="K41" s="3">
-        <v>900</v>
       </c>
       <c r="L41" s="3">
         <v>900</v>
       </c>
       <c r="M41" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="N41" s="3">
         <v>800</v>
       </c>
       <c r="O41" s="3">
+        <v>800</v>
+      </c>
+      <c r="P41" s="3">
         <v>700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,16 +2423,19 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F43" s="3">
         <v>100</v>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2409,8 +2505,8 @@
       <c r="I44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J44" s="3">
-        <v>0</v>
+      <c r="J44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -2439,16 +2535,19 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>400</v>
+      </c>
+      <c r="E45" s="3">
         <v>300</v>
-      </c>
-      <c r="E45" s="3">
-        <v>500</v>
       </c>
       <c r="F45" s="3">
         <v>500</v>
@@ -2466,13 +2565,13 @@
         <v>500</v>
       </c>
       <c r="K45" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L45" s="3">
         <v>700</v>
       </c>
       <c r="M45" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="N45" s="3">
         <v>800</v>
@@ -2481,7 +2580,7 @@
         <v>800</v>
       </c>
       <c r="P45" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="Q45" s="3">
         <v>700</v>
@@ -2492,61 +2591,67 @@
       <c r="S45" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E46" s="3">
         <v>1400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1700</v>
-      </c>
-      <c r="G46" s="3">
-        <v>1600</v>
       </c>
       <c r="H46" s="3">
         <v>1600</v>
       </c>
       <c r="I46" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J46" s="3">
         <v>1500</v>
-      </c>
-      <c r="J46" s="3">
-        <v>1700</v>
       </c>
       <c r="K46" s="3">
         <v>1700</v>
       </c>
       <c r="L46" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="M46" s="3">
         <v>1600</v>
       </c>
       <c r="N46" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O46" s="3">
         <v>1700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1600</v>
-      </c>
-      <c r="P46" s="3">
-        <v>1500</v>
       </c>
       <c r="Q46" s="3">
         <v>1500</v>
       </c>
       <c r="R46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="S46" s="3">
         <v>1700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2607,7 +2715,7 @@
         <v>300</v>
       </c>
       <c r="E48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F48" s="3">
         <v>400</v>
@@ -2619,13 +2727,13 @@
         <v>400</v>
       </c>
       <c r="I48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J48" s="3">
         <v>500</v>
       </c>
       <c r="K48" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,19 +3039,22 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E54" s="3">
         <v>3900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4000</v>
-      </c>
-      <c r="F54" s="3">
-        <v>4200</v>
       </c>
       <c r="G54" s="3">
         <v>4200</v>
@@ -2940,37 +3066,40 @@
         <v>4200</v>
       </c>
       <c r="J54" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K54" s="3">
         <v>4400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3900</v>
-      </c>
-      <c r="L54" s="3">
-        <v>3800</v>
       </c>
       <c r="M54" s="3">
         <v>3800</v>
       </c>
       <c r="N54" s="3">
+        <v>3800</v>
+      </c>
+      <c r="O54" s="3">
         <v>3900</v>
-      </c>
-      <c r="O54" s="3">
-        <v>3800</v>
       </c>
       <c r="P54" s="3">
         <v>3800</v>
       </c>
       <c r="Q54" s="3">
+        <v>3800</v>
+      </c>
+      <c r="R54" s="3">
         <v>3700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3053,42 +3184,45 @@
         <v>0</v>
       </c>
       <c r="P57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q57" s="3">
         <v>100</v>
       </c>
       <c r="R57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -3108,37 +3242,40 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>800</v>
+      </c>
+      <c r="E59" s="3">
         <v>700</v>
-      </c>
-      <c r="E59" s="3">
-        <v>900</v>
       </c>
       <c r="F59" s="3">
         <v>900</v>
       </c>
       <c r="G59" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="H59" s="3">
         <v>800</v>
       </c>
       <c r="I59" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="J59" s="3">
         <v>900</v>
@@ -3150,7 +3287,7 @@
         <v>900</v>
       </c>
       <c r="M59" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="N59" s="3">
         <v>1000</v>
@@ -3165,30 +3302,33 @@
         <v>1000</v>
       </c>
       <c r="R59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S59" s="3">
         <v>1100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>800</v>
+      </c>
+      <c r="E60" s="3">
         <v>700</v>
-      </c>
-      <c r="E60" s="3">
-        <v>900</v>
       </c>
       <c r="F60" s="3">
         <v>900</v>
       </c>
       <c r="G60" s="3">
+        <v>900</v>
+      </c>
+      <c r="H60" s="3">
         <v>800</v>
-      </c>
-      <c r="H60" s="3">
-        <v>900</v>
       </c>
       <c r="I60" s="3">
         <v>900</v>
@@ -3203,7 +3343,7 @@
         <v>900</v>
       </c>
       <c r="M60" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="N60" s="3">
         <v>1000</v>
@@ -3215,25 +3355,28 @@
         <v>1000</v>
       </c>
       <c r="Q60" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="R60" s="3">
         <v>1100</v>
       </c>
       <c r="S60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T60" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>100</v>
+      </c>
+      <c r="E61" s="3">
         <v>200</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3291,7 +3437,7 @@
         <v>400</v>
       </c>
       <c r="G62" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H62" s="3">
         <v>500</v>
@@ -3300,11 +3446,11 @@
         <v>500</v>
       </c>
       <c r="J62" s="3">
+        <v>500</v>
+      </c>
+      <c r="K62" s="3">
         <v>400</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>5</v>
       </c>
@@ -3320,8 +3466,8 @@
       <c r="P62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,13 +3643,16 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="E66" s="3">
         <v>1300</v>
@@ -3506,7 +3664,7 @@
         <v>1300</v>
       </c>
       <c r="H66" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="I66" s="3">
         <v>1400</v>
@@ -3515,13 +3673,13 @@
         <v>1400</v>
       </c>
       <c r="K66" s="3">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="L66" s="3">
         <v>900</v>
       </c>
       <c r="M66" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="N66" s="3">
         <v>1000</v>
@@ -3533,16 +3691,19 @@
         <v>1000</v>
       </c>
       <c r="Q66" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="R66" s="3">
         <v>1100</v>
       </c>
       <c r="S66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T66" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-11700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-11500</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-11300</v>
       </c>
       <c r="G72" s="3">
         <v>-11300</v>
       </c>
       <c r="H72" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="I72" s="3">
         <v>-11400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-11500</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-11300</v>
       </c>
       <c r="K72" s="3">
         <v>-11300</v>
       </c>
       <c r="L72" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="M72" s="3">
         <v>-11400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-11500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-11400</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-11500</v>
       </c>
       <c r="P72" s="3">
         <v>-11500</v>
       </c>
       <c r="Q72" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="R72" s="3">
         <v>-11600</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-11500</v>
       </c>
       <c r="S72" s="3">
         <v>-11500</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3">
+        <v>-11500</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,19 +4169,22 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E76" s="3">
         <v>2600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2800</v>
-      </c>
-      <c r="F76" s="3">
-        <v>2900</v>
       </c>
       <c r="G76" s="3">
         <v>2900</v>
@@ -4007,40 +4193,43 @@
         <v>2900</v>
       </c>
       <c r="I76" s="3">
+        <v>2900</v>
+      </c>
+      <c r="J76" s="3">
         <v>2800</v>
-      </c>
-      <c r="J76" s="3">
-        <v>3000</v>
       </c>
       <c r="K76" s="3">
         <v>3000</v>
       </c>
       <c r="L76" s="3">
+        <v>3000</v>
+      </c>
+      <c r="M76" s="3">
         <v>2900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2800</v>
-      </c>
-      <c r="P76" s="3">
-        <v>2700</v>
       </c>
       <c r="Q76" s="3">
         <v>2700</v>
       </c>
       <c r="R76" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="S76" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,77 +4281,83 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E80" s="2">
         <v>43982</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43890</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43799</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43708</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43616</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43524</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43434</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43343</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43251</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43159</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43069</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42978</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42886</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42794</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42704</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G81" s="3">
         <v>100</v>
@@ -4177,13 +4372,13 @@
         <v>100</v>
       </c>
       <c r="K81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L81" s="3">
         <v>200</v>
       </c>
       <c r="M81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N81" s="3">
         <v>100</v>
@@ -4201,10 +4396,13 @@
         <v>100</v>
       </c>
       <c r="S81" s="3">
+        <v>100</v>
+      </c>
+      <c r="T81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,23 +4756,26 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
-        <v>100</v>
-      </c>
       <c r="F89" s="3">
+        <v>100</v>
+      </c>
+      <c r="G89" s="3">
         <v>200</v>
       </c>
-      <c r="G89" s="3">
-        <v>100</v>
-      </c>
       <c r="H89" s="3">
         <v>100</v>
       </c>
@@ -4566,37 +4783,40 @@
         <v>100</v>
       </c>
       <c r="J89" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K89" s="3">
         <v>200</v>
       </c>
       <c r="L89" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M89" s="3">
+        <v>100</v>
+      </c>
+      <c r="N89" s="3">
         <v>200</v>
       </c>
-      <c r="N89" s="3">
-        <v>100</v>
-      </c>
       <c r="O89" s="3">
         <v>100</v>
       </c>
       <c r="P89" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q89" s="3">
         <v>200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>200</v>
       </c>
-      <c r="S89" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4645,14 +4866,14 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -4663,14 +4884,17 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>5</v>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,19 +5082,20 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
         <v>-100</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-200</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-100</v>
       </c>
       <c r="G96" s="3">
         <v>-100</v>
@@ -4870,10 +5104,10 @@
         <v>-100</v>
       </c>
       <c r="I96" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J96" s="3">
         <v>-200</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-100</v>
       </c>
       <c r="K96" s="3">
         <v>-100</v>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,19 +5304,22 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-200</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-100</v>
       </c>
       <c r="G100" s="3">
         <v>-100</v>
@@ -5082,10 +5328,10 @@
         <v>-100</v>
       </c>
       <c r="I100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J100" s="3">
         <v>-200</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-100</v>
       </c>
       <c r="K100" s="3">
         <v>-100</v>
@@ -5114,8 +5360,11 @@
       <c r="S100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,32 +5416,35 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
-        <v>100</v>
-      </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
-        <v>100</v>
-      </c>
       <c r="K102" s="3">
         <v>100</v>
       </c>
@@ -5200,7 +5452,7 @@
         <v>100</v>
       </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N102" s="3">
         <v>0</v>
@@ -5209,15 +5461,18 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>100</v>
+      </c>
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3">
-        <v>100</v>
-      </c>
       <c r="S102" s="3">
+        <v>100</v>
+      </c>
+      <c r="T102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BABB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BABB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
   <si>
     <t>BABB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,103 +665,106 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E7" s="2">
         <v>44074</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43982</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43890</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43799</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43708</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43616</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43524</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43434</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43343</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43251</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43159</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43069</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42978</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42886</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42794</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42704</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>700</v>
+      </c>
+      <c r="E8" s="3">
         <v>600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>700</v>
-      </c>
-      <c r="G8" s="3">
-        <v>800</v>
       </c>
       <c r="H8" s="3">
         <v>800</v>
@@ -770,10 +773,10 @@
         <v>800</v>
       </c>
       <c r="J8" s="3">
+        <v>800</v>
+      </c>
+      <c r="K8" s="3">
         <v>700</v>
-      </c>
-      <c r="K8" s="3">
-        <v>600</v>
       </c>
       <c r="L8" s="3">
         <v>600</v>
@@ -782,10 +785,10 @@
         <v>600</v>
       </c>
       <c r="N8" s="3">
+        <v>600</v>
+      </c>
+      <c r="O8" s="3">
         <v>500</v>
-      </c>
-      <c r="O8" s="3">
-        <v>600</v>
       </c>
       <c r="P8" s="3">
         <v>600</v>
@@ -794,16 +797,19 @@
         <v>600</v>
       </c>
       <c r="R8" s="3">
+        <v>600</v>
+      </c>
+      <c r="S8" s="3">
         <v>500</v>
-      </c>
-      <c r="S8" s="3">
-        <v>600</v>
       </c>
       <c r="T8" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -858,8 +864,11 @@
       <c r="T9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +923,11 @@
       <c r="T10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1123,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,25 +1204,26 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>600</v>
+      </c>
+      <c r="E17" s="3">
         <v>500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>700</v>
-      </c>
-      <c r="H17" s="3">
-        <v>600</v>
       </c>
       <c r="I17" s="3">
         <v>600</v>
@@ -1206,10 +1232,10 @@
         <v>600</v>
       </c>
       <c r="K17" s="3">
+        <v>600</v>
+      </c>
+      <c r="L17" s="3">
         <v>500</v>
-      </c>
-      <c r="L17" s="3">
-        <v>400</v>
       </c>
       <c r="M17" s="3">
         <v>400</v>
@@ -1224,19 +1250,22 @@
         <v>400</v>
       </c>
       <c r="Q17" s="3">
+        <v>400</v>
+      </c>
+      <c r="R17" s="3">
         <v>500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1244,55 +1273,58 @@
         <v>100</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G18" s="3">
         <v>100</v>
       </c>
       <c r="H18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I18" s="3">
         <v>200</v>
       </c>
       <c r="J18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K18" s="3">
         <v>100</v>
       </c>
       <c r="L18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M18" s="3">
         <v>200</v>
       </c>
       <c r="N18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P18" s="3">
         <v>200</v>
       </c>
       <c r="Q18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R18" s="3">
         <v>100</v>
       </c>
       <c r="S18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T18" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1345,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1369,8 +1402,11 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1378,20 +1414,20 @@
         <v>100</v>
       </c>
       <c r="E21" s="3">
+        <v>100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
-        <v>100</v>
-      </c>
       <c r="G21" s="3">
         <v>100</v>
       </c>
       <c r="H21" s="3">
+        <v>100</v>
+      </c>
+      <c r="I21" s="3">
         <v>200</v>
       </c>
-      <c r="I21" s="3">
-        <v>100</v>
-      </c>
       <c r="J21" s="3">
         <v>100</v>
       </c>
@@ -1399,13 +1435,13 @@
         <v>100</v>
       </c>
       <c r="L21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M21" s="3">
         <v>200</v>
       </c>
       <c r="N21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O21" s="3">
         <v>100</v>
@@ -1423,10 +1459,13 @@
         <v>100</v>
       </c>
       <c r="T21" s="3">
+        <v>100</v>
+      </c>
+      <c r="U21" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1457,14 +1496,14 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>5</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1481,8 +1520,11 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1490,20 +1532,20 @@
         <v>100</v>
       </c>
       <c r="E23" s="3">
+        <v>100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
-        <v>100</v>
-      </c>
       <c r="G23" s="3">
         <v>100</v>
       </c>
       <c r="H23" s="3">
+        <v>100</v>
+      </c>
+      <c r="I23" s="3">
         <v>200</v>
       </c>
-      <c r="I23" s="3">
-        <v>100</v>
-      </c>
       <c r="J23" s="3">
         <v>100</v>
       </c>
@@ -1511,13 +1553,13 @@
         <v>100</v>
       </c>
       <c r="L23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M23" s="3">
         <v>200</v>
       </c>
       <c r="N23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O23" s="3">
         <v>100</v>
@@ -1535,15 +1577,18 @@
         <v>100</v>
       </c>
       <c r="T23" s="3">
+        <v>100</v>
+      </c>
+      <c r="U23" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1564,11 +1609,11 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>-200</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
@@ -1593,8 +1638,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,22 +1697,25 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
+        <v>100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
         <v>100</v>
@@ -1676,16 +1727,16 @@
         <v>100</v>
       </c>
       <c r="K26" s="3">
+        <v>100</v>
+      </c>
+      <c r="L26" s="3">
         <v>300</v>
-      </c>
-      <c r="L26" s="3">
-        <v>200</v>
       </c>
       <c r="M26" s="3">
         <v>200</v>
       </c>
       <c r="N26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O26" s="3">
         <v>100</v>
@@ -1703,24 +1754,27 @@
         <v>100</v>
       </c>
       <c r="T26" s="3">
+        <v>100</v>
+      </c>
+      <c r="U26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
+        <v>100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
         <v>100</v>
@@ -1732,16 +1786,16 @@
         <v>100</v>
       </c>
       <c r="K27" s="3">
+        <v>100</v>
+      </c>
+      <c r="L27" s="3">
         <v>300</v>
-      </c>
-      <c r="L27" s="3">
-        <v>200</v>
       </c>
       <c r="M27" s="3">
         <v>200</v>
       </c>
       <c r="N27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O27" s="3">
         <v>100</v>
@@ -1759,10 +1813,13 @@
         <v>100</v>
       </c>
       <c r="T27" s="3">
+        <v>100</v>
+      </c>
+      <c r="U27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1843,12 +1903,12 @@
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3">
         <v>-200</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1864,8 +1924,8 @@
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
+      <c r="R29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S29" s="3">
         <v>0</v>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2051,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2041,22 +2110,25 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
+        <v>100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
         <v>100</v>
@@ -2071,13 +2143,13 @@
         <v>100</v>
       </c>
       <c r="L33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M33" s="3">
         <v>200</v>
       </c>
       <c r="N33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O33" s="3">
         <v>100</v>
@@ -2095,10 +2167,13 @@
         <v>100</v>
       </c>
       <c r="T33" s="3">
+        <v>100</v>
+      </c>
+      <c r="U33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,22 +2228,25 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
+        <v>100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3">
         <v>100</v>
@@ -2183,13 +2261,13 @@
         <v>100</v>
       </c>
       <c r="L35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M35" s="3">
         <v>200</v>
       </c>
       <c r="N35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O35" s="3">
         <v>100</v>
@@ -2207,71 +2285,77 @@
         <v>100</v>
       </c>
       <c r="T35" s="3">
+        <v>100</v>
+      </c>
+      <c r="U35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E38" s="2">
         <v>44074</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43982</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43890</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43799</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43708</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43616</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43524</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43434</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43343</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43251</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43159</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43069</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42978</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42886</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42794</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42704</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,25 +2399,26 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E41" s="3">
         <v>1100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1100</v>
-      </c>
-      <c r="H41" s="3">
-        <v>1000</v>
       </c>
       <c r="I41" s="3">
         <v>1000</v>
@@ -2341,37 +2427,40 @@
         <v>1000</v>
       </c>
       <c r="K41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L41" s="3">
         <v>1100</v>
-      </c>
-      <c r="L41" s="3">
-        <v>900</v>
       </c>
       <c r="M41" s="3">
         <v>900</v>
       </c>
       <c r="N41" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="O41" s="3">
         <v>800</v>
       </c>
       <c r="P41" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q41" s="3">
         <v>700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2515,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2435,10 +2527,10 @@
         <v>100</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3">
         <v>100</v>
@@ -2482,34 +2574,37 @@
       <c r="T43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -2538,19 +2633,22 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>500</v>
+      </c>
+      <c r="E45" s="3">
         <v>400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>300</v>
-      </c>
-      <c r="F45" s="3">
-        <v>500</v>
       </c>
       <c r="G45" s="3">
         <v>500</v>
@@ -2568,13 +2666,13 @@
         <v>500</v>
       </c>
       <c r="L45" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M45" s="3">
         <v>700</v>
       </c>
       <c r="N45" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="O45" s="3">
         <v>800</v>
@@ -2583,7 +2681,7 @@
         <v>800</v>
       </c>
       <c r="Q45" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="R45" s="3">
         <v>700</v>
@@ -2594,64 +2692,70 @@
       <c r="T45" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E46" s="3">
         <v>1600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1700</v>
-      </c>
-      <c r="H46" s="3">
-        <v>1600</v>
       </c>
       <c r="I46" s="3">
         <v>1600</v>
       </c>
       <c r="J46" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K46" s="3">
         <v>1500</v>
-      </c>
-      <c r="K46" s="3">
-        <v>1700</v>
       </c>
       <c r="L46" s="3">
         <v>1700</v>
       </c>
       <c r="M46" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="N46" s="3">
         <v>1600</v>
       </c>
       <c r="O46" s="3">
+        <v>1600</v>
+      </c>
+      <c r="P46" s="3">
         <v>1700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1600</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>1500</v>
       </c>
       <c r="R46" s="3">
         <v>1500</v>
       </c>
       <c r="S46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="T46" s="3">
         <v>1700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,8 +2810,11 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2718,7 +2825,7 @@
         <v>300</v>
       </c>
       <c r="F48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G48" s="3">
         <v>400</v>
@@ -2730,13 +2837,13 @@
         <v>400</v>
       </c>
       <c r="J48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K48" s="3">
         <v>500</v>
       </c>
       <c r="L48" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
@@ -2762,8 +2869,11 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +2928,11 @@
       <c r="T49" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,13 +3046,16 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E52" s="3">
         <v>200</v>
@@ -2986,8 +3105,11 @@
       <c r="T52" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,8 +3164,11 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3051,13 +3176,13 @@
         <v>4100</v>
       </c>
       <c r="E54" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F54" s="3">
         <v>3900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4000</v>
-      </c>
-      <c r="G54" s="3">
-        <v>4200</v>
       </c>
       <c r="H54" s="3">
         <v>4200</v>
@@ -3069,37 +3194,40 @@
         <v>4200</v>
       </c>
       <c r="K54" s="3">
+        <v>4200</v>
+      </c>
+      <c r="L54" s="3">
         <v>4400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3900</v>
-      </c>
-      <c r="M54" s="3">
-        <v>3800</v>
       </c>
       <c r="N54" s="3">
         <v>3800</v>
       </c>
       <c r="O54" s="3">
+        <v>3800</v>
+      </c>
+      <c r="P54" s="3">
         <v>3900</v>
-      </c>
-      <c r="P54" s="3">
-        <v>3800</v>
       </c>
       <c r="Q54" s="3">
         <v>3800</v>
       </c>
       <c r="R54" s="3">
+        <v>3800</v>
+      </c>
+      <c r="S54" s="3">
         <v>3700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3271,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3187,27 +3317,30 @@
         <v>0</v>
       </c>
       <c r="Q57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R57" s="3">
         <v>100</v>
       </c>
       <c r="S57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>5</v>
+        <v>200</v>
+      </c>
+      <c r="E58" s="3">
+        <v>100</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>5</v>
@@ -3224,8 +3357,8 @@
       <c r="J58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -3245,17 +3378,20 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S58" s="3">
-        <v>0</v>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3263,22 +3399,22 @@
         <v>800</v>
       </c>
       <c r="E59" s="3">
+        <v>800</v>
+      </c>
+      <c r="F59" s="3">
         <v>700</v>
-      </c>
-      <c r="F59" s="3">
-        <v>900</v>
       </c>
       <c r="G59" s="3">
         <v>900</v>
       </c>
       <c r="H59" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="I59" s="3">
         <v>800</v>
       </c>
       <c r="J59" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="K59" s="3">
         <v>900</v>
@@ -3290,7 +3426,7 @@
         <v>900</v>
       </c>
       <c r="N59" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="O59" s="3">
         <v>1000</v>
@@ -3305,33 +3441,36 @@
         <v>1000</v>
       </c>
       <c r="S59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T59" s="3">
         <v>1100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E60" s="3">
         <v>800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>700</v>
-      </c>
-      <c r="F60" s="3">
-        <v>900</v>
       </c>
       <c r="G60" s="3">
         <v>900</v>
       </c>
       <c r="H60" s="3">
+        <v>900</v>
+      </c>
+      <c r="I60" s="3">
         <v>800</v>
-      </c>
-      <c r="I60" s="3">
-        <v>900</v>
       </c>
       <c r="J60" s="3">
         <v>900</v>
@@ -3346,7 +3485,7 @@
         <v>900</v>
       </c>
       <c r="N60" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="O60" s="3">
         <v>1000</v>
@@ -3358,28 +3497,31 @@
         <v>1000</v>
       </c>
       <c r="R60" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="S60" s="3">
         <v>1100</v>
       </c>
       <c r="T60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U60" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>100</v>
+      </c>
+      <c r="F61" s="3">
         <v>200</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -3422,8 +3564,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3440,7 +3585,7 @@
         <v>400</v>
       </c>
       <c r="H62" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I62" s="3">
         <v>500</v>
@@ -3449,11 +3594,11 @@
         <v>500</v>
       </c>
       <c r="K62" s="3">
+        <v>500</v>
+      </c>
+      <c r="L62" s="3">
         <v>400</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>5</v>
       </c>
@@ -3469,8 +3614,8 @@
       <c r="Q62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -3478,8 +3623,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,16 +3800,19 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E66" s="3">
         <v>1400</v>
-      </c>
-      <c r="E66" s="3">
-        <v>1300</v>
       </c>
       <c r="F66" s="3">
         <v>1300</v>
@@ -3667,7 +3824,7 @@
         <v>1300</v>
       </c>
       <c r="I66" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="J66" s="3">
         <v>1400</v>
@@ -3676,13 +3833,13 @@
         <v>1400</v>
       </c>
       <c r="L66" s="3">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="M66" s="3">
         <v>900</v>
       </c>
       <c r="N66" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="O66" s="3">
         <v>1000</v>
@@ -3694,16 +3851,19 @@
         <v>1000</v>
       </c>
       <c r="R66" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="S66" s="3">
         <v>1100</v>
       </c>
       <c r="T66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U66" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-11600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-11700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-11500</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-11300</v>
       </c>
       <c r="H72" s="3">
         <v>-11300</v>
       </c>
       <c r="I72" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="J72" s="3">
         <v>-11400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-11500</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-11300</v>
       </c>
       <c r="L72" s="3">
         <v>-11300</v>
       </c>
       <c r="M72" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="N72" s="3">
         <v>-11400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-11500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-11400</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-11500</v>
       </c>
       <c r="Q72" s="3">
         <v>-11500</v>
       </c>
       <c r="R72" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="S72" s="3">
         <v>-11600</v>
-      </c>
-      <c r="S72" s="3">
-        <v>-11500</v>
       </c>
       <c r="T72" s="3">
         <v>-11500</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3">
+        <v>-11500</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,22 +4354,25 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E76" s="3">
         <v>2700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2800</v>
-      </c>
-      <c r="G76" s="3">
-        <v>2900</v>
       </c>
       <c r="H76" s="3">
         <v>2900</v>
@@ -4196,40 +4381,43 @@
         <v>2900</v>
       </c>
       <c r="J76" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K76" s="3">
         <v>2800</v>
-      </c>
-      <c r="K76" s="3">
-        <v>3000</v>
       </c>
       <c r="L76" s="3">
         <v>3000</v>
       </c>
       <c r="M76" s="3">
+        <v>3000</v>
+      </c>
+      <c r="N76" s="3">
         <v>2900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2800</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>2700</v>
       </c>
       <c r="R76" s="3">
         <v>2700</v>
       </c>
       <c r="S76" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="T76" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,83 +4472,89 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E80" s="2">
         <v>44074</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43982</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43890</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43799</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43708</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43616</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43524</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43434</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43343</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43251</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43159</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43069</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42978</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42886</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42794</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42704</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
+        <v>100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H81" s="3">
         <v>100</v>
@@ -4375,13 +4569,13 @@
         <v>100</v>
       </c>
       <c r="L81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M81" s="3">
         <v>200</v>
       </c>
       <c r="N81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O81" s="3">
         <v>100</v>
@@ -4399,10 +4593,13 @@
         <v>100</v>
       </c>
       <c r="T81" s="3">
+        <v>100</v>
+      </c>
+      <c r="U81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4677,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,26 +4972,29 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E89" s="3">
+        <v>100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
-        <v>100</v>
-      </c>
       <c r="G89" s="3">
+        <v>100</v>
+      </c>
+      <c r="H89" s="3">
         <v>200</v>
       </c>
-      <c r="H89" s="3">
-        <v>100</v>
-      </c>
       <c r="I89" s="3">
         <v>100</v>
       </c>
@@ -4786,37 +5002,40 @@
         <v>100</v>
       </c>
       <c r="K89" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L89" s="3">
         <v>200</v>
       </c>
       <c r="M89" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N89" s="3">
+        <v>100</v>
+      </c>
+      <c r="O89" s="3">
         <v>200</v>
       </c>
-      <c r="O89" s="3">
-        <v>100</v>
-      </c>
       <c r="P89" s="3">
         <v>100</v>
       </c>
       <c r="Q89" s="3">
+        <v>100</v>
+      </c>
+      <c r="R89" s="3">
         <v>200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>200</v>
       </c>
-      <c r="T89" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5056,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4869,14 +5089,14 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -4887,14 +5107,17 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>5</v>
+      <c r="S91" s="3">
+        <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5231,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5061,8 +5290,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5092,13 +5325,13 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-100</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-200</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-100</v>
       </c>
       <c r="H96" s="3">
         <v>-100</v>
@@ -5107,10 +5340,10 @@
         <v>-100</v>
       </c>
       <c r="J96" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-200</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-100</v>
       </c>
       <c r="L96" s="3">
         <v>-100</v>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5549,11 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5316,13 +5561,13 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-200</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-100</v>
       </c>
       <c r="H100" s="3">
         <v>-100</v>
@@ -5331,10 +5576,10 @@
         <v>-100</v>
       </c>
       <c r="J100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-200</v>
-      </c>
-      <c r="K100" s="3">
-        <v>-100</v>
       </c>
       <c r="L100" s="3">
         <v>-100</v>
@@ -5363,8 +5608,11 @@
       <c r="T100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,35 +5667,38 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E102" s="3">
+        <v>100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
-        <v>100</v>
-      </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
-        <v>100</v>
-      </c>
       <c r="L102" s="3">
         <v>100</v>
       </c>
@@ -5455,7 +5706,7 @@
         <v>100</v>
       </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O102" s="3">
         <v>0</v>
@@ -5464,15 +5715,18 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>100</v>
+      </c>
+      <c r="S102" s="3">
         <v>-200</v>
       </c>
-      <c r="S102" s="3">
-        <v>100</v>
-      </c>
       <c r="T102" s="3">
+        <v>100</v>
+      </c>
+      <c r="U102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BABB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BABB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
   <si>
     <t>BABB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,92 +665,96 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E7" s="2">
         <v>44165</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44074</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43982</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43890</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43799</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43708</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43616</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43524</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43434</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43343</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43251</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43159</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43069</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42978</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42886</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42794</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42704</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -758,16 +762,16 @@
         <v>700</v>
       </c>
       <c r="E8" s="3">
+        <v>700</v>
+      </c>
+      <c r="F8" s="3">
         <v>600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>700</v>
-      </c>
-      <c r="H8" s="3">
-        <v>800</v>
       </c>
       <c r="I8" s="3">
         <v>800</v>
@@ -776,10 +780,10 @@
         <v>800</v>
       </c>
       <c r="K8" s="3">
+        <v>800</v>
+      </c>
+      <c r="L8" s="3">
         <v>700</v>
-      </c>
-      <c r="L8" s="3">
-        <v>600</v>
       </c>
       <c r="M8" s="3">
         <v>600</v>
@@ -788,10 +792,10 @@
         <v>600</v>
       </c>
       <c r="O8" s="3">
+        <v>600</v>
+      </c>
+      <c r="P8" s="3">
         <v>500</v>
-      </c>
-      <c r="P8" s="3">
-        <v>600</v>
       </c>
       <c r="Q8" s="3">
         <v>600</v>
@@ -800,16 +804,19 @@
         <v>600</v>
       </c>
       <c r="S8" s="3">
+        <v>600</v>
+      </c>
+      <c r="T8" s="3">
         <v>500</v>
-      </c>
-      <c r="T8" s="3">
-        <v>600</v>
       </c>
       <c r="U8" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -867,8 +874,11 @@
       <c r="U9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,8 +936,11 @@
       <c r="U10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,31 +1084,34 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>-200</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1126,8 +1146,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,28 +1231,29 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>400</v>
+      </c>
+      <c r="E17" s="3">
         <v>600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>700</v>
-      </c>
-      <c r="I17" s="3">
-        <v>600</v>
       </c>
       <c r="J17" s="3">
         <v>600</v>
@@ -1235,10 +1262,10 @@
         <v>600</v>
       </c>
       <c r="L17" s="3">
+        <v>600</v>
+      </c>
+      <c r="M17" s="3">
         <v>500</v>
-      </c>
-      <c r="M17" s="3">
-        <v>400</v>
       </c>
       <c r="N17" s="3">
         <v>400</v>
@@ -1253,78 +1280,84 @@
         <v>400</v>
       </c>
       <c r="R17" s="3">
+        <v>400</v>
+      </c>
+      <c r="S17" s="3">
         <v>500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E18" s="3">
         <v>100</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
         <v>100</v>
       </c>
       <c r="I18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J18" s="3">
         <v>200</v>
       </c>
       <c r="K18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L18" s="3">
         <v>100</v>
       </c>
       <c r="M18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N18" s="3">
         <v>200</v>
       </c>
       <c r="O18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q18" s="3">
         <v>200</v>
       </c>
       <c r="R18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S18" s="3">
         <v>100</v>
       </c>
       <c r="T18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U18" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,8 +1379,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1405,32 +1439,35 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E21" s="3">
         <v>100</v>
       </c>
       <c r="F21" s="3">
+        <v>100</v>
+      </c>
+      <c r="G21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3">
-        <v>100</v>
-      </c>
       <c r="H21" s="3">
         <v>100</v>
       </c>
       <c r="I21" s="3">
+        <v>100</v>
+      </c>
+      <c r="J21" s="3">
         <v>200</v>
       </c>
-      <c r="J21" s="3">
-        <v>100</v>
-      </c>
       <c r="K21" s="3">
         <v>100</v>
       </c>
@@ -1438,13 +1475,13 @@
         <v>100</v>
       </c>
       <c r="M21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N21" s="3">
         <v>200</v>
       </c>
       <c r="O21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P21" s="3">
         <v>100</v>
@@ -1462,10 +1499,13 @@
         <v>100</v>
       </c>
       <c r="U21" s="3">
+        <v>100</v>
+      </c>
+      <c r="V21" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1499,14 +1539,14 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>5</v>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1523,32 +1563,35 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E23" s="3">
         <v>100</v>
       </c>
       <c r="F23" s="3">
+        <v>100</v>
+      </c>
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
-        <v>100</v>
-      </c>
       <c r="H23" s="3">
         <v>100</v>
       </c>
       <c r="I23" s="3">
+        <v>100</v>
+      </c>
+      <c r="J23" s="3">
         <v>200</v>
       </c>
-      <c r="J23" s="3">
-        <v>100</v>
-      </c>
       <c r="K23" s="3">
         <v>100</v>
       </c>
@@ -1556,13 +1599,13 @@
         <v>100</v>
       </c>
       <c r="M23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N23" s="3">
         <v>200</v>
       </c>
       <c r="O23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P23" s="3">
         <v>100</v>
@@ -1580,19 +1623,22 @@
         <v>100</v>
       </c>
       <c r="U23" s="3">
+        <v>100</v>
+      </c>
+      <c r="V23" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
@@ -1612,11 +1658,11 @@
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-200</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
@@ -1641,8 +1687,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,25 +1749,28 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
-        <v>100</v>
-      </c>
       <c r="F26" s="3">
+        <v>100</v>
+      </c>
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3">
         <v>100</v>
@@ -1730,16 +1782,16 @@
         <v>100</v>
       </c>
       <c r="L26" s="3">
+        <v>100</v>
+      </c>
+      <c r="M26" s="3">
         <v>300</v>
-      </c>
-      <c r="M26" s="3">
-        <v>200</v>
       </c>
       <c r="N26" s="3">
         <v>200</v>
       </c>
       <c r="O26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P26" s="3">
         <v>100</v>
@@ -1757,27 +1809,30 @@
         <v>100</v>
       </c>
       <c r="U26" s="3">
+        <v>100</v>
+      </c>
+      <c r="V26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
-        <v>100</v>
-      </c>
       <c r="F27" s="3">
+        <v>100</v>
+      </c>
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I27" s="3">
         <v>100</v>
@@ -1789,16 +1844,16 @@
         <v>100</v>
       </c>
       <c r="L27" s="3">
+        <v>100</v>
+      </c>
+      <c r="M27" s="3">
         <v>300</v>
-      </c>
-      <c r="M27" s="3">
-        <v>200</v>
       </c>
       <c r="N27" s="3">
         <v>200</v>
       </c>
       <c r="O27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P27" s="3">
         <v>100</v>
@@ -1816,10 +1871,13 @@
         <v>100</v>
       </c>
       <c r="U27" s="3">
+        <v>100</v>
+      </c>
+      <c r="V27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1906,12 +1967,12 @@
       <c r="K29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
         <v>-200</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1927,8 +1988,8 @@
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
+      <c r="S29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T29" s="3">
         <v>0</v>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,8 +2121,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2113,25 +2183,28 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
-        <v>100</v>
-      </c>
       <c r="F33" s="3">
+        <v>100</v>
+      </c>
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I33" s="3">
         <v>100</v>
@@ -2146,13 +2219,13 @@
         <v>100</v>
       </c>
       <c r="M33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N33" s="3">
         <v>200</v>
       </c>
       <c r="O33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P33" s="3">
         <v>100</v>
@@ -2170,10 +2243,13 @@
         <v>100</v>
       </c>
       <c r="U33" s="3">
+        <v>100</v>
+      </c>
+      <c r="V33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,25 +2307,28 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
-        <v>100</v>
-      </c>
       <c r="F35" s="3">
+        <v>100</v>
+      </c>
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I35" s="3">
         <v>100</v>
@@ -2264,13 +2343,13 @@
         <v>100</v>
       </c>
       <c r="M35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N35" s="3">
         <v>200</v>
       </c>
       <c r="O35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P35" s="3">
         <v>100</v>
@@ -2288,74 +2367,80 @@
         <v>100</v>
       </c>
       <c r="U35" s="3">
+        <v>100</v>
+      </c>
+      <c r="V35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E38" s="2">
         <v>44165</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44074</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43982</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43890</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43799</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43708</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43616</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43524</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43434</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43343</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43251</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43159</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43069</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42978</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42886</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42794</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42704</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,28 +2486,29 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E41" s="3">
         <v>1200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1100</v>
-      </c>
-      <c r="I41" s="3">
-        <v>1000</v>
       </c>
       <c r="J41" s="3">
         <v>1000</v>
@@ -2430,37 +2517,40 @@
         <v>1000</v>
       </c>
       <c r="L41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M41" s="3">
         <v>1100</v>
-      </c>
-      <c r="M41" s="3">
-        <v>900</v>
       </c>
       <c r="N41" s="3">
         <v>900</v>
       </c>
       <c r="O41" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="P41" s="3">
         <v>800</v>
       </c>
       <c r="Q41" s="3">
+        <v>800</v>
+      </c>
+      <c r="R41" s="3">
         <v>700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,8 +2608,11 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2530,10 +2623,10 @@
         <v>100</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H43" s="3">
         <v>100</v>
@@ -2577,8 +2670,11 @@
       <c r="U43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2603,11 +2699,11 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
@@ -2636,8 +2732,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2645,13 +2744,13 @@
         <v>500</v>
       </c>
       <c r="E45" s="3">
+        <v>500</v>
+      </c>
+      <c r="F45" s="3">
         <v>400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>300</v>
-      </c>
-      <c r="G45" s="3">
-        <v>500</v>
       </c>
       <c r="H45" s="3">
         <v>500</v>
@@ -2669,13 +2768,13 @@
         <v>500</v>
       </c>
       <c r="M45" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="N45" s="3">
         <v>700</v>
       </c>
       <c r="O45" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="P45" s="3">
         <v>800</v>
@@ -2684,7 +2783,7 @@
         <v>800</v>
       </c>
       <c r="R45" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="S45" s="3">
         <v>700</v>
@@ -2695,67 +2794,73 @@
       <c r="U45" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E46" s="3">
         <v>1800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1700</v>
-      </c>
-      <c r="I46" s="3">
-        <v>1600</v>
       </c>
       <c r="J46" s="3">
         <v>1600</v>
       </c>
       <c r="K46" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L46" s="3">
         <v>1500</v>
-      </c>
-      <c r="L46" s="3">
-        <v>1700</v>
       </c>
       <c r="M46" s="3">
         <v>1700</v>
       </c>
       <c r="N46" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="O46" s="3">
         <v>1600</v>
       </c>
       <c r="P46" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q46" s="3">
         <v>1700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1600</v>
-      </c>
-      <c r="R46" s="3">
-        <v>1500</v>
       </c>
       <c r="S46" s="3">
         <v>1500</v>
       </c>
       <c r="T46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="U46" s="3">
         <v>1700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2813,8 +2918,11 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2828,7 +2936,7 @@
         <v>300</v>
       </c>
       <c r="G48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H48" s="3">
         <v>400</v>
@@ -2840,13 +2948,13 @@
         <v>400</v>
       </c>
       <c r="K48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L48" s="3">
         <v>500</v>
       </c>
       <c r="M48" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
@@ -2872,8 +2980,11 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,16 +3166,19 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E52" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F52" s="3">
         <v>200</v>
@@ -3108,8 +3228,11 @@
       <c r="U52" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,25 +3290,28 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="E54" s="3">
         <v>4100</v>
       </c>
       <c r="F54" s="3">
+        <v>4100</v>
+      </c>
+      <c r="G54" s="3">
         <v>3900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4000</v>
-      </c>
-      <c r="H54" s="3">
-        <v>4200</v>
       </c>
       <c r="I54" s="3">
         <v>4200</v>
@@ -3197,37 +3323,40 @@
         <v>4200</v>
       </c>
       <c r="L54" s="3">
+        <v>4200</v>
+      </c>
+      <c r="M54" s="3">
         <v>4400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3900</v>
-      </c>
-      <c r="N54" s="3">
-        <v>3800</v>
       </c>
       <c r="O54" s="3">
         <v>3800</v>
       </c>
       <c r="P54" s="3">
+        <v>3800</v>
+      </c>
+      <c r="Q54" s="3">
         <v>3900</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>3800</v>
       </c>
       <c r="R54" s="3">
         <v>3800</v>
       </c>
       <c r="S54" s="3">
+        <v>3800</v>
+      </c>
+      <c r="T54" s="3">
         <v>3700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,8 +3402,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3320,30 +3451,33 @@
         <v>0</v>
       </c>
       <c r="R57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S57" s="3">
         <v>100</v>
       </c>
       <c r="T57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>200</v>
       </c>
-      <c r="E58" s="3">
-        <v>100</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>5</v>
+      <c r="F58" s="3">
+        <v>100</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>5</v>
@@ -3360,8 +3494,8 @@
       <c r="K58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -3381,43 +3515,46 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T58" s="3">
-        <v>0</v>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E59" s="3">
         <v>800</v>
       </c>
       <c r="F59" s="3">
+        <v>800</v>
+      </c>
+      <c r="G59" s="3">
         <v>700</v>
-      </c>
-      <c r="G59" s="3">
-        <v>900</v>
       </c>
       <c r="H59" s="3">
         <v>900</v>
       </c>
       <c r="I59" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="J59" s="3">
         <v>800</v>
       </c>
       <c r="K59" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="L59" s="3">
         <v>900</v>
@@ -3429,7 +3566,7 @@
         <v>900</v>
       </c>
       <c r="O59" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="P59" s="3">
         <v>1000</v>
@@ -3444,36 +3581,39 @@
         <v>1000</v>
       </c>
       <c r="T59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U59" s="3">
         <v>1100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>900</v>
+      </c>
+      <c r="E60" s="3">
         <v>1100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>700</v>
-      </c>
-      <c r="G60" s="3">
-        <v>900</v>
       </c>
       <c r="H60" s="3">
         <v>900</v>
       </c>
       <c r="I60" s="3">
+        <v>900</v>
+      </c>
+      <c r="J60" s="3">
         <v>800</v>
-      </c>
-      <c r="J60" s="3">
-        <v>900</v>
       </c>
       <c r="K60" s="3">
         <v>900</v>
@@ -3488,7 +3628,7 @@
         <v>900</v>
       </c>
       <c r="O60" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="P60" s="3">
         <v>1000</v>
@@ -3500,16 +3640,19 @@
         <v>1000</v>
       </c>
       <c r="S60" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T60" s="3">
         <v>1100</v>
       </c>
       <c r="U60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="V60" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3517,14 +3660,14 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>100</v>
+      </c>
+      <c r="G61" s="3">
         <v>200</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -3567,8 +3710,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3588,7 +3734,7 @@
         <v>400</v>
       </c>
       <c r="I62" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J62" s="3">
         <v>500</v>
@@ -3597,11 +3743,11 @@
         <v>500</v>
       </c>
       <c r="L62" s="3">
+        <v>500</v>
+      </c>
+      <c r="M62" s="3">
         <v>400</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>5</v>
       </c>
@@ -3617,8 +3763,8 @@
       <c r="R62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,19 +3958,22 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E66" s="3">
         <v>1500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1400</v>
-      </c>
-      <c r="F66" s="3">
-        <v>1300</v>
       </c>
       <c r="G66" s="3">
         <v>1300</v>
@@ -3827,7 +3985,7 @@
         <v>1300</v>
       </c>
       <c r="J66" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="K66" s="3">
         <v>1400</v>
@@ -3836,13 +3994,13 @@
         <v>1400</v>
       </c>
       <c r="M66" s="3">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="N66" s="3">
         <v>900</v>
       </c>
       <c r="O66" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="P66" s="3">
         <v>1000</v>
@@ -3854,16 +4012,19 @@
         <v>1000</v>
       </c>
       <c r="S66" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T66" s="3">
         <v>1100</v>
       </c>
       <c r="U66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="V66" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-11700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-11600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-11700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-11500</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-11300</v>
       </c>
       <c r="I72" s="3">
         <v>-11300</v>
       </c>
       <c r="J72" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-11400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-11500</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-11300</v>
       </c>
       <c r="M72" s="3">
         <v>-11300</v>
       </c>
       <c r="N72" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="O72" s="3">
         <v>-11400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-11500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-11400</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-11500</v>
       </c>
       <c r="R72" s="3">
         <v>-11500</v>
       </c>
       <c r="S72" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="T72" s="3">
         <v>-11600</v>
-      </c>
-      <c r="T72" s="3">
-        <v>-11500</v>
       </c>
       <c r="U72" s="3">
         <v>-11500</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3">
+        <v>-11500</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,25 +4540,28 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E76" s="3">
         <v>2600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2800</v>
-      </c>
-      <c r="H76" s="3">
-        <v>2900</v>
       </c>
       <c r="I76" s="3">
         <v>2900</v>
@@ -4384,40 +4570,43 @@
         <v>2900</v>
       </c>
       <c r="K76" s="3">
+        <v>2900</v>
+      </c>
+      <c r="L76" s="3">
         <v>2800</v>
-      </c>
-      <c r="L76" s="3">
-        <v>3000</v>
       </c>
       <c r="M76" s="3">
         <v>3000</v>
       </c>
       <c r="N76" s="3">
+        <v>3000</v>
+      </c>
+      <c r="O76" s="3">
         <v>2900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2800</v>
-      </c>
-      <c r="R76" s="3">
-        <v>2700</v>
       </c>
       <c r="S76" s="3">
         <v>2700</v>
       </c>
       <c r="T76" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="U76" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,89 +4664,95 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E80" s="2">
         <v>44165</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44074</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43982</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43890</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43799</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43708</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43616</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43524</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43434</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43343</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43251</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43159</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43069</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42978</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42886</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42794</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42704</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
-        <v>100</v>
-      </c>
       <c r="F81" s="3">
+        <v>100</v>
+      </c>
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I81" s="3">
         <v>100</v>
@@ -4572,13 +4767,13 @@
         <v>100</v>
       </c>
       <c r="M81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N81" s="3">
         <v>200</v>
       </c>
       <c r="O81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P81" s="3">
         <v>100</v>
@@ -4596,10 +4791,13 @@
         <v>100</v>
       </c>
       <c r="U81" s="3">
+        <v>100</v>
+      </c>
+      <c r="V81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4680,8 +4879,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,29 +5189,32 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>200</v>
+      </c>
+      <c r="E89" s="3">
         <v>300</v>
       </c>
-      <c r="E89" s="3">
-        <v>100</v>
-      </c>
       <c r="F89" s="3">
+        <v>100</v>
+      </c>
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
-        <v>100</v>
-      </c>
       <c r="H89" s="3">
+        <v>100</v>
+      </c>
+      <c r="I89" s="3">
         <v>200</v>
       </c>
-      <c r="I89" s="3">
-        <v>100</v>
-      </c>
       <c r="J89" s="3">
         <v>100</v>
       </c>
@@ -5005,37 +5222,40 @@
         <v>100</v>
       </c>
       <c r="L89" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M89" s="3">
         <v>200</v>
       </c>
       <c r="N89" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O89" s="3">
+        <v>100</v>
+      </c>
+      <c r="P89" s="3">
         <v>200</v>
       </c>
-      <c r="P89" s="3">
-        <v>100</v>
-      </c>
       <c r="Q89" s="3">
         <v>100</v>
       </c>
       <c r="R89" s="3">
+        <v>100</v>
+      </c>
+      <c r="S89" s="3">
         <v>200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>200</v>
       </c>
-      <c r="U89" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5092,14 +5313,14 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -5110,14 +5331,17 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>5</v>
+      <c r="T91" s="3">
+        <v>0</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,8 +5461,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5293,8 +5523,11 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,25 +5549,26 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>-100</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-200</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-100</v>
       </c>
       <c r="I96" s="3">
         <v>-100</v>
@@ -5343,10 +5577,10 @@
         <v>-100</v>
       </c>
       <c r="K96" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L96" s="3">
         <v>-200</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-100</v>
       </c>
       <c r="M96" s="3">
         <v>-100</v>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,25 +5795,28 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-200</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-100</v>
       </c>
       <c r="I100" s="3">
         <v>-100</v>
@@ -5579,10 +5825,10 @@
         <v>-100</v>
       </c>
       <c r="K100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L100" s="3">
         <v>-200</v>
-      </c>
-      <c r="L100" s="3">
-        <v>-100</v>
       </c>
       <c r="M100" s="3">
         <v>-100</v>
@@ -5611,8 +5857,11 @@
       <c r="U100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,38 +5919,41 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
         <v>300</v>
       </c>
-      <c r="E102" s="3">
-        <v>100</v>
-      </c>
       <c r="F102" s="3">
+        <v>100</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
-        <v>100</v>
-      </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
-        <v>100</v>
-      </c>
       <c r="M102" s="3">
         <v>100</v>
       </c>
@@ -5709,7 +5961,7 @@
         <v>100</v>
       </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P102" s="3">
         <v>0</v>
@@ -5718,15 +5970,18 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>100</v>
+      </c>
+      <c r="T102" s="3">
         <v>-200</v>
       </c>
-      <c r="T102" s="3">
-        <v>100</v>
-      </c>
       <c r="U102" s="3">
+        <v>100</v>
+      </c>
+      <c r="V102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BABB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BABB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
   <si>
     <t>BABB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44347</v>
+      </c>
+      <c r="E7" s="2">
         <v>44255</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44165</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44074</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43982</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43890</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43799</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43708</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43616</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43524</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43434</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43343</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43251</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43159</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43069</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42978</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42886</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42794</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42704</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -765,16 +769,16 @@
         <v>700</v>
       </c>
       <c r="F8" s="3">
+        <v>700</v>
+      </c>
+      <c r="G8" s="3">
         <v>600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>700</v>
-      </c>
-      <c r="I8" s="3">
-        <v>800</v>
       </c>
       <c r="J8" s="3">
         <v>800</v>
@@ -783,10 +787,10 @@
         <v>800</v>
       </c>
       <c r="L8" s="3">
+        <v>800</v>
+      </c>
+      <c r="M8" s="3">
         <v>700</v>
-      </c>
-      <c r="M8" s="3">
-        <v>600</v>
       </c>
       <c r="N8" s="3">
         <v>600</v>
@@ -795,10 +799,10 @@
         <v>600</v>
       </c>
       <c r="P8" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q8" s="3">
         <v>500</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>600</v>
       </c>
       <c r="R8" s="3">
         <v>600</v>
@@ -807,16 +811,19 @@
         <v>600</v>
       </c>
       <c r="T8" s="3">
+        <v>600</v>
+      </c>
+      <c r="U8" s="3">
         <v>500</v>
-      </c>
-      <c r="U8" s="3">
-        <v>600</v>
       </c>
       <c r="V8" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -877,8 +884,11 @@
       <c r="V9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -939,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,17 +1104,20 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-200</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1113,8 +1133,8 @@
       <c r="J14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,31 +1258,32 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>600</v>
+      </c>
+      <c r="E17" s="3">
         <v>400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>700</v>
-      </c>
-      <c r="J17" s="3">
-        <v>600</v>
       </c>
       <c r="K17" s="3">
         <v>600</v>
@@ -1265,10 +1292,10 @@
         <v>600</v>
       </c>
       <c r="M17" s="3">
+        <v>600</v>
+      </c>
+      <c r="N17" s="3">
         <v>500</v>
-      </c>
-      <c r="N17" s="3">
-        <v>400</v>
       </c>
       <c r="O17" s="3">
         <v>400</v>
@@ -1283,81 +1310,87 @@
         <v>400</v>
       </c>
       <c r="S17" s="3">
+        <v>400</v>
+      </c>
+      <c r="T17" s="3">
         <v>500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>100</v>
+      </c>
+      <c r="E18" s="3">
         <v>300</v>
       </c>
-      <c r="E18" s="3">
-        <v>100</v>
-      </c>
       <c r="F18" s="3">
         <v>100</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I18" s="3">
         <v>100</v>
       </c>
       <c r="J18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K18" s="3">
         <v>200</v>
       </c>
       <c r="L18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M18" s="3">
         <v>100</v>
       </c>
       <c r="N18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O18" s="3">
         <v>200</v>
       </c>
       <c r="P18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R18" s="3">
         <v>200</v>
       </c>
       <c r="S18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T18" s="3">
         <v>100</v>
       </c>
       <c r="U18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V18" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1442,35 +1476,38 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>100</v>
+      </c>
+      <c r="E21" s="3">
         <v>400</v>
       </c>
-      <c r="E21" s="3">
-        <v>100</v>
-      </c>
       <c r="F21" s="3">
         <v>100</v>
       </c>
       <c r="G21" s="3">
+        <v>100</v>
+      </c>
+      <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="H21" s="3">
-        <v>100</v>
-      </c>
       <c r="I21" s="3">
         <v>100</v>
       </c>
       <c r="J21" s="3">
+        <v>100</v>
+      </c>
+      <c r="K21" s="3">
         <v>200</v>
       </c>
-      <c r="K21" s="3">
-        <v>100</v>
-      </c>
       <c r="L21" s="3">
         <v>100</v>
       </c>
@@ -1478,13 +1515,13 @@
         <v>100</v>
       </c>
       <c r="N21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O21" s="3">
         <v>200</v>
       </c>
       <c r="P21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q21" s="3">
         <v>100</v>
@@ -1502,10 +1539,13 @@
         <v>100</v>
       </c>
       <c r="V21" s="3">
+        <v>100</v>
+      </c>
+      <c r="W21" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1542,14 +1582,14 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>5</v>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1566,35 +1606,38 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>100</v>
+      </c>
+      <c r="E23" s="3">
         <v>400</v>
       </c>
-      <c r="E23" s="3">
-        <v>100</v>
-      </c>
       <c r="F23" s="3">
         <v>100</v>
       </c>
       <c r="G23" s="3">
+        <v>100</v>
+      </c>
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
-        <v>100</v>
-      </c>
       <c r="I23" s="3">
         <v>100</v>
       </c>
       <c r="J23" s="3">
+        <v>100</v>
+      </c>
+      <c r="K23" s="3">
         <v>200</v>
       </c>
-      <c r="K23" s="3">
-        <v>100</v>
-      </c>
       <c r="L23" s="3">
         <v>100</v>
       </c>
@@ -1602,13 +1645,13 @@
         <v>100</v>
       </c>
       <c r="N23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O23" s="3">
         <v>200</v>
       </c>
       <c r="P23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q23" s="3">
         <v>100</v>
@@ -1626,10 +1669,13 @@
         <v>100</v>
       </c>
       <c r="V23" s="3">
+        <v>100</v>
+      </c>
+      <c r="W23" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1637,11 +1683,11 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>300</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
@@ -1661,11 +1707,11 @@
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>-200</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,28 +1801,31 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>100</v>
+      </c>
+      <c r="E26" s="3">
         <v>300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
-        <v>100</v>
-      </c>
       <c r="G26" s="3">
+        <v>100</v>
+      </c>
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J26" s="3">
         <v>100</v>
@@ -1785,16 +1837,16 @@
         <v>100</v>
       </c>
       <c r="M26" s="3">
+        <v>100</v>
+      </c>
+      <c r="N26" s="3">
         <v>300</v>
-      </c>
-      <c r="N26" s="3">
-        <v>200</v>
       </c>
       <c r="O26" s="3">
         <v>200</v>
       </c>
       <c r="P26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q26" s="3">
         <v>100</v>
@@ -1812,30 +1864,33 @@
         <v>100</v>
       </c>
       <c r="V26" s="3">
+        <v>100</v>
+      </c>
+      <c r="W26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>100</v>
+      </c>
+      <c r="E27" s="3">
         <v>300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
-        <v>100</v>
-      </c>
       <c r="G27" s="3">
+        <v>100</v>
+      </c>
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3">
         <v>100</v>
@@ -1847,16 +1902,16 @@
         <v>100</v>
       </c>
       <c r="M27" s="3">
+        <v>100</v>
+      </c>
+      <c r="N27" s="3">
         <v>300</v>
-      </c>
-      <c r="N27" s="3">
-        <v>200</v>
       </c>
       <c r="O27" s="3">
         <v>200</v>
       </c>
       <c r="P27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q27" s="3">
         <v>100</v>
@@ -1874,10 +1929,13 @@
         <v>100</v>
       </c>
       <c r="V27" s="3">
+        <v>100</v>
+      </c>
+      <c r="W27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1970,12 +2031,12 @@
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
         <v>-200</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1991,8 +2052,8 @@
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
+      <c r="T29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U29" s="3">
         <v>0</v>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2186,28 +2256,31 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>100</v>
+      </c>
+      <c r="E33" s="3">
         <v>300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
-        <v>100</v>
-      </c>
       <c r="G33" s="3">
+        <v>100</v>
+      </c>
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3">
         <v>100</v>
@@ -2222,13 +2295,13 @@
         <v>100</v>
       </c>
       <c r="N33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O33" s="3">
         <v>200</v>
       </c>
       <c r="P33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q33" s="3">
         <v>100</v>
@@ -2246,10 +2319,13 @@
         <v>100</v>
       </c>
       <c r="V33" s="3">
+        <v>100</v>
+      </c>
+      <c r="W33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,28 +2386,31 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>100</v>
+      </c>
+      <c r="E35" s="3">
         <v>300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
-        <v>100</v>
-      </c>
       <c r="G35" s="3">
+        <v>100</v>
+      </c>
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J35" s="3">
         <v>100</v>
@@ -2346,13 +2425,13 @@
         <v>100</v>
       </c>
       <c r="N35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O35" s="3">
         <v>200</v>
       </c>
       <c r="P35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q35" s="3">
         <v>100</v>
@@ -2370,77 +2449,83 @@
         <v>100</v>
       </c>
       <c r="V35" s="3">
+        <v>100</v>
+      </c>
+      <c r="W35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44347</v>
+      </c>
+      <c r="E38" s="2">
         <v>44255</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44165</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44074</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43982</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43890</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43799</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43708</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43616</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43524</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43434</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43343</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43251</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43159</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43069</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42978</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42886</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42794</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42704</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,31 +2573,32 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E41" s="3">
         <v>1300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1100</v>
-      </c>
-      <c r="J41" s="3">
-        <v>1000</v>
       </c>
       <c r="K41" s="3">
         <v>1000</v>
@@ -2520,37 +2607,40 @@
         <v>1000</v>
       </c>
       <c r="M41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N41" s="3">
         <v>1100</v>
-      </c>
-      <c r="N41" s="3">
-        <v>900</v>
       </c>
       <c r="O41" s="3">
         <v>900</v>
       </c>
       <c r="P41" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="Q41" s="3">
         <v>800</v>
       </c>
       <c r="R41" s="3">
+        <v>800</v>
+      </c>
+      <c r="S41" s="3">
         <v>700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,8 +2701,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2626,10 +2719,10 @@
         <v>100</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I43" s="3">
         <v>100</v>
@@ -2673,8 +2766,11 @@
       <c r="V43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2702,11 +2798,11 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M44" s="3">
-        <v>0</v>
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
@@ -2735,8 +2831,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2747,13 +2846,13 @@
         <v>500</v>
       </c>
       <c r="F45" s="3">
+        <v>500</v>
+      </c>
+      <c r="G45" s="3">
         <v>400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>300</v>
-      </c>
-      <c r="H45" s="3">
-        <v>500</v>
       </c>
       <c r="I45" s="3">
         <v>500</v>
@@ -2771,13 +2870,13 @@
         <v>500</v>
       </c>
       <c r="N45" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="O45" s="3">
         <v>700</v>
       </c>
       <c r="P45" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="Q45" s="3">
         <v>800</v>
@@ -2786,7 +2885,7 @@
         <v>800</v>
       </c>
       <c r="S45" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T45" s="3">
         <v>700</v>
@@ -2797,70 +2896,76 @@
       <c r="V45" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1700</v>
-      </c>
-      <c r="J46" s="3">
-        <v>1600</v>
       </c>
       <c r="K46" s="3">
         <v>1600</v>
       </c>
       <c r="L46" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M46" s="3">
         <v>1500</v>
-      </c>
-      <c r="M46" s="3">
-        <v>1700</v>
       </c>
       <c r="N46" s="3">
         <v>1700</v>
       </c>
       <c r="O46" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="P46" s="3">
         <v>1600</v>
       </c>
       <c r="Q46" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R46" s="3">
         <v>1700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1600</v>
-      </c>
-      <c r="S46" s="3">
-        <v>1500</v>
       </c>
       <c r="T46" s="3">
         <v>1500</v>
       </c>
       <c r="U46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="V46" s="3">
         <v>1700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,8 +3026,11 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2939,7 +3047,7 @@
         <v>300</v>
       </c>
       <c r="H48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I48" s="3">
         <v>400</v>
@@ -2951,13 +3059,13 @@
         <v>400</v>
       </c>
       <c r="L48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M48" s="3">
         <v>500</v>
       </c>
       <c r="N48" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -2983,8 +3091,11 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,19 +3286,22 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
+      <c r="E52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F52" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G52" s="3">
         <v>200</v>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,8 +3416,11 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3302,19 +3428,19 @@
         <v>4200</v>
       </c>
       <c r="E54" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="F54" s="3">
         <v>4100</v>
       </c>
       <c r="G54" s="3">
+        <v>4100</v>
+      </c>
+      <c r="H54" s="3">
         <v>3900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4000</v>
-      </c>
-      <c r="I54" s="3">
-        <v>4200</v>
       </c>
       <c r="J54" s="3">
         <v>4200</v>
@@ -3326,37 +3452,40 @@
         <v>4200</v>
       </c>
       <c r="M54" s="3">
+        <v>4200</v>
+      </c>
+      <c r="N54" s="3">
         <v>4400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3900</v>
-      </c>
-      <c r="O54" s="3">
-        <v>3800</v>
       </c>
       <c r="P54" s="3">
         <v>3800</v>
       </c>
       <c r="Q54" s="3">
+        <v>3800</v>
+      </c>
+      <c r="R54" s="3">
         <v>3900</v>
-      </c>
-      <c r="R54" s="3">
-        <v>3800</v>
       </c>
       <c r="S54" s="3">
         <v>3800</v>
       </c>
       <c r="T54" s="3">
+        <v>3800</v>
+      </c>
+      <c r="U54" s="3">
         <v>3700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,8 +3533,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3454,19 +3585,22 @@
         <v>0</v>
       </c>
       <c r="S57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T57" s="3">
         <v>100</v>
       </c>
       <c r="U57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3474,13 +3608,13 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>200</v>
       </c>
-      <c r="F58" s="3">
-        <v>100</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>5</v>
+      <c r="G58" s="3">
+        <v>100</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>5</v>
@@ -3497,8 +3631,8 @@
       <c r="L58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -3518,17 +3652,20 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U58" s="3">
-        <v>0</v>
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3536,28 +3673,28 @@
         <v>900</v>
       </c>
       <c r="E59" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F59" s="3">
         <v>800</v>
       </c>
       <c r="G59" s="3">
+        <v>800</v>
+      </c>
+      <c r="H59" s="3">
         <v>700</v>
-      </c>
-      <c r="H59" s="3">
-        <v>900</v>
       </c>
       <c r="I59" s="3">
         <v>900</v>
       </c>
       <c r="J59" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K59" s="3">
         <v>800</v>
       </c>
       <c r="L59" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="M59" s="3">
         <v>900</v>
@@ -3569,7 +3706,7 @@
         <v>900</v>
       </c>
       <c r="P59" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="Q59" s="3">
         <v>1000</v>
@@ -3584,13 +3721,16 @@
         <v>1000</v>
       </c>
       <c r="U59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V59" s="3">
         <v>1100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3598,25 +3738,25 @@
         <v>900</v>
       </c>
       <c r="E60" s="3">
+        <v>900</v>
+      </c>
+      <c r="F60" s="3">
         <v>1100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>700</v>
-      </c>
-      <c r="H60" s="3">
-        <v>900</v>
       </c>
       <c r="I60" s="3">
         <v>900</v>
       </c>
       <c r="J60" s="3">
+        <v>900</v>
+      </c>
+      <c r="K60" s="3">
         <v>800</v>
-      </c>
-      <c r="K60" s="3">
-        <v>900</v>
       </c>
       <c r="L60" s="3">
         <v>900</v>
@@ -3631,7 +3771,7 @@
         <v>900</v>
       </c>
       <c r="P60" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="Q60" s="3">
         <v>1000</v>
@@ -3643,16 +3783,19 @@
         <v>1000</v>
       </c>
       <c r="T60" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="U60" s="3">
         <v>1100</v>
       </c>
       <c r="V60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="W60" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3663,14 +3806,14 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>100</v>
+      </c>
+      <c r="H61" s="3">
         <v>200</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -3713,8 +3856,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3737,7 +3883,7 @@
         <v>400</v>
       </c>
       <c r="J62" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K62" s="3">
         <v>500</v>
@@ -3746,11 +3892,11 @@
         <v>500</v>
       </c>
       <c r="M62" s="3">
+        <v>500</v>
+      </c>
+      <c r="N62" s="3">
         <v>400</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>5</v>
       </c>
@@ -3766,8 +3912,8 @@
       <c r="S62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
+      <c r="T62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U62" s="3">
         <v>0</v>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,22 +4116,25 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E66" s="3">
         <v>1300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1400</v>
-      </c>
-      <c r="G66" s="3">
-        <v>1300</v>
       </c>
       <c r="H66" s="3">
         <v>1300</v>
@@ -3988,7 +4146,7 @@
         <v>1300</v>
       </c>
       <c r="K66" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="L66" s="3">
         <v>1400</v>
@@ -3997,13 +4155,13 @@
         <v>1400</v>
       </c>
       <c r="N66" s="3">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="O66" s="3">
         <v>900</v>
       </c>
       <c r="P66" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="Q66" s="3">
         <v>1000</v>
@@ -4015,16 +4173,19 @@
         <v>1000</v>
       </c>
       <c r="T66" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="U66" s="3">
         <v>1100</v>
       </c>
       <c r="V66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="W66" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,8 +4466,11 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4304,61 +4478,64 @@
         <v>-11400</v>
       </c>
       <c r="E72" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-11700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-11600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-11700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-11500</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-11300</v>
       </c>
       <c r="J72" s="3">
         <v>-11300</v>
       </c>
       <c r="K72" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="L72" s="3">
         <v>-11400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-11500</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-11300</v>
       </c>
       <c r="N72" s="3">
         <v>-11300</v>
       </c>
       <c r="O72" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="P72" s="3">
         <v>-11400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-11500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-11400</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-11500</v>
       </c>
       <c r="S72" s="3">
         <v>-11500</v>
       </c>
       <c r="T72" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="U72" s="3">
         <v>-11600</v>
-      </c>
-      <c r="U72" s="3">
-        <v>-11500</v>
       </c>
       <c r="V72" s="3">
         <v>-11500</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3">
+        <v>-11500</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,8 +4726,11 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4552,19 +4738,19 @@
         <v>2800</v>
       </c>
       <c r="E76" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F76" s="3">
         <v>2600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2800</v>
-      </c>
-      <c r="I76" s="3">
-        <v>2900</v>
       </c>
       <c r="J76" s="3">
         <v>2900</v>
@@ -4573,40 +4759,43 @@
         <v>2900</v>
       </c>
       <c r="L76" s="3">
+        <v>2900</v>
+      </c>
+      <c r="M76" s="3">
         <v>2800</v>
-      </c>
-      <c r="M76" s="3">
-        <v>3000</v>
       </c>
       <c r="N76" s="3">
         <v>3000</v>
       </c>
       <c r="O76" s="3">
+        <v>3000</v>
+      </c>
+      <c r="P76" s="3">
         <v>2900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2800</v>
-      </c>
-      <c r="S76" s="3">
-        <v>2700</v>
       </c>
       <c r="T76" s="3">
         <v>2700</v>
       </c>
       <c r="U76" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="V76" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,95 +4856,101 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44347</v>
+      </c>
+      <c r="E80" s="2">
         <v>44255</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44165</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44074</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43982</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43890</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43799</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43708</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43616</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43524</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43434</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43343</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43251</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43159</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43069</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42978</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42886</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42794</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42704</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>100</v>
+      </c>
+      <c r="E81" s="3">
         <v>300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
-        <v>100</v>
-      </c>
       <c r="G81" s="3">
+        <v>100</v>
+      </c>
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J81" s="3">
         <v>100</v>
@@ -4770,13 +4965,13 @@
         <v>100</v>
       </c>
       <c r="N81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O81" s="3">
         <v>200</v>
       </c>
       <c r="P81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q81" s="3">
         <v>100</v>
@@ -4794,10 +4989,13 @@
         <v>100</v>
       </c>
       <c r="V81" s="3">
+        <v>100</v>
+      </c>
+      <c r="W81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,8 +5406,11 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5201,23 +5418,23 @@
         <v>200</v>
       </c>
       <c r="E89" s="3">
+        <v>200</v>
+      </c>
+      <c r="F89" s="3">
         <v>300</v>
       </c>
-      <c r="F89" s="3">
-        <v>100</v>
-      </c>
       <c r="G89" s="3">
+        <v>100</v>
+      </c>
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
-        <v>100</v>
-      </c>
       <c r="I89" s="3">
+        <v>100</v>
+      </c>
+      <c r="J89" s="3">
         <v>200</v>
       </c>
-      <c r="J89" s="3">
-        <v>100</v>
-      </c>
       <c r="K89" s="3">
         <v>100</v>
       </c>
@@ -5225,37 +5442,40 @@
         <v>100</v>
       </c>
       <c r="M89" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N89" s="3">
         <v>200</v>
       </c>
       <c r="O89" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P89" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q89" s="3">
         <v>200</v>
       </c>
-      <c r="Q89" s="3">
-        <v>100</v>
-      </c>
       <c r="R89" s="3">
         <v>100</v>
       </c>
       <c r="S89" s="3">
+        <v>100</v>
+      </c>
+      <c r="T89" s="3">
         <v>200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>200</v>
       </c>
-      <c r="V89" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5316,14 +5537,14 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>5</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -5334,14 +5555,17 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>5</v>
+      <c r="U91" s="3">
+        <v>0</v>
       </c>
       <c r="V91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,13 +5691,16 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5559,19 +5793,19 @@
         <v>-100</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
         <v>-100</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-200</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-100</v>
       </c>
       <c r="J96" s="3">
         <v>-100</v>
@@ -5580,10 +5814,10 @@
         <v>-100</v>
       </c>
       <c r="L96" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M96" s="3">
         <v>-200</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-100</v>
       </c>
       <c r="N96" s="3">
         <v>-100</v>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,8 +6041,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5807,19 +6053,19 @@
         <v>-100</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-200</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-100</v>
       </c>
       <c r="J100" s="3">
         <v>-100</v>
@@ -5828,10 +6074,10 @@
         <v>-100</v>
       </c>
       <c r="L100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M100" s="3">
         <v>-200</v>
-      </c>
-      <c r="M100" s="3">
-        <v>-100</v>
       </c>
       <c r="N100" s="3">
         <v>-100</v>
@@ -5860,8 +6106,11 @@
       <c r="V100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,8 +6171,11 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5931,32 +6183,32 @@
         <v>100</v>
       </c>
       <c r="E102" s="3">
+        <v>100</v>
+      </c>
+      <c r="F102" s="3">
         <v>300</v>
       </c>
-      <c r="F102" s="3">
-        <v>100</v>
-      </c>
       <c r="G102" s="3">
+        <v>100</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
-        <v>100</v>
-      </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
-        <v>100</v>
-      </c>
       <c r="N102" s="3">
         <v>100</v>
       </c>
@@ -5964,7 +6216,7 @@
         <v>100</v>
       </c>
       <c r="P102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q102" s="3">
         <v>0</v>
@@ -5973,15 +6225,18 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>100</v>
+      </c>
+      <c r="U102" s="3">
         <v>-200</v>
       </c>
-      <c r="U102" s="3">
-        <v>100</v>
-      </c>
       <c r="V102" s="3">
+        <v>100</v>
+      </c>
+      <c r="W102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BABB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BABB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="92">
   <si>
     <t>BABB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,105 +665,109 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E7" s="2">
         <v>44347</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44255</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44165</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44074</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43982</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43890</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43799</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43708</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43616</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43524</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43434</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43343</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43251</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43159</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43069</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42978</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42886</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42794</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42704</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E8" s="3">
         <v>700</v>
@@ -772,16 +776,16 @@
         <v>700</v>
       </c>
       <c r="G8" s="3">
+        <v>700</v>
+      </c>
+      <c r="H8" s="3">
         <v>600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>700</v>
-      </c>
-      <c r="J8" s="3">
-        <v>800</v>
       </c>
       <c r="K8" s="3">
         <v>800</v>
@@ -790,10 +794,10 @@
         <v>800</v>
       </c>
       <c r="M8" s="3">
+        <v>800</v>
+      </c>
+      <c r="N8" s="3">
         <v>700</v>
-      </c>
-      <c r="N8" s="3">
-        <v>600</v>
       </c>
       <c r="O8" s="3">
         <v>600</v>
@@ -802,10 +806,10 @@
         <v>600</v>
       </c>
       <c r="Q8" s="3">
+        <v>600</v>
+      </c>
+      <c r="R8" s="3">
         <v>500</v>
-      </c>
-      <c r="R8" s="3">
-        <v>600</v>
       </c>
       <c r="S8" s="3">
         <v>600</v>
@@ -814,16 +818,19 @@
         <v>600</v>
       </c>
       <c r="U8" s="3">
+        <v>600</v>
+      </c>
+      <c r="V8" s="3">
         <v>500</v>
-      </c>
-      <c r="V8" s="3">
-        <v>600</v>
       </c>
       <c r="W8" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -887,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1116,11 +1136,11 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-200</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1136,8 +1156,8 @@
       <c r="K14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,8 +1285,9 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1268,25 +1295,25 @@
         <v>600</v>
       </c>
       <c r="E17" s="3">
+        <v>600</v>
+      </c>
+      <c r="F17" s="3">
         <v>400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>700</v>
-      </c>
-      <c r="K17" s="3">
-        <v>600</v>
       </c>
       <c r="L17" s="3">
         <v>600</v>
@@ -1295,10 +1322,10 @@
         <v>600</v>
       </c>
       <c r="N17" s="3">
+        <v>600</v>
+      </c>
+      <c r="O17" s="3">
         <v>500</v>
-      </c>
-      <c r="O17" s="3">
-        <v>400</v>
       </c>
       <c r="P17" s="3">
         <v>400</v>
@@ -1313,84 +1340,90 @@
         <v>400</v>
       </c>
       <c r="T17" s="3">
+        <v>400</v>
+      </c>
+      <c r="U17" s="3">
         <v>500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E18" s="3">
+        <v>100</v>
+      </c>
+      <c r="F18" s="3">
         <v>300</v>
       </c>
-      <c r="F18" s="3">
-        <v>100</v>
-      </c>
       <c r="G18" s="3">
         <v>100</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3">
         <v>100</v>
       </c>
       <c r="K18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L18" s="3">
         <v>200</v>
       </c>
       <c r="M18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N18" s="3">
         <v>100</v>
       </c>
       <c r="O18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P18" s="3">
         <v>200</v>
       </c>
       <c r="Q18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S18" s="3">
         <v>200</v>
       </c>
       <c r="T18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U18" s="3">
         <v>100</v>
       </c>
       <c r="V18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W18" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1479,38 +1513,41 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E21" s="3">
+        <v>100</v>
+      </c>
+      <c r="F21" s="3">
         <v>400</v>
       </c>
-      <c r="F21" s="3">
-        <v>100</v>
-      </c>
       <c r="G21" s="3">
         <v>100</v>
       </c>
       <c r="H21" s="3">
+        <v>100</v>
+      </c>
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="I21" s="3">
-        <v>100</v>
-      </c>
       <c r="J21" s="3">
         <v>100</v>
       </c>
       <c r="K21" s="3">
+        <v>100</v>
+      </c>
+      <c r="L21" s="3">
         <v>200</v>
       </c>
-      <c r="L21" s="3">
-        <v>100</v>
-      </c>
       <c r="M21" s="3">
         <v>100</v>
       </c>
@@ -1518,13 +1555,13 @@
         <v>100</v>
       </c>
       <c r="O21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P21" s="3">
         <v>200</v>
       </c>
       <c r="Q21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R21" s="3">
         <v>100</v>
@@ -1542,10 +1579,13 @@
         <v>100</v>
       </c>
       <c r="W21" s="3">
+        <v>100</v>
+      </c>
+      <c r="X21" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1585,14 +1625,14 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>5</v>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1609,38 +1649,41 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E23" s="3">
+        <v>100</v>
+      </c>
+      <c r="F23" s="3">
         <v>400</v>
       </c>
-      <c r="F23" s="3">
-        <v>100</v>
-      </c>
       <c r="G23" s="3">
         <v>100</v>
       </c>
       <c r="H23" s="3">
+        <v>100</v>
+      </c>
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
-        <v>100</v>
-      </c>
       <c r="J23" s="3">
         <v>100</v>
       </c>
       <c r="K23" s="3">
+        <v>100</v>
+      </c>
+      <c r="L23" s="3">
         <v>200</v>
       </c>
-      <c r="L23" s="3">
-        <v>100</v>
-      </c>
       <c r="M23" s="3">
         <v>100</v>
       </c>
@@ -1648,13 +1691,13 @@
         <v>100</v>
       </c>
       <c r="O23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P23" s="3">
         <v>200</v>
       </c>
       <c r="Q23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R23" s="3">
         <v>100</v>
@@ -1672,25 +1715,28 @@
         <v>100</v>
       </c>
       <c r="W23" s="3">
+        <v>100</v>
+      </c>
+      <c r="X23" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
@@ -1710,11 +1756,11 @@
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>-200</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,8 +1853,11 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1813,22 +1865,22 @@
         <v>100</v>
       </c>
       <c r="E26" s="3">
+        <v>100</v>
+      </c>
+      <c r="F26" s="3">
         <v>300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
-        <v>100</v>
-      </c>
       <c r="H26" s="3">
+        <v>100</v>
+      </c>
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K26" s="3">
         <v>100</v>
@@ -1840,16 +1892,16 @@
         <v>100</v>
       </c>
       <c r="N26" s="3">
+        <v>100</v>
+      </c>
+      <c r="O26" s="3">
         <v>300</v>
-      </c>
-      <c r="O26" s="3">
-        <v>200</v>
       </c>
       <c r="P26" s="3">
         <v>200</v>
       </c>
       <c r="Q26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R26" s="3">
         <v>100</v>
@@ -1867,10 +1919,13 @@
         <v>100</v>
       </c>
       <c r="W26" s="3">
+        <v>100</v>
+      </c>
+      <c r="X26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1878,22 +1933,22 @@
         <v>100</v>
       </c>
       <c r="E27" s="3">
+        <v>100</v>
+      </c>
+      <c r="F27" s="3">
         <v>300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
-        <v>100</v>
-      </c>
       <c r="H27" s="3">
+        <v>100</v>
+      </c>
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K27" s="3">
         <v>100</v>
@@ -1905,16 +1960,16 @@
         <v>100</v>
       </c>
       <c r="N27" s="3">
+        <v>100</v>
+      </c>
+      <c r="O27" s="3">
         <v>300</v>
-      </c>
-      <c r="O27" s="3">
-        <v>200</v>
       </c>
       <c r="P27" s="3">
         <v>200</v>
       </c>
       <c r="Q27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R27" s="3">
         <v>100</v>
@@ -1932,10 +1987,13 @@
         <v>100</v>
       </c>
       <c r="W27" s="3">
+        <v>100</v>
+      </c>
+      <c r="X27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2034,12 +2095,12 @@
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
         <v>-200</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2055,8 +2116,8 @@
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
+      <c r="U29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V29" s="3">
         <v>0</v>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2259,8 +2329,11 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2268,22 +2341,22 @@
         <v>100</v>
       </c>
       <c r="E33" s="3">
+        <v>100</v>
+      </c>
+      <c r="F33" s="3">
         <v>300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
-        <v>100</v>
-      </c>
       <c r="H33" s="3">
+        <v>100</v>
+      </c>
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K33" s="3">
         <v>100</v>
@@ -2298,13 +2371,13 @@
         <v>100</v>
       </c>
       <c r="O33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P33" s="3">
         <v>200</v>
       </c>
       <c r="Q33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R33" s="3">
         <v>100</v>
@@ -2322,10 +2395,13 @@
         <v>100</v>
       </c>
       <c r="W33" s="3">
+        <v>100</v>
+      </c>
+      <c r="X33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,8 +2465,11 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2398,22 +2477,22 @@
         <v>100</v>
       </c>
       <c r="E35" s="3">
+        <v>100</v>
+      </c>
+      <c r="F35" s="3">
         <v>300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
-        <v>100</v>
-      </c>
       <c r="H35" s="3">
+        <v>100</v>
+      </c>
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K35" s="3">
         <v>100</v>
@@ -2428,13 +2507,13 @@
         <v>100</v>
       </c>
       <c r="O35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P35" s="3">
         <v>200</v>
       </c>
       <c r="Q35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R35" s="3">
         <v>100</v>
@@ -2452,80 +2531,86 @@
         <v>100</v>
       </c>
       <c r="W35" s="3">
+        <v>100</v>
+      </c>
+      <c r="X35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E38" s="2">
         <v>44347</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44255</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44165</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44074</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43982</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43890</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43799</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43708</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43616</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43524</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43434</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43343</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43251</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43159</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43069</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42978</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42886</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42794</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42704</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,34 +2660,35 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E41" s="3">
         <v>1400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1100</v>
-      </c>
-      <c r="K41" s="3">
-        <v>1000</v>
       </c>
       <c r="L41" s="3">
         <v>1000</v>
@@ -2610,37 +2697,40 @@
         <v>1000</v>
       </c>
       <c r="N41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O41" s="3">
         <v>1100</v>
-      </c>
-      <c r="O41" s="3">
-        <v>900</v>
       </c>
       <c r="P41" s="3">
         <v>900</v>
       </c>
       <c r="Q41" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="R41" s="3">
         <v>800</v>
       </c>
       <c r="S41" s="3">
+        <v>800</v>
+      </c>
+      <c r="T41" s="3">
         <v>700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,8 +2794,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2722,10 +2815,10 @@
         <v>100</v>
       </c>
       <c r="H43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J43" s="3">
         <v>100</v>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2801,11 +2897,11 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N44" s="3">
-        <v>0</v>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
@@ -2834,13 +2930,16 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E45" s="3">
         <v>500</v>
@@ -2849,13 +2948,13 @@
         <v>500</v>
       </c>
       <c r="G45" s="3">
+        <v>500</v>
+      </c>
+      <c r="H45" s="3">
         <v>400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>300</v>
-      </c>
-      <c r="I45" s="3">
-        <v>500</v>
       </c>
       <c r="J45" s="3">
         <v>500</v>
@@ -2873,13 +2972,13 @@
         <v>500</v>
       </c>
       <c r="O45" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="P45" s="3">
         <v>700</v>
       </c>
       <c r="Q45" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="R45" s="3">
         <v>800</v>
@@ -2888,7 +2987,7 @@
         <v>800</v>
       </c>
       <c r="T45" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="U45" s="3">
         <v>700</v>
@@ -2899,73 +2998,79 @@
       <c r="W45" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E46" s="3">
         <v>2000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1700</v>
-      </c>
-      <c r="K46" s="3">
-        <v>1600</v>
       </c>
       <c r="L46" s="3">
         <v>1600</v>
       </c>
       <c r="M46" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N46" s="3">
         <v>1500</v>
-      </c>
-      <c r="N46" s="3">
-        <v>1700</v>
       </c>
       <c r="O46" s="3">
         <v>1700</v>
       </c>
       <c r="P46" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="Q46" s="3">
         <v>1600</v>
       </c>
       <c r="R46" s="3">
+        <v>1600</v>
+      </c>
+      <c r="S46" s="3">
         <v>1700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1600</v>
-      </c>
-      <c r="T46" s="3">
-        <v>1500</v>
       </c>
       <c r="U46" s="3">
         <v>1500</v>
       </c>
       <c r="V46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="W46" s="3">
         <v>1700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,13 +3134,16 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E48" s="3">
         <v>300</v>
@@ -3050,7 +3158,7 @@
         <v>300</v>
       </c>
       <c r="I48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J48" s="3">
         <v>400</v>
@@ -3062,13 +3170,13 @@
         <v>400</v>
       </c>
       <c r="M48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N48" s="3">
         <v>500</v>
       </c>
       <c r="O48" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
@@ -3094,8 +3202,11 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3300,11 +3420,11 @@
       <c r="E52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
+      <c r="F52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G52" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H52" s="3">
         <v>200</v>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,31 +3542,34 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="E54" s="3">
         <v>4200</v>
       </c>
       <c r="F54" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="G54" s="3">
         <v>4100</v>
       </c>
       <c r="H54" s="3">
+        <v>4100</v>
+      </c>
+      <c r="I54" s="3">
         <v>3900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4000</v>
-      </c>
-      <c r="J54" s="3">
-        <v>4200</v>
       </c>
       <c r="K54" s="3">
         <v>4200</v>
@@ -3455,37 +3581,40 @@
         <v>4200</v>
       </c>
       <c r="N54" s="3">
+        <v>4200</v>
+      </c>
+      <c r="O54" s="3">
         <v>4400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3900</v>
-      </c>
-      <c r="P54" s="3">
-        <v>3800</v>
       </c>
       <c r="Q54" s="3">
         <v>3800</v>
       </c>
       <c r="R54" s="3">
+        <v>3800</v>
+      </c>
+      <c r="S54" s="3">
         <v>3900</v>
-      </c>
-      <c r="S54" s="3">
-        <v>3800</v>
       </c>
       <c r="T54" s="3">
         <v>3800</v>
       </c>
       <c r="U54" s="3">
+        <v>3800</v>
+      </c>
+      <c r="V54" s="3">
         <v>3700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,8 +3664,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3588,19 +3719,22 @@
         <v>0</v>
       </c>
       <c r="T57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U57" s="3">
         <v>100</v>
       </c>
       <c r="V57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3611,13 +3745,13 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>200</v>
       </c>
-      <c r="G58" s="3">
-        <v>100</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>5</v>
+      <c r="H58" s="3">
+        <v>100</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>5</v>
@@ -3634,8 +3768,8 @@
       <c r="M58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -3655,49 +3789,52 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V58" s="3">
-        <v>0</v>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E59" s="3">
         <v>900</v>
       </c>
       <c r="F59" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="G59" s="3">
         <v>800</v>
       </c>
       <c r="H59" s="3">
+        <v>800</v>
+      </c>
+      <c r="I59" s="3">
         <v>700</v>
-      </c>
-      <c r="I59" s="3">
-        <v>900</v>
       </c>
       <c r="J59" s="3">
         <v>900</v>
       </c>
       <c r="K59" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L59" s="3">
         <v>800</v>
       </c>
       <c r="M59" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="N59" s="3">
         <v>900</v>
@@ -3709,7 +3846,7 @@
         <v>900</v>
       </c>
       <c r="Q59" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="R59" s="3">
         <v>1000</v>
@@ -3724,42 +3861,45 @@
         <v>1000</v>
       </c>
       <c r="V59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="W59" s="3">
         <v>1100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E60" s="3">
         <v>900</v>
       </c>
       <c r="F60" s="3">
+        <v>900</v>
+      </c>
+      <c r="G60" s="3">
         <v>1100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>700</v>
-      </c>
-      <c r="I60" s="3">
-        <v>900</v>
       </c>
       <c r="J60" s="3">
         <v>900</v>
       </c>
       <c r="K60" s="3">
+        <v>900</v>
+      </c>
+      <c r="L60" s="3">
         <v>800</v>
-      </c>
-      <c r="L60" s="3">
-        <v>900</v>
       </c>
       <c r="M60" s="3">
         <v>900</v>
@@ -3774,7 +3914,7 @@
         <v>900</v>
       </c>
       <c r="Q60" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="R60" s="3">
         <v>1000</v>
@@ -3786,16 +3926,19 @@
         <v>1000</v>
       </c>
       <c r="U60" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="V60" s="3">
         <v>1100</v>
       </c>
       <c r="W60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="X60" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3809,14 +3952,14 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>100</v>
+      </c>
+      <c r="I61" s="3">
         <v>200</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -3859,13 +4002,16 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E62" s="3">
         <v>400</v>
@@ -3886,7 +4032,7 @@
         <v>400</v>
       </c>
       <c r="K62" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L62" s="3">
         <v>500</v>
@@ -3895,11 +4041,11 @@
         <v>500</v>
       </c>
       <c r="N62" s="3">
+        <v>500</v>
+      </c>
+      <c r="O62" s="3">
         <v>400</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>5</v>
       </c>
@@ -3915,8 +4061,8 @@
       <c r="T62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U62" s="3">
-        <v>0</v>
+      <c r="U62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V62" s="3">
         <v>0</v>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,25 +4274,28 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E66" s="3">
         <v>1400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1400</v>
-      </c>
-      <c r="H66" s="3">
-        <v>1300</v>
       </c>
       <c r="I66" s="3">
         <v>1300</v>
@@ -4149,7 +4307,7 @@
         <v>1300</v>
       </c>
       <c r="L66" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="M66" s="3">
         <v>1400</v>
@@ -4158,13 +4316,13 @@
         <v>1400</v>
       </c>
       <c r="O66" s="3">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="P66" s="3">
         <v>900</v>
       </c>
       <c r="Q66" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="R66" s="3">
         <v>1000</v>
@@ -4176,16 +4334,19 @@
         <v>1000</v>
       </c>
       <c r="U66" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="V66" s="3">
         <v>1100</v>
       </c>
       <c r="W66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="X66" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,8 +4640,11 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4481,61 +4655,64 @@
         <v>-11400</v>
       </c>
       <c r="F72" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="G72" s="3">
         <v>-11700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-11600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-11700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-11500</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-11300</v>
       </c>
       <c r="K72" s="3">
         <v>-11300</v>
       </c>
       <c r="L72" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="M72" s="3">
         <v>-11400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-11500</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-11300</v>
       </c>
       <c r="O72" s="3">
         <v>-11300</v>
       </c>
       <c r="P72" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-11400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-11500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-11400</v>
-      </c>
-      <c r="S72" s="3">
-        <v>-11500</v>
       </c>
       <c r="T72" s="3">
         <v>-11500</v>
       </c>
       <c r="U72" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="V72" s="3">
         <v>-11600</v>
-      </c>
-      <c r="V72" s="3">
-        <v>-11500</v>
       </c>
       <c r="W72" s="3">
         <v>-11500</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3">
+        <v>-11500</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,31 +4912,34 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="E76" s="3">
         <v>2800</v>
       </c>
       <c r="F76" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G76" s="3">
         <v>2600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2800</v>
-      </c>
-      <c r="J76" s="3">
-        <v>2900</v>
       </c>
       <c r="K76" s="3">
         <v>2900</v>
@@ -4762,40 +4948,43 @@
         <v>2900</v>
       </c>
       <c r="M76" s="3">
+        <v>2900</v>
+      </c>
+      <c r="N76" s="3">
         <v>2800</v>
-      </c>
-      <c r="N76" s="3">
-        <v>3000</v>
       </c>
       <c r="O76" s="3">
         <v>3000</v>
       </c>
       <c r="P76" s="3">
+        <v>3000</v>
+      </c>
+      <c r="Q76" s="3">
         <v>2900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2800</v>
-      </c>
-      <c r="T76" s="3">
-        <v>2700</v>
       </c>
       <c r="U76" s="3">
         <v>2700</v>
       </c>
       <c r="V76" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="W76" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,78 +5048,84 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E80" s="2">
         <v>44347</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44255</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44165</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44074</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43982</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43890</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43799</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43708</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43616</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43524</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43434</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43343</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43251</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43159</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43069</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42978</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42886</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42794</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42704</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4938,22 +5133,22 @@
         <v>100</v>
       </c>
       <c r="E81" s="3">
+        <v>100</v>
+      </c>
+      <c r="F81" s="3">
         <v>300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
-        <v>100</v>
-      </c>
       <c r="H81" s="3">
+        <v>100</v>
+      </c>
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K81" s="3">
         <v>100</v>
@@ -4968,13 +5163,13 @@
         <v>100</v>
       </c>
       <c r="O81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P81" s="3">
         <v>200</v>
       </c>
       <c r="Q81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R81" s="3">
         <v>100</v>
@@ -4992,10 +5187,13 @@
         <v>100</v>
       </c>
       <c r="W81" s="3">
+        <v>100</v>
+      </c>
+      <c r="X81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,35 +5623,38 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E89" s="3">
         <v>200</v>
       </c>
       <c r="F89" s="3">
+        <v>200</v>
+      </c>
+      <c r="G89" s="3">
         <v>300</v>
       </c>
-      <c r="G89" s="3">
-        <v>100</v>
-      </c>
       <c r="H89" s="3">
+        <v>100</v>
+      </c>
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
-        <v>100</v>
-      </c>
       <c r="J89" s="3">
+        <v>100</v>
+      </c>
+      <c r="K89" s="3">
         <v>200</v>
       </c>
-      <c r="K89" s="3">
-        <v>100</v>
-      </c>
       <c r="L89" s="3">
         <v>100</v>
       </c>
@@ -5445,37 +5662,40 @@
         <v>100</v>
       </c>
       <c r="N89" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O89" s="3">
         <v>200</v>
       </c>
       <c r="P89" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q89" s="3">
+        <v>100</v>
+      </c>
+      <c r="R89" s="3">
         <v>200</v>
       </c>
-      <c r="R89" s="3">
-        <v>100</v>
-      </c>
       <c r="S89" s="3">
         <v>100</v>
       </c>
       <c r="T89" s="3">
+        <v>100</v>
+      </c>
+      <c r="U89" s="3">
         <v>200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>200</v>
       </c>
-      <c r="W89" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5540,14 +5761,14 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>5</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -5558,14 +5779,17 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>5</v>
+      <c r="V91" s="3">
+        <v>0</v>
       </c>
       <c r="W91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,13 +5921,16 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>5</v>
+      <c r="D94" s="3">
+        <v>0</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5796,19 +6030,19 @@
         <v>-100</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-100</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-200</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-100</v>
       </c>
       <c r="K96" s="3">
         <v>-100</v>
@@ -5817,10 +6051,10 @@
         <v>-100</v>
       </c>
       <c r="M96" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N96" s="3">
         <v>-200</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-100</v>
       </c>
       <c r="O96" s="3">
         <v>-100</v>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6287,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6056,19 +6302,19 @@
         <v>-100</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-200</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-100</v>
       </c>
       <c r="K100" s="3">
         <v>-100</v>
@@ -6077,10 +6323,10 @@
         <v>-100</v>
       </c>
       <c r="M100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N100" s="3">
         <v>-200</v>
-      </c>
-      <c r="N100" s="3">
-        <v>-100</v>
       </c>
       <c r="O100" s="3">
         <v>-100</v>
@@ -6109,8 +6355,11 @@
       <c r="W100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,44 +6423,47 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E102" s="3">
         <v>100</v>
       </c>
       <c r="F102" s="3">
+        <v>100</v>
+      </c>
+      <c r="G102" s="3">
         <v>300</v>
       </c>
-      <c r="G102" s="3">
-        <v>100</v>
-      </c>
       <c r="H102" s="3">
+        <v>100</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
-        <v>100</v>
-      </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>100</v>
-      </c>
       <c r="O102" s="3">
         <v>100</v>
       </c>
@@ -6219,7 +6471,7 @@
         <v>100</v>
       </c>
       <c r="Q102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R102" s="3">
         <v>0</v>
@@ -6228,15 +6480,18 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>100</v>
+      </c>
+      <c r="V102" s="3">
         <v>-200</v>
       </c>
-      <c r="V102" s="3">
-        <v>100</v>
-      </c>
       <c r="W102" s="3">
+        <v>100</v>
+      </c>
+      <c r="X102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BABB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BABB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
   <si>
     <t>BABB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,107 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E7" s="2">
         <v>44439</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44347</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44255</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44165</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44074</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43982</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43890</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43799</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43708</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43616</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43524</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43434</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43343</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43251</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43159</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43069</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42978</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42886</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42794</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42704</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -770,7 +773,7 @@
         <v>800</v>
       </c>
       <c r="E8" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F8" s="3">
         <v>700</v>
@@ -779,16 +782,16 @@
         <v>700</v>
       </c>
       <c r="H8" s="3">
+        <v>700</v>
+      </c>
+      <c r="I8" s="3">
         <v>600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>700</v>
-      </c>
-      <c r="K8" s="3">
-        <v>800</v>
       </c>
       <c r="L8" s="3">
         <v>800</v>
@@ -797,10 +800,10 @@
         <v>800</v>
       </c>
       <c r="N8" s="3">
+        <v>800</v>
+      </c>
+      <c r="O8" s="3">
         <v>700</v>
-      </c>
-      <c r="O8" s="3">
-        <v>600</v>
       </c>
       <c r="P8" s="3">
         <v>600</v>
@@ -809,10 +812,10 @@
         <v>600</v>
       </c>
       <c r="R8" s="3">
+        <v>600</v>
+      </c>
+      <c r="S8" s="3">
         <v>500</v>
-      </c>
-      <c r="S8" s="3">
-        <v>600</v>
       </c>
       <c r="T8" s="3">
         <v>600</v>
@@ -821,16 +824,19 @@
         <v>600</v>
       </c>
       <c r="V8" s="3">
+        <v>600</v>
+      </c>
+      <c r="W8" s="3">
         <v>500</v>
-      </c>
-      <c r="W8" s="3">
-        <v>600</v>
       </c>
       <c r="X8" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -897,8 +903,11 @@
       <c r="X9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +974,11 @@
       <c r="X10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1139,11 +1158,11 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-200</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1159,8 +1178,8 @@
       <c r="L14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,37 +1311,38 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E17" s="3">
         <v>600</v>
       </c>
       <c r="F17" s="3">
+        <v>600</v>
+      </c>
+      <c r="G17" s="3">
         <v>400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>700</v>
-      </c>
-      <c r="L17" s="3">
-        <v>600</v>
       </c>
       <c r="M17" s="3">
         <v>600</v>
@@ -1325,10 +1351,10 @@
         <v>600</v>
       </c>
       <c r="O17" s="3">
+        <v>600</v>
+      </c>
+      <c r="P17" s="3">
         <v>500</v>
-      </c>
-      <c r="P17" s="3">
-        <v>400</v>
       </c>
       <c r="Q17" s="3">
         <v>400</v>
@@ -1343,87 +1369,93 @@
         <v>400</v>
       </c>
       <c r="U17" s="3">
+        <v>400</v>
+      </c>
+      <c r="V17" s="3">
         <v>500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>100</v>
+      </c>
+      <c r="E18" s="3">
         <v>200</v>
       </c>
-      <c r="E18" s="3">
-        <v>100</v>
-      </c>
       <c r="F18" s="3">
+        <v>100</v>
+      </c>
+      <c r="G18" s="3">
         <v>300</v>
       </c>
-      <c r="G18" s="3">
-        <v>100</v>
-      </c>
       <c r="H18" s="3">
         <v>100</v>
       </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K18" s="3">
         <v>100</v>
       </c>
       <c r="L18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M18" s="3">
         <v>200</v>
       </c>
       <c r="N18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O18" s="3">
         <v>100</v>
       </c>
       <c r="P18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q18" s="3">
         <v>200</v>
       </c>
       <c r="R18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T18" s="3">
         <v>200</v>
       </c>
       <c r="U18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V18" s="3">
         <v>100</v>
       </c>
       <c r="W18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X18" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1480,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1516,41 +1549,44 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>100</v>
+      </c>
+      <c r="E21" s="3">
         <v>200</v>
       </c>
-      <c r="E21" s="3">
-        <v>100</v>
-      </c>
       <c r="F21" s="3">
+        <v>100</v>
+      </c>
+      <c r="G21" s="3">
         <v>400</v>
       </c>
-      <c r="G21" s="3">
-        <v>100</v>
-      </c>
       <c r="H21" s="3">
         <v>100</v>
       </c>
       <c r="I21" s="3">
+        <v>100</v>
+      </c>
+      <c r="J21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3">
-        <v>100</v>
-      </c>
       <c r="K21" s="3">
         <v>100</v>
       </c>
       <c r="L21" s="3">
+        <v>100</v>
+      </c>
+      <c r="M21" s="3">
         <v>200</v>
       </c>
-      <c r="M21" s="3">
-        <v>100</v>
-      </c>
       <c r="N21" s="3">
         <v>100</v>
       </c>
@@ -1558,13 +1594,13 @@
         <v>100</v>
       </c>
       <c r="P21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q21" s="3">
         <v>200</v>
       </c>
       <c r="R21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S21" s="3">
         <v>100</v>
@@ -1582,10 +1618,13 @@
         <v>100</v>
       </c>
       <c r="X21" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y21" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1628,14 +1667,14 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>5</v>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="S22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1652,41 +1691,44 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>100</v>
+      </c>
+      <c r="E23" s="3">
         <v>200</v>
       </c>
-      <c r="E23" s="3">
-        <v>100</v>
-      </c>
       <c r="F23" s="3">
+        <v>100</v>
+      </c>
+      <c r="G23" s="3">
         <v>400</v>
       </c>
-      <c r="G23" s="3">
-        <v>100</v>
-      </c>
       <c r="H23" s="3">
         <v>100</v>
       </c>
       <c r="I23" s="3">
+        <v>100</v>
+      </c>
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
-        <v>100</v>
-      </c>
       <c r="K23" s="3">
         <v>100</v>
       </c>
       <c r="L23" s="3">
+        <v>100</v>
+      </c>
+      <c r="M23" s="3">
         <v>200</v>
       </c>
-      <c r="M23" s="3">
-        <v>100</v>
-      </c>
       <c r="N23" s="3">
         <v>100</v>
       </c>
@@ -1694,13 +1736,13 @@
         <v>100</v>
       </c>
       <c r="P23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q23" s="3">
         <v>200</v>
       </c>
       <c r="R23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S23" s="3">
         <v>100</v>
@@ -1718,28 +1760,31 @@
         <v>100</v>
       </c>
       <c r="X23" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y23" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
@@ -1759,11 +1804,11 @@
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>-200</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
@@ -1788,8 +1833,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,8 +1904,11 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1868,22 +1919,22 @@
         <v>100</v>
       </c>
       <c r="F26" s="3">
+        <v>100</v>
+      </c>
+      <c r="G26" s="3">
         <v>300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
-        <v>100</v>
-      </c>
       <c r="I26" s="3">
+        <v>100</v>
+      </c>
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L26" s="3">
         <v>100</v>
@@ -1895,16 +1946,16 @@
         <v>100</v>
       </c>
       <c r="O26" s="3">
+        <v>100</v>
+      </c>
+      <c r="P26" s="3">
         <v>300</v>
-      </c>
-      <c r="P26" s="3">
-        <v>200</v>
       </c>
       <c r="Q26" s="3">
         <v>200</v>
       </c>
       <c r="R26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S26" s="3">
         <v>100</v>
@@ -1922,10 +1973,13 @@
         <v>100</v>
       </c>
       <c r="X26" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1936,22 +1990,22 @@
         <v>100</v>
       </c>
       <c r="F27" s="3">
+        <v>100</v>
+      </c>
+      <c r="G27" s="3">
         <v>300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
-        <v>100</v>
-      </c>
       <c r="I27" s="3">
+        <v>100</v>
+      </c>
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L27" s="3">
         <v>100</v>
@@ -1963,16 +2017,16 @@
         <v>100</v>
       </c>
       <c r="O27" s="3">
+        <v>100</v>
+      </c>
+      <c r="P27" s="3">
         <v>300</v>
-      </c>
-      <c r="P27" s="3">
-        <v>200</v>
       </c>
       <c r="Q27" s="3">
         <v>200</v>
       </c>
       <c r="R27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S27" s="3">
         <v>100</v>
@@ -1990,10 +2044,13 @@
         <v>100</v>
       </c>
       <c r="X27" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2098,12 +2158,12 @@
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="3">
         <v>-200</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2119,8 +2179,8 @@
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
+      <c r="V29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W29" s="3">
         <v>0</v>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2330,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2332,8 +2401,11 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2344,22 +2416,22 @@
         <v>100</v>
       </c>
       <c r="F33" s="3">
+        <v>100</v>
+      </c>
+      <c r="G33" s="3">
         <v>300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
-        <v>100</v>
-      </c>
       <c r="I33" s="3">
+        <v>100</v>
+      </c>
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L33" s="3">
         <v>100</v>
@@ -2374,13 +2446,13 @@
         <v>100</v>
       </c>
       <c r="P33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q33" s="3">
         <v>200</v>
       </c>
       <c r="R33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S33" s="3">
         <v>100</v>
@@ -2398,10 +2470,13 @@
         <v>100</v>
       </c>
       <c r="X33" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,8 +2543,11 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2480,22 +2558,22 @@
         <v>100</v>
       </c>
       <c r="F35" s="3">
+        <v>100</v>
+      </c>
+      <c r="G35" s="3">
         <v>300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
-        <v>100</v>
-      </c>
       <c r="I35" s="3">
+        <v>100</v>
+      </c>
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L35" s="3">
         <v>100</v>
@@ -2510,13 +2588,13 @@
         <v>100</v>
       </c>
       <c r="P35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q35" s="3">
         <v>200</v>
       </c>
       <c r="R35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S35" s="3">
         <v>100</v>
@@ -2534,83 +2612,89 @@
         <v>100</v>
       </c>
       <c r="X35" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E38" s="2">
         <v>44439</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44347</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44255</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44165</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44074</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43982</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43890</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43799</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43708</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43616</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43524</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43434</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43343</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43251</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43159</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43069</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42978</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42886</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42794</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42704</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,8 +2746,9 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2670,28 +2756,28 @@
         <v>1500</v>
       </c>
       <c r="E41" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F41" s="3">
         <v>1400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1100</v>
-      </c>
-      <c r="L41" s="3">
-        <v>1000</v>
       </c>
       <c r="M41" s="3">
         <v>1000</v>
@@ -2700,37 +2786,40 @@
         <v>1000</v>
       </c>
       <c r="O41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P41" s="3">
         <v>1100</v>
-      </c>
-      <c r="P41" s="3">
-        <v>900</v>
       </c>
       <c r="Q41" s="3">
         <v>900</v>
       </c>
       <c r="R41" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="S41" s="3">
         <v>800</v>
       </c>
       <c r="T41" s="3">
+        <v>800</v>
+      </c>
+      <c r="U41" s="3">
         <v>700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,8 +2886,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2818,10 +2910,10 @@
         <v>100</v>
       </c>
       <c r="I43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K43" s="3">
         <v>100</v>
@@ -2865,8 +2957,11 @@
       <c r="X43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2900,11 +2995,11 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O44" s="3">
-        <v>0</v>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
@@ -2933,8 +3028,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2942,7 +3040,7 @@
         <v>700</v>
       </c>
       <c r="E45" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="F45" s="3">
         <v>500</v>
@@ -2951,13 +3049,13 @@
         <v>500</v>
       </c>
       <c r="H45" s="3">
+        <v>500</v>
+      </c>
+      <c r="I45" s="3">
         <v>400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>300</v>
-      </c>
-      <c r="J45" s="3">
-        <v>500</v>
       </c>
       <c r="K45" s="3">
         <v>500</v>
@@ -2975,13 +3073,13 @@
         <v>500</v>
       </c>
       <c r="P45" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="Q45" s="3">
         <v>700</v>
       </c>
       <c r="R45" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="S45" s="3">
         <v>800</v>
@@ -2990,7 +3088,7 @@
         <v>800</v>
       </c>
       <c r="U45" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="V45" s="3">
         <v>700</v>
@@ -3001,76 +3099,82 @@
       <c r="X45" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E46" s="3">
         <v>2200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1700</v>
-      </c>
-      <c r="L46" s="3">
-        <v>1600</v>
       </c>
       <c r="M46" s="3">
         <v>1600</v>
       </c>
       <c r="N46" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O46" s="3">
         <v>1500</v>
-      </c>
-      <c r="O46" s="3">
-        <v>1700</v>
       </c>
       <c r="P46" s="3">
         <v>1700</v>
       </c>
       <c r="Q46" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="R46" s="3">
         <v>1600</v>
       </c>
       <c r="S46" s="3">
+        <v>1600</v>
+      </c>
+      <c r="T46" s="3">
         <v>1700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1600</v>
-      </c>
-      <c r="U46" s="3">
-        <v>1500</v>
       </c>
       <c r="V46" s="3">
         <v>1500</v>
       </c>
       <c r="W46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="X46" s="3">
         <v>1700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,8 +3241,11 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3146,7 +3253,7 @@
         <v>200</v>
       </c>
       <c r="E48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F48" s="3">
         <v>300</v>
@@ -3161,7 +3268,7 @@
         <v>300</v>
       </c>
       <c r="J48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K48" s="3">
         <v>400</v>
@@ -3173,13 +3280,13 @@
         <v>400</v>
       </c>
       <c r="N48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="O48" s="3">
         <v>500</v>
       </c>
       <c r="P48" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
@@ -3205,8 +3312,11 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3525,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3423,11 +3542,11 @@
       <c r="F52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
+      <c r="G52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H52" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I52" s="3">
         <v>200</v>
@@ -3477,8 +3596,11 @@
       <c r="X52" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,34 +3667,37 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E54" s="3">
         <v>4400</v>
-      </c>
-      <c r="E54" s="3">
-        <v>4200</v>
       </c>
       <c r="F54" s="3">
         <v>4200</v>
       </c>
       <c r="G54" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="H54" s="3">
         <v>4100</v>
       </c>
       <c r="I54" s="3">
+        <v>4100</v>
+      </c>
+      <c r="J54" s="3">
         <v>3900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4000</v>
-      </c>
-      <c r="K54" s="3">
-        <v>4200</v>
       </c>
       <c r="L54" s="3">
         <v>4200</v>
@@ -3584,37 +3709,40 @@
         <v>4200</v>
       </c>
       <c r="O54" s="3">
+        <v>4200</v>
+      </c>
+      <c r="P54" s="3">
         <v>4400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3900</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>3800</v>
       </c>
       <c r="R54" s="3">
         <v>3800</v>
       </c>
       <c r="S54" s="3">
+        <v>3800</v>
+      </c>
+      <c r="T54" s="3">
         <v>3900</v>
-      </c>
-      <c r="T54" s="3">
-        <v>3800</v>
       </c>
       <c r="U54" s="3">
         <v>3800</v>
       </c>
       <c r="V54" s="3">
+        <v>3800</v>
+      </c>
+      <c r="W54" s="3">
         <v>3700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,8 +3794,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3722,19 +3852,22 @@
         <v>0</v>
       </c>
       <c r="U57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V57" s="3">
         <v>100</v>
       </c>
       <c r="W57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3748,13 +3881,13 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>200</v>
       </c>
-      <c r="H58" s="3">
-        <v>100</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>5</v>
+      <c r="I58" s="3">
+        <v>100</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>5</v>
@@ -3771,8 +3904,8 @@
       <c r="N58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -3792,52 +3925,55 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W58" s="3">
-        <v>0</v>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E59" s="3">
         <v>1000</v>
-      </c>
-      <c r="E59" s="3">
-        <v>900</v>
       </c>
       <c r="F59" s="3">
         <v>900</v>
       </c>
       <c r="G59" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="H59" s="3">
         <v>800</v>
       </c>
       <c r="I59" s="3">
+        <v>800</v>
+      </c>
+      <c r="J59" s="3">
         <v>700</v>
-      </c>
-      <c r="J59" s="3">
-        <v>900</v>
       </c>
       <c r="K59" s="3">
         <v>900</v>
       </c>
       <c r="L59" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M59" s="3">
         <v>800</v>
       </c>
       <c r="N59" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="O59" s="3">
         <v>900</v>
@@ -3849,7 +3985,7 @@
         <v>900</v>
       </c>
       <c r="R59" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="S59" s="3">
         <v>1000</v>
@@ -3864,45 +4000,48 @@
         <v>1000</v>
       </c>
       <c r="W59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="X59" s="3">
         <v>1100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E60" s="3">
         <v>1000</v>
-      </c>
-      <c r="E60" s="3">
-        <v>900</v>
       </c>
       <c r="F60" s="3">
         <v>900</v>
       </c>
       <c r="G60" s="3">
+        <v>900</v>
+      </c>
+      <c r="H60" s="3">
         <v>1100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>700</v>
-      </c>
-      <c r="J60" s="3">
-        <v>900</v>
       </c>
       <c r="K60" s="3">
         <v>900</v>
       </c>
       <c r="L60" s="3">
+        <v>900</v>
+      </c>
+      <c r="M60" s="3">
         <v>800</v>
-      </c>
-      <c r="M60" s="3">
-        <v>900</v>
       </c>
       <c r="N60" s="3">
         <v>900</v>
@@ -3917,7 +4056,7 @@
         <v>900</v>
       </c>
       <c r="R60" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="S60" s="3">
         <v>1000</v>
@@ -3929,16 +4068,19 @@
         <v>1000</v>
       </c>
       <c r="V60" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="W60" s="3">
         <v>1100</v>
       </c>
       <c r="X60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Y60" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3955,14 +4097,14 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>100</v>
+      </c>
+      <c r="J61" s="3">
         <v>200</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -4005,16 +4147,19 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>400</v>
+      </c>
+      <c r="E62" s="3">
         <v>500</v>
-      </c>
-      <c r="E62" s="3">
-        <v>400</v>
       </c>
       <c r="F62" s="3">
         <v>400</v>
@@ -4035,7 +4180,7 @@
         <v>400</v>
       </c>
       <c r="L62" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M62" s="3">
         <v>500</v>
@@ -4044,11 +4189,11 @@
         <v>500</v>
       </c>
       <c r="O62" s="3">
+        <v>500</v>
+      </c>
+      <c r="P62" s="3">
         <v>400</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>5</v>
       </c>
@@ -4064,8 +4209,8 @@
       <c r="U62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V62" s="3">
-        <v>0</v>
+      <c r="V62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W62" s="3">
         <v>0</v>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,8 +4431,11 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4286,19 +4443,19 @@
         <v>1500</v>
       </c>
       <c r="E66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F66" s="3">
         <v>1400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1400</v>
-      </c>
-      <c r="I66" s="3">
-        <v>1300</v>
       </c>
       <c r="J66" s="3">
         <v>1300</v>
@@ -4310,7 +4467,7 @@
         <v>1300</v>
       </c>
       <c r="M66" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="N66" s="3">
         <v>1400</v>
@@ -4319,13 +4476,13 @@
         <v>1400</v>
       </c>
       <c r="P66" s="3">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="Q66" s="3">
         <v>900</v>
       </c>
       <c r="R66" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="S66" s="3">
         <v>1000</v>
@@ -4337,16 +4494,19 @@
         <v>1000</v>
       </c>
       <c r="V66" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="W66" s="3">
         <v>1100</v>
       </c>
       <c r="X66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Y66" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,13 +4813,16 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-11400</v>
+        <v>-11300</v>
       </c>
       <c r="E72" s="3">
         <v>-11400</v>
@@ -4658,61 +4831,64 @@
         <v>-11400</v>
       </c>
       <c r="G72" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="H72" s="3">
         <v>-11700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-11600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-11700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-11500</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-11300</v>
       </c>
       <c r="L72" s="3">
         <v>-11300</v>
       </c>
       <c r="M72" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="N72" s="3">
         <v>-11400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-11500</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-11300</v>
       </c>
       <c r="P72" s="3">
         <v>-11300</v>
       </c>
       <c r="Q72" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="R72" s="3">
         <v>-11400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-11500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-11400</v>
-      </c>
-      <c r="T72" s="3">
-        <v>-11500</v>
       </c>
       <c r="U72" s="3">
         <v>-11500</v>
       </c>
       <c r="V72" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="W72" s="3">
         <v>-11600</v>
-      </c>
-      <c r="W72" s="3">
-        <v>-11500</v>
       </c>
       <c r="X72" s="3">
         <v>-11500</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3">
+        <v>-11500</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,8 +5097,11 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4924,25 +5109,25 @@
         <v>2900</v>
       </c>
       <c r="E76" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="F76" s="3">
         <v>2800</v>
       </c>
       <c r="G76" s="3">
+        <v>2800</v>
+      </c>
+      <c r="H76" s="3">
         <v>2600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2800</v>
-      </c>
-      <c r="K76" s="3">
-        <v>2900</v>
       </c>
       <c r="L76" s="3">
         <v>2900</v>
@@ -4951,40 +5136,43 @@
         <v>2900</v>
       </c>
       <c r="N76" s="3">
+        <v>2900</v>
+      </c>
+      <c r="O76" s="3">
         <v>2800</v>
-      </c>
-      <c r="O76" s="3">
-        <v>3000</v>
       </c>
       <c r="P76" s="3">
         <v>3000</v>
       </c>
       <c r="Q76" s="3">
+        <v>3000</v>
+      </c>
+      <c r="R76" s="3">
         <v>2900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2800</v>
-      </c>
-      <c r="U76" s="3">
-        <v>2700</v>
       </c>
       <c r="V76" s="3">
         <v>2700</v>
       </c>
       <c r="W76" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="X76" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,81 +5239,87 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E80" s="2">
         <v>44439</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44347</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44255</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44165</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44074</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43982</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43890</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43799</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43708</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43616</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43524</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43434</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43343</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43251</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43159</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43069</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42978</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42886</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42794</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42704</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5136,22 +5330,22 @@
         <v>100</v>
       </c>
       <c r="F81" s="3">
+        <v>100</v>
+      </c>
+      <c r="G81" s="3">
         <v>300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
-        <v>100</v>
-      </c>
       <c r="I81" s="3">
+        <v>100</v>
+      </c>
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L81" s="3">
         <v>100</v>
@@ -5166,13 +5360,13 @@
         <v>100</v>
       </c>
       <c r="P81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q81" s="3">
         <v>200</v>
       </c>
       <c r="R81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S81" s="3">
         <v>100</v>
@@ -5190,10 +5384,13 @@
         <v>100</v>
       </c>
       <c r="X81" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,38 +5839,41 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>100</v>
+      </c>
+      <c r="E89" s="3">
         <v>300</v>
-      </c>
-      <c r="E89" s="3">
-        <v>200</v>
       </c>
       <c r="F89" s="3">
         <v>200</v>
       </c>
       <c r="G89" s="3">
+        <v>200</v>
+      </c>
+      <c r="H89" s="3">
         <v>300</v>
       </c>
-      <c r="H89" s="3">
-        <v>100</v>
-      </c>
       <c r="I89" s="3">
+        <v>100</v>
+      </c>
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
-        <v>100</v>
-      </c>
       <c r="K89" s="3">
+        <v>100</v>
+      </c>
+      <c r="L89" s="3">
         <v>200</v>
       </c>
-      <c r="L89" s="3">
-        <v>100</v>
-      </c>
       <c r="M89" s="3">
         <v>100</v>
       </c>
@@ -5665,37 +5881,40 @@
         <v>100</v>
       </c>
       <c r="O89" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P89" s="3">
         <v>200</v>
       </c>
       <c r="Q89" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R89" s="3">
+        <v>100</v>
+      </c>
+      <c r="S89" s="3">
         <v>200</v>
       </c>
-      <c r="S89" s="3">
-        <v>100</v>
-      </c>
       <c r="T89" s="3">
         <v>100</v>
       </c>
       <c r="U89" s="3">
+        <v>100</v>
+      </c>
+      <c r="V89" s="3">
         <v>200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>200</v>
       </c>
-      <c r="X89" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5764,14 +5984,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>5</v>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
@@ -5782,14 +6002,17 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>5</v>
+      <c r="W91" s="3">
+        <v>0</v>
       </c>
       <c r="X91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6150,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5992,8 +6221,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6033,19 +6266,19 @@
         <v>-100</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-200</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-100</v>
       </c>
       <c r="L96" s="3">
         <v>-100</v>
@@ -6054,10 +6287,10 @@
         <v>-100</v>
       </c>
       <c r="N96" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O96" s="3">
         <v>-200</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-100</v>
       </c>
       <c r="P96" s="3">
         <v>-100</v>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6532,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6305,19 +6550,19 @@
         <v>-100</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-200</v>
-      </c>
-      <c r="K100" s="3">
-        <v>-100</v>
       </c>
       <c r="L100" s="3">
         <v>-100</v>
@@ -6326,10 +6571,10 @@
         <v>-100</v>
       </c>
       <c r="N100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O100" s="3">
         <v>-200</v>
-      </c>
-      <c r="O100" s="3">
-        <v>-100</v>
       </c>
       <c r="P100" s="3">
         <v>-100</v>
@@ -6358,8 +6603,11 @@
       <c r="X100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,47 +6674,50 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
-        <v>100</v>
-      </c>
       <c r="F102" s="3">
         <v>100</v>
       </c>
       <c r="G102" s="3">
+        <v>100</v>
+      </c>
+      <c r="H102" s="3">
         <v>300</v>
       </c>
-      <c r="H102" s="3">
-        <v>100</v>
-      </c>
       <c r="I102" s="3">
+        <v>100</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
-        <v>100</v>
-      </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
-        <v>100</v>
-      </c>
       <c r="P102" s="3">
         <v>100</v>
       </c>
@@ -6474,7 +6725,7 @@
         <v>100</v>
       </c>
       <c r="R102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S102" s="3">
         <v>0</v>
@@ -6483,15 +6734,18 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>100</v>
+      </c>
+      <c r="W102" s="3">
         <v>-200</v>
       </c>
-      <c r="W102" s="3">
-        <v>100</v>
-      </c>
       <c r="X102" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BABB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BABB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
   <si>
     <t>BABB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,118 +665,122 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E7" s="2">
         <v>44530</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44439</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44347</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44255</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44165</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44074</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43982</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43890</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43799</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43708</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43616</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43524</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43434</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43343</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43251</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43159</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43069</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42978</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42886</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42794</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42704</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E8" s="3">
         <v>800</v>
       </c>
       <c r="F8" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="G8" s="3">
         <v>700</v>
@@ -785,16 +789,16 @@
         <v>700</v>
       </c>
       <c r="I8" s="3">
+        <v>700</v>
+      </c>
+      <c r="J8" s="3">
         <v>600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>700</v>
-      </c>
-      <c r="L8" s="3">
-        <v>800</v>
       </c>
       <c r="M8" s="3">
         <v>800</v>
@@ -803,10 +807,10 @@
         <v>800</v>
       </c>
       <c r="O8" s="3">
+        <v>800</v>
+      </c>
+      <c r="P8" s="3">
         <v>700</v>
-      </c>
-      <c r="P8" s="3">
-        <v>600</v>
       </c>
       <c r="Q8" s="3">
         <v>600</v>
@@ -815,10 +819,10 @@
         <v>600</v>
       </c>
       <c r="S8" s="3">
+        <v>600</v>
+      </c>
+      <c r="T8" s="3">
         <v>500</v>
-      </c>
-      <c r="T8" s="3">
-        <v>600</v>
       </c>
       <c r="U8" s="3">
         <v>600</v>
@@ -827,16 +831,19 @@
         <v>600</v>
       </c>
       <c r="W8" s="3">
+        <v>600</v>
+      </c>
+      <c r="X8" s="3">
         <v>500</v>
-      </c>
-      <c r="X8" s="3">
-        <v>600</v>
       </c>
       <c r="Y8" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -906,8 +913,11 @@
       <c r="Y9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +987,11 @@
       <c r="Y10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1075,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,8 +1163,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1161,11 +1181,11 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-200</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1181,8 +1201,8 @@
       <c r="M14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1217,8 +1237,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1288,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,40 +1338,41 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>600</v>
+      </c>
+      <c r="E17" s="3">
         <v>700</v>
-      </c>
-      <c r="E17" s="3">
-        <v>600</v>
       </c>
       <c r="F17" s="3">
         <v>600</v>
       </c>
       <c r="G17" s="3">
+        <v>600</v>
+      </c>
+      <c r="H17" s="3">
         <v>400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>700</v>
-      </c>
-      <c r="M17" s="3">
-        <v>600</v>
       </c>
       <c r="N17" s="3">
         <v>600</v>
@@ -1354,10 +1381,10 @@
         <v>600</v>
       </c>
       <c r="P17" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q17" s="3">
         <v>500</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>400</v>
       </c>
       <c r="R17" s="3">
         <v>400</v>
@@ -1372,19 +1399,22 @@
         <v>400</v>
       </c>
       <c r="V17" s="3">
+        <v>400</v>
+      </c>
+      <c r="W17" s="3">
         <v>500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1392,70 +1422,73 @@
         <v>100</v>
       </c>
       <c r="E18" s="3">
+        <v>100</v>
+      </c>
+      <c r="F18" s="3">
         <v>200</v>
       </c>
-      <c r="F18" s="3">
-        <v>100</v>
-      </c>
       <c r="G18" s="3">
+        <v>100</v>
+      </c>
+      <c r="H18" s="3">
         <v>300</v>
       </c>
-      <c r="H18" s="3">
-        <v>100</v>
-      </c>
       <c r="I18" s="3">
         <v>100</v>
       </c>
       <c r="J18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L18" s="3">
         <v>100</v>
       </c>
       <c r="M18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N18" s="3">
         <v>200</v>
       </c>
       <c r="O18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P18" s="3">
         <v>100</v>
       </c>
       <c r="Q18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R18" s="3">
         <v>200</v>
       </c>
       <c r="S18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U18" s="3">
         <v>200</v>
       </c>
       <c r="V18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W18" s="3">
         <v>100</v>
       </c>
       <c r="X18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y18" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,8 +1514,9 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1552,8 +1586,11 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1561,35 +1598,35 @@
         <v>100</v>
       </c>
       <c r="E21" s="3">
+        <v>100</v>
+      </c>
+      <c r="F21" s="3">
         <v>200</v>
       </c>
-      <c r="F21" s="3">
-        <v>100</v>
-      </c>
       <c r="G21" s="3">
+        <v>100</v>
+      </c>
+      <c r="H21" s="3">
         <v>400</v>
       </c>
-      <c r="H21" s="3">
-        <v>100</v>
-      </c>
       <c r="I21" s="3">
         <v>100</v>
       </c>
       <c r="J21" s="3">
+        <v>100</v>
+      </c>
+      <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="K21" s="3">
-        <v>100</v>
-      </c>
       <c r="L21" s="3">
         <v>100</v>
       </c>
       <c r="M21" s="3">
+        <v>100</v>
+      </c>
+      <c r="N21" s="3">
         <v>200</v>
       </c>
-      <c r="N21" s="3">
-        <v>100</v>
-      </c>
       <c r="O21" s="3">
         <v>100</v>
       </c>
@@ -1597,13 +1634,13 @@
         <v>100</v>
       </c>
       <c r="Q21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R21" s="3">
         <v>200</v>
       </c>
       <c r="S21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T21" s="3">
         <v>100</v>
@@ -1621,10 +1658,13 @@
         <v>100</v>
       </c>
       <c r="Y21" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z21" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1670,14 +1710,14 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>5</v>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
+      <c r="T22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
@@ -1694,8 +1734,11 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1703,35 +1746,35 @@
         <v>100</v>
       </c>
       <c r="E23" s="3">
+        <v>100</v>
+      </c>
+      <c r="F23" s="3">
         <v>200</v>
       </c>
-      <c r="F23" s="3">
-        <v>100</v>
-      </c>
       <c r="G23" s="3">
+        <v>100</v>
+      </c>
+      <c r="H23" s="3">
         <v>400</v>
       </c>
-      <c r="H23" s="3">
-        <v>100</v>
-      </c>
       <c r="I23" s="3">
         <v>100</v>
       </c>
       <c r="J23" s="3">
+        <v>100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
-        <v>100</v>
-      </c>
       <c r="L23" s="3">
         <v>100</v>
       </c>
       <c r="M23" s="3">
+        <v>100</v>
+      </c>
+      <c r="N23" s="3">
         <v>200</v>
       </c>
-      <c r="N23" s="3">
-        <v>100</v>
-      </c>
       <c r="O23" s="3">
         <v>100</v>
       </c>
@@ -1739,13 +1782,13 @@
         <v>100</v>
       </c>
       <c r="Q23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R23" s="3">
         <v>200</v>
       </c>
       <c r="S23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T23" s="3">
         <v>100</v>
@@ -1763,10 +1806,13 @@
         <v>100</v>
       </c>
       <c r="Y23" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z23" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1774,20 +1820,20 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
@@ -1807,11 +1853,11 @@
         <v>0</v>
       </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-200</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
@@ -1836,8 +1882,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,8 +1956,11 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1922,22 +1974,22 @@
         <v>100</v>
       </c>
       <c r="G26" s="3">
+        <v>100</v>
+      </c>
+      <c r="H26" s="3">
         <v>300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
-        <v>100</v>
-      </c>
       <c r="J26" s="3">
+        <v>100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M26" s="3">
         <v>100</v>
@@ -1949,16 +2001,16 @@
         <v>100</v>
       </c>
       <c r="P26" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q26" s="3">
         <v>300</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>200</v>
       </c>
       <c r="R26" s="3">
         <v>200</v>
       </c>
       <c r="S26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T26" s="3">
         <v>100</v>
@@ -1976,10 +2028,13 @@
         <v>100</v>
       </c>
       <c r="Y26" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1993,22 +2048,22 @@
         <v>100</v>
       </c>
       <c r="G27" s="3">
+        <v>100</v>
+      </c>
+      <c r="H27" s="3">
         <v>300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
-        <v>100</v>
-      </c>
       <c r="J27" s="3">
+        <v>100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M27" s="3">
         <v>100</v>
@@ -2020,16 +2075,16 @@
         <v>100</v>
       </c>
       <c r="P27" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q27" s="3">
         <v>300</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>200</v>
       </c>
       <c r="R27" s="3">
         <v>200</v>
       </c>
       <c r="S27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T27" s="3">
         <v>100</v>
@@ -2047,10 +2102,13 @@
         <v>100</v>
       </c>
       <c r="Y27" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,31 +2178,34 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>5</v>
@@ -2161,12 +2222,12 @@
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-200</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2182,8 +2243,8 @@
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
+      <c r="W29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="X29" s="3">
         <v>0</v>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,8 +2400,11 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2404,8 +2474,11 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2419,22 +2492,22 @@
         <v>100</v>
       </c>
       <c r="G33" s="3">
+        <v>100</v>
+      </c>
+      <c r="H33" s="3">
         <v>300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
-        <v>100</v>
-      </c>
       <c r="J33" s="3">
+        <v>100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M33" s="3">
         <v>100</v>
@@ -2449,13 +2522,13 @@
         <v>100</v>
       </c>
       <c r="Q33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R33" s="3">
         <v>200</v>
       </c>
       <c r="S33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T33" s="3">
         <v>100</v>
@@ -2473,10 +2546,13 @@
         <v>100</v>
       </c>
       <c r="Y33" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,8 +2622,11 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2561,22 +2640,22 @@
         <v>100</v>
       </c>
       <c r="G35" s="3">
+        <v>100</v>
+      </c>
+      <c r="H35" s="3">
         <v>300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
-        <v>100</v>
-      </c>
       <c r="J35" s="3">
+        <v>100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M35" s="3">
         <v>100</v>
@@ -2591,13 +2670,13 @@
         <v>100</v>
       </c>
       <c r="Q35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R35" s="3">
         <v>200</v>
       </c>
       <c r="S35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T35" s="3">
         <v>100</v>
@@ -2615,86 +2694,92 @@
         <v>100</v>
       </c>
       <c r="Y35" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E38" s="2">
         <v>44530</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44439</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44347</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44255</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44165</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44074</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43982</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43890</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43799</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43708</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43616</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43524</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43434</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43343</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43251</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43159</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43069</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42978</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42886</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42794</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42704</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,8 +2833,9 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2759,28 +2846,28 @@
         <v>1500</v>
       </c>
       <c r="F41" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G41" s="3">
         <v>1400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1100</v>
-      </c>
-      <c r="M41" s="3">
-        <v>1000</v>
       </c>
       <c r="N41" s="3">
         <v>1000</v>
@@ -2789,37 +2876,40 @@
         <v>1000</v>
       </c>
       <c r="P41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q41" s="3">
         <v>1100</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>900</v>
       </c>
       <c r="R41" s="3">
         <v>900</v>
       </c>
       <c r="S41" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T41" s="3">
         <v>800</v>
       </c>
       <c r="U41" s="3">
+        <v>800</v>
+      </c>
+      <c r="V41" s="3">
         <v>700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,8 +2979,11 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2913,10 +3006,10 @@
         <v>100</v>
       </c>
       <c r="J43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L43" s="3">
         <v>100</v>
@@ -2960,8 +3053,11 @@
       <c r="Y43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2998,11 +3094,11 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P44" s="3">
-        <v>0</v>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q44" s="3">
         <v>0</v>
@@ -3031,8 +3127,11 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3043,7 +3142,7 @@
         <v>700</v>
       </c>
       <c r="F45" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="G45" s="3">
         <v>500</v>
@@ -3052,13 +3151,13 @@
         <v>500</v>
       </c>
       <c r="I45" s="3">
+        <v>500</v>
+      </c>
+      <c r="J45" s="3">
         <v>400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>300</v>
-      </c>
-      <c r="K45" s="3">
-        <v>500</v>
       </c>
       <c r="L45" s="3">
         <v>500</v>
@@ -3076,13 +3175,13 @@
         <v>500</v>
       </c>
       <c r="Q45" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="R45" s="3">
         <v>700</v>
       </c>
       <c r="S45" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T45" s="3">
         <v>800</v>
@@ -3091,7 +3190,7 @@
         <v>800</v>
       </c>
       <c r="V45" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="W45" s="3">
         <v>700</v>
@@ -3102,8 +3201,11 @@
       <c r="Y45" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3111,70 +3213,73 @@
         <v>2300</v>
       </c>
       <c r="E46" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F46" s="3">
         <v>2200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1700</v>
-      </c>
-      <c r="M46" s="3">
-        <v>1600</v>
       </c>
       <c r="N46" s="3">
         <v>1600</v>
       </c>
       <c r="O46" s="3">
+        <v>1600</v>
+      </c>
+      <c r="P46" s="3">
         <v>1500</v>
-      </c>
-      <c r="P46" s="3">
-        <v>1700</v>
       </c>
       <c r="Q46" s="3">
         <v>1700</v>
       </c>
       <c r="R46" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="S46" s="3">
         <v>1600</v>
       </c>
       <c r="T46" s="3">
+        <v>1600</v>
+      </c>
+      <c r="U46" s="3">
         <v>1700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1600</v>
-      </c>
-      <c r="V46" s="3">
-        <v>1500</v>
       </c>
       <c r="W46" s="3">
         <v>1500</v>
       </c>
       <c r="X46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Y46" s="3">
         <v>1700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3244,8 +3349,11 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3256,7 +3364,7 @@
         <v>200</v>
       </c>
       <c r="F48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G48" s="3">
         <v>300</v>
@@ -3271,7 +3379,7 @@
         <v>300</v>
       </c>
       <c r="K48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L48" s="3">
         <v>400</v>
@@ -3283,13 +3391,13 @@
         <v>400</v>
       </c>
       <c r="O48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="P48" s="3">
         <v>500</v>
       </c>
       <c r="Q48" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
@@ -3315,8 +3423,11 @@
       <c r="Y48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3386,8 +3497,11 @@
       <c r="Y49" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,13 +3645,16 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>5</v>
+      <c r="D52" s="3">
+        <v>0</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>5</v>
@@ -3545,11 +3665,11 @@
       <c r="G52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
+      <c r="H52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I52" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J52" s="3">
         <v>200</v>
@@ -3599,8 +3719,11 @@
       <c r="Y52" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,8 +3793,11 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3679,28 +3805,28 @@
         <v>4500</v>
       </c>
       <c r="E54" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F54" s="3">
         <v>4400</v>
-      </c>
-      <c r="F54" s="3">
-        <v>4200</v>
       </c>
       <c r="G54" s="3">
         <v>4200</v>
       </c>
       <c r="H54" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="I54" s="3">
         <v>4100</v>
       </c>
       <c r="J54" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K54" s="3">
         <v>3900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4000</v>
-      </c>
-      <c r="L54" s="3">
-        <v>4200</v>
       </c>
       <c r="M54" s="3">
         <v>4200</v>
@@ -3712,37 +3838,40 @@
         <v>4200</v>
       </c>
       <c r="P54" s="3">
+        <v>4200</v>
+      </c>
+      <c r="Q54" s="3">
         <v>4400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3900</v>
-      </c>
-      <c r="R54" s="3">
-        <v>3800</v>
       </c>
       <c r="S54" s="3">
         <v>3800</v>
       </c>
       <c r="T54" s="3">
+        <v>3800</v>
+      </c>
+      <c r="U54" s="3">
         <v>3900</v>
-      </c>
-      <c r="U54" s="3">
-        <v>3800</v>
       </c>
       <c r="V54" s="3">
         <v>3800</v>
       </c>
       <c r="W54" s="3">
+        <v>3800</v>
+      </c>
+      <c r="X54" s="3">
         <v>3700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>3900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,8 +3925,9 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3855,24 +3986,27 @@
         <v>0</v>
       </c>
       <c r="V57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W57" s="3">
         <v>100</v>
       </c>
       <c r="X57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -3884,13 +4018,13 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="I58" s="3">
-        <v>100</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>5</v>
+      <c r="J58" s="3">
+        <v>100</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>5</v>
@@ -3907,8 +4041,8 @@
       <c r="O58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -3928,17 +4062,20 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X58" s="3">
-        <v>0</v>
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3946,37 +4083,37 @@
         <v>1100</v>
       </c>
       <c r="E59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F59" s="3">
         <v>1000</v>
-      </c>
-      <c r="F59" s="3">
-        <v>900</v>
       </c>
       <c r="G59" s="3">
         <v>900</v>
       </c>
       <c r="H59" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="I59" s="3">
         <v>800</v>
       </c>
       <c r="J59" s="3">
+        <v>800</v>
+      </c>
+      <c r="K59" s="3">
         <v>700</v>
-      </c>
-      <c r="K59" s="3">
-        <v>900</v>
       </c>
       <c r="L59" s="3">
         <v>900</v>
       </c>
       <c r="M59" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="N59" s="3">
         <v>800</v>
       </c>
       <c r="O59" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="P59" s="3">
         <v>900</v>
@@ -3988,7 +4125,7 @@
         <v>900</v>
       </c>
       <c r="S59" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="T59" s="3">
         <v>1000</v>
@@ -4003,13 +4140,16 @@
         <v>1000</v>
       </c>
       <c r="X59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Y59" s="3">
         <v>1100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4017,34 +4157,34 @@
         <v>1100</v>
       </c>
       <c r="E60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F60" s="3">
         <v>1000</v>
-      </c>
-      <c r="F60" s="3">
-        <v>900</v>
       </c>
       <c r="G60" s="3">
         <v>900</v>
       </c>
       <c r="H60" s="3">
+        <v>900</v>
+      </c>
+      <c r="I60" s="3">
         <v>1100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>700</v>
-      </c>
-      <c r="K60" s="3">
-        <v>900</v>
       </c>
       <c r="L60" s="3">
         <v>900</v>
       </c>
       <c r="M60" s="3">
+        <v>900</v>
+      </c>
+      <c r="N60" s="3">
         <v>800</v>
-      </c>
-      <c r="N60" s="3">
-        <v>900</v>
       </c>
       <c r="O60" s="3">
         <v>900</v>
@@ -4059,7 +4199,7 @@
         <v>900</v>
       </c>
       <c r="S60" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="T60" s="3">
         <v>1000</v>
@@ -4071,16 +4211,19 @@
         <v>1000</v>
       </c>
       <c r="W60" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="X60" s="3">
         <v>1100</v>
       </c>
       <c r="Y60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Z60" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4100,14 +4243,14 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>100</v>
+      </c>
+      <c r="K61" s="3">
         <v>200</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -4150,8 +4293,11 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4159,10 +4305,10 @@
         <v>400</v>
       </c>
       <c r="E62" s="3">
+        <v>400</v>
+      </c>
+      <c r="F62" s="3">
         <v>500</v>
-      </c>
-      <c r="F62" s="3">
-        <v>400</v>
       </c>
       <c r="G62" s="3">
         <v>400</v>
@@ -4183,7 +4329,7 @@
         <v>400</v>
       </c>
       <c r="M62" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N62" s="3">
         <v>500</v>
@@ -4192,11 +4338,11 @@
         <v>500</v>
       </c>
       <c r="P62" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q62" s="3">
         <v>400</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>5</v>
       </c>
@@ -4212,8 +4358,8 @@
       <c r="V62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W62" s="3">
-        <v>0</v>
+      <c r="W62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="X62" s="3">
         <v>0</v>
@@ -4221,8 +4367,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,31 +4589,34 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="E66" s="3">
         <v>1500</v>
       </c>
       <c r="F66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G66" s="3">
         <v>1400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1400</v>
-      </c>
-      <c r="J66" s="3">
-        <v>1300</v>
       </c>
       <c r="K66" s="3">
         <v>1300</v>
@@ -4470,7 +4628,7 @@
         <v>1300</v>
       </c>
       <c r="N66" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="O66" s="3">
         <v>1400</v>
@@ -4479,13 +4637,13 @@
         <v>1400</v>
       </c>
       <c r="Q66" s="3">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="R66" s="3">
         <v>900</v>
       </c>
       <c r="S66" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="T66" s="3">
         <v>1000</v>
@@ -4497,16 +4655,19 @@
         <v>1000</v>
       </c>
       <c r="W66" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="X66" s="3">
         <v>1100</v>
       </c>
       <c r="Y66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Z66" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,8 +4987,11 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4825,7 +4999,7 @@
         <v>-11300</v>
       </c>
       <c r="E72" s="3">
-        <v>-11400</v>
+        <v>-11300</v>
       </c>
       <c r="F72" s="3">
         <v>-11400</v>
@@ -4834,61 +5008,64 @@
         <v>-11400</v>
       </c>
       <c r="H72" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="I72" s="3">
         <v>-11700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-11600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-11700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-11500</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-11300</v>
       </c>
       <c r="M72" s="3">
         <v>-11300</v>
       </c>
       <c r="N72" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="O72" s="3">
         <v>-11400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-11500</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-11300</v>
       </c>
       <c r="Q72" s="3">
         <v>-11300</v>
       </c>
       <c r="R72" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="S72" s="3">
         <v>-11400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-11500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-11400</v>
-      </c>
-      <c r="U72" s="3">
-        <v>-11500</v>
       </c>
       <c r="V72" s="3">
         <v>-11500</v>
       </c>
       <c r="W72" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="X72" s="3">
         <v>-11600</v>
-      </c>
-      <c r="X72" s="3">
-        <v>-11500</v>
       </c>
       <c r="Y72" s="3">
         <v>-11500</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3">
+        <v>-11500</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,8 +5283,11 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5112,25 +5298,25 @@
         <v>2900</v>
       </c>
       <c r="F76" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="G76" s="3">
         <v>2800</v>
       </c>
       <c r="H76" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I76" s="3">
         <v>2600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2800</v>
-      </c>
-      <c r="L76" s="3">
-        <v>2900</v>
       </c>
       <c r="M76" s="3">
         <v>2900</v>
@@ -5139,40 +5325,43 @@
         <v>2900</v>
       </c>
       <c r="O76" s="3">
+        <v>2900</v>
+      </c>
+      <c r="P76" s="3">
         <v>2800</v>
-      </c>
-      <c r="P76" s="3">
-        <v>3000</v>
       </c>
       <c r="Q76" s="3">
         <v>3000</v>
       </c>
       <c r="R76" s="3">
+        <v>3000</v>
+      </c>
+      <c r="S76" s="3">
         <v>2900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2800</v>
-      </c>
-      <c r="V76" s="3">
-        <v>2700</v>
       </c>
       <c r="W76" s="3">
         <v>2700</v>
       </c>
       <c r="X76" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="Y76" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,84 +5431,90 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E80" s="2">
         <v>44530</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44439</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44347</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44255</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44165</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44074</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43982</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43890</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43799</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43708</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43616</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43524</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43434</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43343</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43251</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43159</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43069</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42978</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42886</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42794</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42704</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5333,22 +5528,22 @@
         <v>100</v>
       </c>
       <c r="G81" s="3">
+        <v>100</v>
+      </c>
+      <c r="H81" s="3">
         <v>300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
-        <v>100</v>
-      </c>
       <c r="J81" s="3">
+        <v>100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M81" s="3">
         <v>100</v>
@@ -5363,13 +5558,13 @@
         <v>100</v>
       </c>
       <c r="Q81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R81" s="3">
         <v>200</v>
       </c>
       <c r="S81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T81" s="3">
         <v>100</v>
@@ -5387,10 +5582,13 @@
         <v>100</v>
       </c>
       <c r="Y81" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5614,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5487,8 +5686,11 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,8 +6056,11 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5851,32 +6068,32 @@
         <v>100</v>
       </c>
       <c r="E89" s="3">
+        <v>100</v>
+      </c>
+      <c r="F89" s="3">
         <v>300</v>
-      </c>
-      <c r="F89" s="3">
-        <v>200</v>
       </c>
       <c r="G89" s="3">
         <v>200</v>
       </c>
       <c r="H89" s="3">
+        <v>200</v>
+      </c>
+      <c r="I89" s="3">
         <v>300</v>
       </c>
-      <c r="I89" s="3">
-        <v>100</v>
-      </c>
       <c r="J89" s="3">
+        <v>100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
-        <v>100</v>
-      </c>
       <c r="L89" s="3">
+        <v>100</v>
+      </c>
+      <c r="M89" s="3">
         <v>200</v>
       </c>
-      <c r="M89" s="3">
-        <v>100</v>
-      </c>
       <c r="N89" s="3">
         <v>100</v>
       </c>
@@ -5884,37 +6101,40 @@
         <v>100</v>
       </c>
       <c r="P89" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q89" s="3">
         <v>200</v>
       </c>
       <c r="R89" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S89" s="3">
+        <v>100</v>
+      </c>
+      <c r="T89" s="3">
         <v>200</v>
       </c>
-      <c r="T89" s="3">
-        <v>100</v>
-      </c>
       <c r="U89" s="3">
         <v>100</v>
       </c>
       <c r="V89" s="3">
+        <v>100</v>
+      </c>
+      <c r="W89" s="3">
         <v>200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>200</v>
       </c>
-      <c r="Y89" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,31 +6160,32 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -5987,14 +6208,14 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>5</v>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="T91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
@@ -6005,14 +6226,17 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>5</v>
+      <c r="X91" s="3">
+        <v>0</v>
       </c>
       <c r="Y91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,8 +6380,11 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6224,8 +6454,11 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6269,19 +6503,19 @@
         <v>-100</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-200</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-100</v>
       </c>
       <c r="M96" s="3">
         <v>-100</v>
@@ -6290,10 +6524,10 @@
         <v>-100</v>
       </c>
       <c r="O96" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P96" s="3">
         <v>-200</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-100</v>
       </c>
       <c r="Q96" s="3">
         <v>-100</v>
@@ -6322,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,8 +6778,11 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6553,19 +6799,19 @@
         <v>-100</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-200</v>
-      </c>
-      <c r="L100" s="3">
-        <v>-100</v>
       </c>
       <c r="M100" s="3">
         <v>-100</v>
@@ -6574,10 +6820,10 @@
         <v>-100</v>
       </c>
       <c r="O100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P100" s="3">
         <v>-200</v>
-      </c>
-      <c r="P100" s="3">
-        <v>-100</v>
       </c>
       <c r="Q100" s="3">
         <v>-100</v>
@@ -6606,8 +6852,11 @@
       <c r="Y100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,8 +6926,11 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6686,41 +6938,41 @@
         <v>100</v>
       </c>
       <c r="E102" s="3">
+        <v>100</v>
+      </c>
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
-        <v>100</v>
-      </c>
       <c r="G102" s="3">
         <v>100</v>
       </c>
       <c r="H102" s="3">
+        <v>100</v>
+      </c>
+      <c r="I102" s="3">
         <v>300</v>
       </c>
-      <c r="I102" s="3">
-        <v>100</v>
-      </c>
       <c r="J102" s="3">
+        <v>100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
-        <v>100</v>
-      </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
-        <v>100</v>
-      </c>
       <c r="Q102" s="3">
         <v>100</v>
       </c>
@@ -6728,7 +6980,7 @@
         <v>100</v>
       </c>
       <c r="S102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T102" s="3">
         <v>0</v>
@@ -6737,15 +6989,18 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>100</v>
+      </c>
+      <c r="X102" s="3">
         <v>-200</v>
       </c>
-      <c r="X102" s="3">
-        <v>100</v>
-      </c>
       <c r="Y102" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BABB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BABB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="92">
   <si>
     <t>BABB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,125 +665,129 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E7" s="2">
         <v>44620</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44530</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44439</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44347</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44255</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44165</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44074</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43982</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43890</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43799</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43708</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43616</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43524</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43434</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43343</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43251</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43159</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43069</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42978</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42886</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42794</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42704</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>800</v>
+      </c>
+      <c r="E8" s="3">
         <v>700</v>
-      </c>
-      <c r="E8" s="3">
-        <v>800</v>
       </c>
       <c r="F8" s="3">
         <v>800</v>
       </c>
       <c r="G8" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="H8" s="3">
         <v>700</v>
@@ -792,16 +796,16 @@
         <v>700</v>
       </c>
       <c r="J8" s="3">
+        <v>700</v>
+      </c>
+      <c r="K8" s="3">
         <v>600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>700</v>
-      </c>
-      <c r="M8" s="3">
-        <v>800</v>
       </c>
       <c r="N8" s="3">
         <v>800</v>
@@ -810,10 +814,10 @@
         <v>800</v>
       </c>
       <c r="P8" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q8" s="3">
         <v>700</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>600</v>
       </c>
       <c r="R8" s="3">
         <v>600</v>
@@ -822,10 +826,10 @@
         <v>600</v>
       </c>
       <c r="T8" s="3">
+        <v>600</v>
+      </c>
+      <c r="U8" s="3">
         <v>500</v>
-      </c>
-      <c r="U8" s="3">
-        <v>600</v>
       </c>
       <c r="V8" s="3">
         <v>600</v>
@@ -834,16 +838,19 @@
         <v>600</v>
       </c>
       <c r="X8" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y8" s="3">
         <v>500</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>600</v>
       </c>
       <c r="Z8" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -916,8 +923,11 @@
       <c r="Z9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -990,8 +1000,11 @@
       <c r="Z10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1184,11 +1204,11 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-200</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1204,8 +1224,8 @@
       <c r="N14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1240,8 +1260,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,43 +1365,44 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>700</v>
+      </c>
+      <c r="E17" s="3">
         <v>600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>700</v>
-      </c>
-      <c r="F17" s="3">
-        <v>600</v>
       </c>
       <c r="G17" s="3">
         <v>600</v>
       </c>
       <c r="H17" s="3">
+        <v>600</v>
+      </c>
+      <c r="I17" s="3">
         <v>400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>700</v>
-      </c>
-      <c r="N17" s="3">
-        <v>600</v>
       </c>
       <c r="O17" s="3">
         <v>600</v>
@@ -1384,10 +1411,10 @@
         <v>600</v>
       </c>
       <c r="Q17" s="3">
+        <v>600</v>
+      </c>
+      <c r="R17" s="3">
         <v>500</v>
-      </c>
-      <c r="R17" s="3">
-        <v>400</v>
       </c>
       <c r="S17" s="3">
         <v>400</v>
@@ -1402,19 +1429,22 @@
         <v>400</v>
       </c>
       <c r="W17" s="3">
+        <v>400</v>
+      </c>
+      <c r="X17" s="3">
         <v>500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1425,70 +1455,73 @@
         <v>100</v>
       </c>
       <c r="F18" s="3">
+        <v>100</v>
+      </c>
+      <c r="G18" s="3">
         <v>200</v>
       </c>
-      <c r="G18" s="3">
-        <v>100</v>
-      </c>
       <c r="H18" s="3">
+        <v>100</v>
+      </c>
+      <c r="I18" s="3">
         <v>300</v>
       </c>
-      <c r="I18" s="3">
-        <v>100</v>
-      </c>
       <c r="J18" s="3">
         <v>100</v>
       </c>
       <c r="K18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M18" s="3">
         <v>100</v>
       </c>
       <c r="N18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O18" s="3">
         <v>200</v>
       </c>
       <c r="P18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q18" s="3">
         <v>100</v>
       </c>
       <c r="R18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S18" s="3">
         <v>200</v>
       </c>
       <c r="T18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V18" s="3">
         <v>200</v>
       </c>
       <c r="W18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X18" s="3">
         <v>100</v>
       </c>
       <c r="Y18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z18" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,8 +1548,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1589,8 +1623,11 @@
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1601,35 +1638,35 @@
         <v>100</v>
       </c>
       <c r="F21" s="3">
+        <v>100</v>
+      </c>
+      <c r="G21" s="3">
         <v>200</v>
       </c>
-      <c r="G21" s="3">
-        <v>100</v>
-      </c>
       <c r="H21" s="3">
+        <v>100</v>
+      </c>
+      <c r="I21" s="3">
         <v>400</v>
       </c>
-      <c r="I21" s="3">
-        <v>100</v>
-      </c>
       <c r="J21" s="3">
         <v>100</v>
       </c>
       <c r="K21" s="3">
+        <v>100</v>
+      </c>
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="L21" s="3">
-        <v>100</v>
-      </c>
       <c r="M21" s="3">
         <v>100</v>
       </c>
       <c r="N21" s="3">
+        <v>100</v>
+      </c>
+      <c r="O21" s="3">
         <v>200</v>
       </c>
-      <c r="O21" s="3">
-        <v>100</v>
-      </c>
       <c r="P21" s="3">
         <v>100</v>
       </c>
@@ -1637,13 +1674,13 @@
         <v>100</v>
       </c>
       <c r="R21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S21" s="3">
         <v>200</v>
       </c>
       <c r="T21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U21" s="3">
         <v>100</v>
@@ -1661,10 +1698,13 @@
         <v>100</v>
       </c>
       <c r="Z21" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA21" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1713,14 +1753,14 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>5</v>
+      <c r="S22" s="3">
+        <v>0</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
+      <c r="U22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
@@ -1737,8 +1777,11 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1749,35 +1792,35 @@
         <v>100</v>
       </c>
       <c r="F23" s="3">
+        <v>100</v>
+      </c>
+      <c r="G23" s="3">
         <v>200</v>
       </c>
-      <c r="G23" s="3">
-        <v>100</v>
-      </c>
       <c r="H23" s="3">
+        <v>100</v>
+      </c>
+      <c r="I23" s="3">
         <v>400</v>
       </c>
-      <c r="I23" s="3">
-        <v>100</v>
-      </c>
       <c r="J23" s="3">
         <v>100</v>
       </c>
       <c r="K23" s="3">
+        <v>100</v>
+      </c>
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
-        <v>100</v>
-      </c>
       <c r="M23" s="3">
         <v>100</v>
       </c>
       <c r="N23" s="3">
+        <v>100</v>
+      </c>
+      <c r="O23" s="3">
         <v>200</v>
       </c>
-      <c r="O23" s="3">
-        <v>100</v>
-      </c>
       <c r="P23" s="3">
         <v>100</v>
       </c>
@@ -1785,13 +1828,13 @@
         <v>100</v>
       </c>
       <c r="R23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S23" s="3">
         <v>200</v>
       </c>
       <c r="T23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U23" s="3">
         <v>100</v>
@@ -1809,10 +1852,13 @@
         <v>100</v>
       </c>
       <c r="Z23" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA23" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1823,20 +1869,20 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
@@ -1856,11 +1902,11 @@
         <v>0</v>
       </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>-200</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
@@ -1885,8 +1931,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,8 +2008,11 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1977,22 +2029,22 @@
         <v>100</v>
       </c>
       <c r="H26" s="3">
+        <v>100</v>
+      </c>
+      <c r="I26" s="3">
         <v>300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
-        <v>100</v>
-      </c>
       <c r="K26" s="3">
+        <v>100</v>
+      </c>
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N26" s="3">
         <v>100</v>
@@ -2004,16 +2056,16 @@
         <v>100</v>
       </c>
       <c r="Q26" s="3">
+        <v>100</v>
+      </c>
+      <c r="R26" s="3">
         <v>300</v>
-      </c>
-      <c r="R26" s="3">
-        <v>200</v>
       </c>
       <c r="S26" s="3">
         <v>200</v>
       </c>
       <c r="T26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U26" s="3">
         <v>100</v>
@@ -2031,10 +2083,13 @@
         <v>100</v>
       </c>
       <c r="Z26" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2051,22 +2106,22 @@
         <v>100</v>
       </c>
       <c r="H27" s="3">
+        <v>100</v>
+      </c>
+      <c r="I27" s="3">
         <v>300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
-        <v>100</v>
-      </c>
       <c r="K27" s="3">
+        <v>100</v>
+      </c>
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N27" s="3">
         <v>100</v>
@@ -2078,16 +2133,16 @@
         <v>100</v>
       </c>
       <c r="Q27" s="3">
+        <v>100</v>
+      </c>
+      <c r="R27" s="3">
         <v>300</v>
-      </c>
-      <c r="R27" s="3">
-        <v>200</v>
       </c>
       <c r="S27" s="3">
         <v>200</v>
       </c>
       <c r="T27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U27" s="3">
         <v>100</v>
@@ -2105,10 +2160,13 @@
         <v>100</v>
       </c>
       <c r="Z27" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2207,8 +2268,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
@@ -2225,12 +2286,12 @@
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3">
         <v>-200</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2246,8 +2307,8 @@
       <c r="W29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X29" s="3">
-        <v>0</v>
+      <c r="X29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y29" s="3">
         <v>0</v>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,8 +2470,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2477,8 +2547,11 @@
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2495,22 +2568,22 @@
         <v>100</v>
       </c>
       <c r="H33" s="3">
+        <v>100</v>
+      </c>
+      <c r="I33" s="3">
         <v>300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
-        <v>100</v>
-      </c>
       <c r="K33" s="3">
+        <v>100</v>
+      </c>
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N33" s="3">
         <v>100</v>
@@ -2525,13 +2598,13 @@
         <v>100</v>
       </c>
       <c r="R33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S33" s="3">
         <v>200</v>
       </c>
       <c r="T33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U33" s="3">
         <v>100</v>
@@ -2549,10 +2622,13 @@
         <v>100</v>
       </c>
       <c r="Z33" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,8 +2701,11 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2643,22 +2722,22 @@
         <v>100</v>
       </c>
       <c r="H35" s="3">
+        <v>100</v>
+      </c>
+      <c r="I35" s="3">
         <v>300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
-        <v>100</v>
-      </c>
       <c r="K35" s="3">
+        <v>100</v>
+      </c>
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N35" s="3">
         <v>100</v>
@@ -2673,13 +2752,13 @@
         <v>100</v>
       </c>
       <c r="R35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S35" s="3">
         <v>200</v>
       </c>
       <c r="T35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U35" s="3">
         <v>100</v>
@@ -2697,89 +2776,95 @@
         <v>100</v>
       </c>
       <c r="Z35" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E38" s="2">
         <v>44620</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44530</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44439</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44347</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44255</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44165</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44074</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43982</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43890</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43799</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43708</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43616</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43524</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43434</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43343</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43251</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43159</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43069</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42978</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42886</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42794</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42704</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,8 +2920,9 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2849,28 +2936,28 @@
         <v>1500</v>
       </c>
       <c r="G41" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H41" s="3">
         <v>1400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1100</v>
-      </c>
-      <c r="N41" s="3">
-        <v>1000</v>
       </c>
       <c r="O41" s="3">
         <v>1000</v>
@@ -2879,37 +2966,40 @@
         <v>1000</v>
       </c>
       <c r="Q41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R41" s="3">
         <v>1100</v>
-      </c>
-      <c r="R41" s="3">
-        <v>900</v>
       </c>
       <c r="S41" s="3">
         <v>900</v>
       </c>
       <c r="T41" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="U41" s="3">
         <v>800</v>
       </c>
       <c r="V41" s="3">
+        <v>800</v>
+      </c>
+      <c r="W41" s="3">
         <v>700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2982,8 +3072,11 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3009,10 +3102,10 @@
         <v>100</v>
       </c>
       <c r="K43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M43" s="3">
         <v>100</v>
@@ -3056,8 +3149,11 @@
       <c r="Z43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3097,11 +3193,11 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>0</v>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R44" s="3">
         <v>0</v>
@@ -3130,13 +3226,16 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E45" s="3">
         <v>700</v>
@@ -3145,7 +3244,7 @@
         <v>700</v>
       </c>
       <c r="G45" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="H45" s="3">
         <v>500</v>
@@ -3154,13 +3253,13 @@
         <v>500</v>
       </c>
       <c r="J45" s="3">
+        <v>500</v>
+      </c>
+      <c r="K45" s="3">
         <v>400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>300</v>
-      </c>
-      <c r="L45" s="3">
-        <v>500</v>
       </c>
       <c r="M45" s="3">
         <v>500</v>
@@ -3178,13 +3277,13 @@
         <v>500</v>
       </c>
       <c r="R45" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="S45" s="3">
         <v>700</v>
       </c>
       <c r="T45" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="U45" s="3">
         <v>800</v>
@@ -3193,7 +3292,7 @@
         <v>800</v>
       </c>
       <c r="W45" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="X45" s="3">
         <v>700</v>
@@ -3204,82 +3303,88 @@
       <c r="Z45" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="E46" s="3">
         <v>2300</v>
       </c>
       <c r="F46" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G46" s="3">
         <v>2200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1700</v>
-      </c>
-      <c r="N46" s="3">
-        <v>1600</v>
       </c>
       <c r="O46" s="3">
         <v>1600</v>
       </c>
       <c r="P46" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q46" s="3">
         <v>1500</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>1700</v>
       </c>
       <c r="R46" s="3">
         <v>1700</v>
       </c>
       <c r="S46" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="T46" s="3">
         <v>1600</v>
       </c>
       <c r="U46" s="3">
+        <v>1600</v>
+      </c>
+      <c r="V46" s="3">
         <v>1700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1600</v>
-      </c>
-      <c r="W46" s="3">
-        <v>1500</v>
       </c>
       <c r="X46" s="3">
         <v>1500</v>
       </c>
       <c r="Y46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Z46" s="3">
         <v>1700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3352,8 +3457,11 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3367,7 +3475,7 @@
         <v>200</v>
       </c>
       <c r="G48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H48" s="3">
         <v>300</v>
@@ -3382,7 +3490,7 @@
         <v>300</v>
       </c>
       <c r="L48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M48" s="3">
         <v>400</v>
@@ -3394,13 +3502,13 @@
         <v>400</v>
       </c>
       <c r="P48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q48" s="3">
         <v>500</v>
       </c>
       <c r="R48" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
@@ -3426,8 +3534,11 @@
       <c r="Z48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3500,8 +3611,11 @@
       <c r="Z49" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,16 +3765,19 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
         <v>0</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>5</v>
+      <c r="E52" s="3">
+        <v>0</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>5</v>
@@ -3668,11 +3788,11 @@
       <c r="H52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
+      <c r="I52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J52" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K52" s="3">
         <v>200</v>
@@ -3722,8 +3842,11 @@
       <c r="Z52" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,8 +3919,11 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3808,28 +3934,28 @@
         <v>4500</v>
       </c>
       <c r="F54" s="3">
+        <v>4500</v>
+      </c>
+      <c r="G54" s="3">
         <v>4400</v>
-      </c>
-      <c r="G54" s="3">
-        <v>4200</v>
       </c>
       <c r="H54" s="3">
         <v>4200</v>
       </c>
       <c r="I54" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="J54" s="3">
         <v>4100</v>
       </c>
       <c r="K54" s="3">
+        <v>4100</v>
+      </c>
+      <c r="L54" s="3">
         <v>3900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4000</v>
-      </c>
-      <c r="M54" s="3">
-        <v>4200</v>
       </c>
       <c r="N54" s="3">
         <v>4200</v>
@@ -3841,37 +3967,40 @@
         <v>4200</v>
       </c>
       <c r="Q54" s="3">
+        <v>4200</v>
+      </c>
+      <c r="R54" s="3">
         <v>4400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3900</v>
-      </c>
-      <c r="S54" s="3">
-        <v>3800</v>
       </c>
       <c r="T54" s="3">
         <v>3800</v>
       </c>
       <c r="U54" s="3">
+        <v>3800</v>
+      </c>
+      <c r="V54" s="3">
         <v>3900</v>
-      </c>
-      <c r="V54" s="3">
-        <v>3800</v>
       </c>
       <c r="W54" s="3">
         <v>3800</v>
       </c>
       <c r="X54" s="3">
+        <v>3800</v>
+      </c>
+      <c r="Y54" s="3">
         <v>3700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>3900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,8 +4056,9 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3989,27 +4120,30 @@
         <v>0</v>
       </c>
       <c r="W57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X57" s="3">
         <v>100</v>
       </c>
       <c r="Y57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -4021,13 +4155,13 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>200</v>
       </c>
-      <c r="J58" s="3">
-        <v>100</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>5</v>
+      <c r="K58" s="3">
+        <v>100</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>5</v>
@@ -4044,8 +4178,8 @@
       <c r="P58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -4065,58 +4199,61 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y58" s="3">
-        <v>0</v>
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="E59" s="3">
         <v>1100</v>
       </c>
       <c r="F59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G59" s="3">
         <v>1000</v>
-      </c>
-      <c r="G59" s="3">
-        <v>900</v>
       </c>
       <c r="H59" s="3">
         <v>900</v>
       </c>
       <c r="I59" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="J59" s="3">
         <v>800</v>
       </c>
       <c r="K59" s="3">
+        <v>800</v>
+      </c>
+      <c r="L59" s="3">
         <v>700</v>
-      </c>
-      <c r="L59" s="3">
-        <v>900</v>
       </c>
       <c r="M59" s="3">
         <v>900</v>
       </c>
       <c r="N59" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="O59" s="3">
         <v>800</v>
       </c>
       <c r="P59" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="Q59" s="3">
         <v>900</v>
@@ -4128,7 +4265,7 @@
         <v>900</v>
       </c>
       <c r="T59" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="U59" s="3">
         <v>1000</v>
@@ -4143,51 +4280,54 @@
         <v>1000</v>
       </c>
       <c r="Y59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Z59" s="3">
         <v>1100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="E60" s="3">
         <v>1100</v>
       </c>
       <c r="F60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G60" s="3">
         <v>1000</v>
-      </c>
-      <c r="G60" s="3">
-        <v>900</v>
       </c>
       <c r="H60" s="3">
         <v>900</v>
       </c>
       <c r="I60" s="3">
+        <v>900</v>
+      </c>
+      <c r="J60" s="3">
         <v>1100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>700</v>
-      </c>
-      <c r="L60" s="3">
-        <v>900</v>
       </c>
       <c r="M60" s="3">
         <v>900</v>
       </c>
       <c r="N60" s="3">
+        <v>900</v>
+      </c>
+      <c r="O60" s="3">
         <v>800</v>
-      </c>
-      <c r="O60" s="3">
-        <v>900</v>
       </c>
       <c r="P60" s="3">
         <v>900</v>
@@ -4202,7 +4342,7 @@
         <v>900</v>
       </c>
       <c r="T60" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="U60" s="3">
         <v>1000</v>
@@ -4214,16 +4354,19 @@
         <v>1000</v>
       </c>
       <c r="X60" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="Y60" s="3">
         <v>1100</v>
       </c>
       <c r="Z60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AA60" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4246,14 +4389,14 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>100</v>
+      </c>
+      <c r="L61" s="3">
         <v>200</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -4296,8 +4439,11 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4308,10 +4454,10 @@
         <v>400</v>
       </c>
       <c r="F62" s="3">
+        <v>400</v>
+      </c>
+      <c r="G62" s="3">
         <v>500</v>
-      </c>
-      <c r="G62" s="3">
-        <v>400</v>
       </c>
       <c r="H62" s="3">
         <v>400</v>
@@ -4332,7 +4478,7 @@
         <v>400</v>
       </c>
       <c r="N62" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="O62" s="3">
         <v>500</v>
@@ -4341,11 +4487,11 @@
         <v>500</v>
       </c>
       <c r="Q62" s="3">
+        <v>500</v>
+      </c>
+      <c r="R62" s="3">
         <v>400</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>5</v>
       </c>
@@ -4361,8 +4507,8 @@
       <c r="W62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X62" s="3">
-        <v>0</v>
+      <c r="X62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y62" s="3">
         <v>0</v>
@@ -4370,8 +4516,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,8 +4747,11 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4601,25 +4759,25 @@
         <v>1600</v>
       </c>
       <c r="E66" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="F66" s="3">
         <v>1500</v>
       </c>
       <c r="G66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H66" s="3">
         <v>1400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1400</v>
-      </c>
-      <c r="K66" s="3">
-        <v>1300</v>
       </c>
       <c r="L66" s="3">
         <v>1300</v>
@@ -4631,7 +4789,7 @@
         <v>1300</v>
       </c>
       <c r="O66" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="P66" s="3">
         <v>1400</v>
@@ -4640,13 +4798,13 @@
         <v>1400</v>
       </c>
       <c r="R66" s="3">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="S66" s="3">
         <v>900</v>
       </c>
       <c r="T66" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="U66" s="3">
         <v>1000</v>
@@ -4658,16 +4816,19 @@
         <v>1000</v>
       </c>
       <c r="X66" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="Y66" s="3">
         <v>1100</v>
       </c>
       <c r="Z66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AA66" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,8 +5161,11 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5002,7 +5176,7 @@
         <v>-11300</v>
       </c>
       <c r="F72" s="3">
-        <v>-11400</v>
+        <v>-11300</v>
       </c>
       <c r="G72" s="3">
         <v>-11400</v>
@@ -5011,61 +5185,64 @@
         <v>-11400</v>
       </c>
       <c r="I72" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="J72" s="3">
         <v>-11700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-11600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-11700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-11500</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-11300</v>
       </c>
       <c r="N72" s="3">
         <v>-11300</v>
       </c>
       <c r="O72" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="P72" s="3">
         <v>-11400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-11500</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-11300</v>
       </c>
       <c r="R72" s="3">
         <v>-11300</v>
       </c>
       <c r="S72" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="T72" s="3">
         <v>-11400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-11500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-11400</v>
-      </c>
-      <c r="V72" s="3">
-        <v>-11500</v>
       </c>
       <c r="W72" s="3">
         <v>-11500</v>
       </c>
       <c r="X72" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="Y72" s="3">
         <v>-11600</v>
-      </c>
-      <c r="Y72" s="3">
-        <v>-11500</v>
       </c>
       <c r="Z72" s="3">
         <v>-11500</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3">
+        <v>-11500</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,8 +5469,11 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5301,25 +5487,25 @@
         <v>2900</v>
       </c>
       <c r="G76" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="H76" s="3">
         <v>2800</v>
       </c>
       <c r="I76" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J76" s="3">
         <v>2600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2800</v>
-      </c>
-      <c r="M76" s="3">
-        <v>2900</v>
       </c>
       <c r="N76" s="3">
         <v>2900</v>
@@ -5328,40 +5514,43 @@
         <v>2900</v>
       </c>
       <c r="P76" s="3">
+        <v>2900</v>
+      </c>
+      <c r="Q76" s="3">
         <v>2800</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>3000</v>
       </c>
       <c r="R76" s="3">
         <v>3000</v>
       </c>
       <c r="S76" s="3">
+        <v>3000</v>
+      </c>
+      <c r="T76" s="3">
         <v>2900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2800</v>
-      </c>
-      <c r="W76" s="3">
-        <v>2700</v>
       </c>
       <c r="X76" s="3">
         <v>2700</v>
       </c>
       <c r="Y76" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="Z76" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,87 +5623,93 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E80" s="2">
         <v>44620</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44530</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44439</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44347</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44255</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44165</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44074</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43982</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43890</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43799</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43708</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43616</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43524</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43434</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43343</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43251</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43159</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43069</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42978</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42886</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42794</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42704</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5531,22 +5726,22 @@
         <v>100</v>
       </c>
       <c r="H81" s="3">
+        <v>100</v>
+      </c>
+      <c r="I81" s="3">
         <v>300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
-        <v>100</v>
-      </c>
       <c r="K81" s="3">
+        <v>100</v>
+      </c>
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N81" s="3">
         <v>100</v>
@@ -5561,13 +5756,13 @@
         <v>100</v>
       </c>
       <c r="R81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S81" s="3">
         <v>200</v>
       </c>
       <c r="T81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U81" s="3">
         <v>100</v>
@@ -5585,10 +5780,13 @@
         <v>100</v>
       </c>
       <c r="Z81" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5689,8 +5888,11 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,8 +6273,11 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6071,32 +6288,32 @@
         <v>100</v>
       </c>
       <c r="F89" s="3">
+        <v>100</v>
+      </c>
+      <c r="G89" s="3">
         <v>300</v>
-      </c>
-      <c r="G89" s="3">
-        <v>200</v>
       </c>
       <c r="H89" s="3">
         <v>200</v>
       </c>
       <c r="I89" s="3">
+        <v>200</v>
+      </c>
+      <c r="J89" s="3">
         <v>300</v>
       </c>
-      <c r="J89" s="3">
-        <v>100</v>
-      </c>
       <c r="K89" s="3">
+        <v>100</v>
+      </c>
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
-        <v>100</v>
-      </c>
       <c r="M89" s="3">
+        <v>100</v>
+      </c>
+      <c r="N89" s="3">
         <v>200</v>
       </c>
-      <c r="N89" s="3">
-        <v>100</v>
-      </c>
       <c r="O89" s="3">
         <v>100</v>
       </c>
@@ -6104,37 +6321,40 @@
         <v>100</v>
       </c>
       <c r="Q89" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R89" s="3">
         <v>200</v>
       </c>
       <c r="S89" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T89" s="3">
+        <v>100</v>
+      </c>
+      <c r="U89" s="3">
         <v>200</v>
       </c>
-      <c r="U89" s="3">
-        <v>100</v>
-      </c>
       <c r="V89" s="3">
         <v>100</v>
       </c>
       <c r="W89" s="3">
+        <v>100</v>
+      </c>
+      <c r="X89" s="3">
         <v>200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>200</v>
       </c>
-      <c r="Z89" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,16 +6381,17 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>5</v>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>5</v>
@@ -6187,8 +6408,8 @@
       <c r="J91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -6211,14 +6432,14 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>5</v>
+      <c r="S91" s="3">
+        <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="U91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
@@ -6229,14 +6450,17 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>5</v>
+      <c r="Y91" s="3">
+        <v>0</v>
       </c>
       <c r="Z91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,8 +6610,11 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6457,8 +6687,11 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6506,19 +6740,19 @@
         <v>-100</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-200</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-100</v>
       </c>
       <c r="N96" s="3">
         <v>-100</v>
@@ -6527,10 +6761,10 @@
         <v>-100</v>
       </c>
       <c r="P96" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-100</v>
       </c>
       <c r="R96" s="3">
         <v>-100</v>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,8 +7024,11 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6802,19 +7048,19 @@
         <v>-100</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-200</v>
-      </c>
-      <c r="M100" s="3">
-        <v>-100</v>
       </c>
       <c r="N100" s="3">
         <v>-100</v>
@@ -6823,10 +7069,10 @@
         <v>-100</v>
       </c>
       <c r="P100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>-100</v>
       </c>
       <c r="R100" s="3">
         <v>-100</v>
@@ -6855,8 +7101,11 @@
       <c r="Z100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,53 +7178,56 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
         <v>100</v>
       </c>
       <c r="F102" s="3">
+        <v>100</v>
+      </c>
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
-        <v>100</v>
-      </c>
       <c r="H102" s="3">
         <v>100</v>
       </c>
       <c r="I102" s="3">
+        <v>100</v>
+      </c>
+      <c r="J102" s="3">
         <v>300</v>
       </c>
-      <c r="J102" s="3">
-        <v>100</v>
-      </c>
       <c r="K102" s="3">
+        <v>100</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
-        <v>100</v>
-      </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>100</v>
-      </c>
       <c r="R102" s="3">
         <v>100</v>
       </c>
@@ -6983,7 +7235,7 @@
         <v>100</v>
       </c>
       <c r="T102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U102" s="3">
         <v>0</v>
@@ -6992,15 +7244,18 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-200</v>
       </c>
-      <c r="Y102" s="3">
-        <v>100</v>
-      </c>
       <c r="Z102" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BABB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BABB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="92">
   <si>
     <t>BABB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,132 +665,136 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44804</v>
+      </c>
+      <c r="E7" s="2">
         <v>44712</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44620</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44530</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44439</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44347</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44255</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44165</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44074</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43982</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43890</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43799</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43708</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43616</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43524</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43434</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43343</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43251</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43159</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43069</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42978</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42886</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42794</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42704</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>900</v>
+      </c>
+      <c r="E8" s="3">
         <v>800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>700</v>
-      </c>
-      <c r="F8" s="3">
-        <v>800</v>
       </c>
       <c r="G8" s="3">
         <v>800</v>
       </c>
       <c r="H8" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="I8" s="3">
         <v>700</v>
@@ -799,16 +803,16 @@
         <v>700</v>
       </c>
       <c r="K8" s="3">
+        <v>700</v>
+      </c>
+      <c r="L8" s="3">
         <v>600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>700</v>
-      </c>
-      <c r="N8" s="3">
-        <v>800</v>
       </c>
       <c r="O8" s="3">
         <v>800</v>
@@ -817,10 +821,10 @@
         <v>800</v>
       </c>
       <c r="Q8" s="3">
+        <v>800</v>
+      </c>
+      <c r="R8" s="3">
         <v>700</v>
-      </c>
-      <c r="R8" s="3">
-        <v>600</v>
       </c>
       <c r="S8" s="3">
         <v>600</v>
@@ -829,10 +833,10 @@
         <v>600</v>
       </c>
       <c r="U8" s="3">
+        <v>600</v>
+      </c>
+      <c r="V8" s="3">
         <v>500</v>
-      </c>
-      <c r="V8" s="3">
-        <v>600</v>
       </c>
       <c r="W8" s="3">
         <v>600</v>
@@ -841,16 +845,19 @@
         <v>600</v>
       </c>
       <c r="Y8" s="3">
+        <v>600</v>
+      </c>
+      <c r="Z8" s="3">
         <v>500</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>600</v>
       </c>
       <c r="AA8" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -926,8 +933,11 @@
       <c r="AA9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,8 +1013,11 @@
       <c r="AA10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1207,11 +1227,11 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-200</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1227,8 +1247,8 @@
       <c r="O14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,8 +1392,9 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1375,37 +1402,37 @@
         <v>700</v>
       </c>
       <c r="E17" s="3">
+        <v>700</v>
+      </c>
+      <c r="F17" s="3">
         <v>600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>700</v>
-      </c>
-      <c r="G17" s="3">
-        <v>600</v>
       </c>
       <c r="H17" s="3">
         <v>600</v>
       </c>
       <c r="I17" s="3">
+        <v>600</v>
+      </c>
+      <c r="J17" s="3">
         <v>400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>700</v>
-      </c>
-      <c r="O17" s="3">
-        <v>600</v>
       </c>
       <c r="P17" s="3">
         <v>600</v>
@@ -1414,10 +1441,10 @@
         <v>600</v>
       </c>
       <c r="R17" s="3">
+        <v>600</v>
+      </c>
+      <c r="S17" s="3">
         <v>500</v>
-      </c>
-      <c r="S17" s="3">
-        <v>400</v>
       </c>
       <c r="T17" s="3">
         <v>400</v>
@@ -1432,24 +1459,27 @@
         <v>400</v>
       </c>
       <c r="X17" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y17" s="3">
         <v>500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E18" s="3">
         <v>100</v>
@@ -1458,70 +1488,73 @@
         <v>100</v>
       </c>
       <c r="G18" s="3">
+        <v>100</v>
+      </c>
+      <c r="H18" s="3">
         <v>200</v>
       </c>
-      <c r="H18" s="3">
-        <v>100</v>
-      </c>
       <c r="I18" s="3">
+        <v>100</v>
+      </c>
+      <c r="J18" s="3">
         <v>300</v>
       </c>
-      <c r="J18" s="3">
-        <v>100</v>
-      </c>
       <c r="K18" s="3">
         <v>100</v>
       </c>
       <c r="L18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N18" s="3">
         <v>100</v>
       </c>
       <c r="O18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P18" s="3">
         <v>200</v>
       </c>
       <c r="Q18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R18" s="3">
         <v>100</v>
       </c>
       <c r="S18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T18" s="3">
         <v>200</v>
       </c>
       <c r="U18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W18" s="3">
         <v>200</v>
       </c>
       <c r="X18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y18" s="3">
         <v>100</v>
       </c>
       <c r="Z18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA18" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1582,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1626,13 +1660,16 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E21" s="3">
         <v>100</v>
@@ -1641,35 +1678,35 @@
         <v>100</v>
       </c>
       <c r="G21" s="3">
+        <v>100</v>
+      </c>
+      <c r="H21" s="3">
         <v>200</v>
       </c>
-      <c r="H21" s="3">
-        <v>100</v>
-      </c>
       <c r="I21" s="3">
+        <v>100</v>
+      </c>
+      <c r="J21" s="3">
         <v>400</v>
       </c>
-      <c r="J21" s="3">
-        <v>100</v>
-      </c>
       <c r="K21" s="3">
         <v>100</v>
       </c>
       <c r="L21" s="3">
+        <v>100</v>
+      </c>
+      <c r="M21" s="3">
         <v>-100</v>
       </c>
-      <c r="M21" s="3">
-        <v>100</v>
-      </c>
       <c r="N21" s="3">
         <v>100</v>
       </c>
       <c r="O21" s="3">
+        <v>100</v>
+      </c>
+      <c r="P21" s="3">
         <v>200</v>
       </c>
-      <c r="P21" s="3">
-        <v>100</v>
-      </c>
       <c r="Q21" s="3">
         <v>100</v>
       </c>
@@ -1677,13 +1714,13 @@
         <v>100</v>
       </c>
       <c r="S21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T21" s="3">
         <v>200</v>
       </c>
       <c r="U21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V21" s="3">
         <v>100</v>
@@ -1701,10 +1738,13 @@
         <v>100</v>
       </c>
       <c r="AA21" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB21" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1756,14 +1796,14 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>5</v>
+      <c r="T22" s="3">
+        <v>0</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
+      <c r="V22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W22" s="3">
         <v>0</v>
@@ -1780,13 +1820,16 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E23" s="3">
         <v>100</v>
@@ -1795,35 +1838,35 @@
         <v>100</v>
       </c>
       <c r="G23" s="3">
+        <v>100</v>
+      </c>
+      <c r="H23" s="3">
         <v>200</v>
       </c>
-      <c r="H23" s="3">
-        <v>100</v>
-      </c>
       <c r="I23" s="3">
+        <v>100</v>
+      </c>
+      <c r="J23" s="3">
         <v>400</v>
       </c>
-      <c r="J23" s="3">
-        <v>100</v>
-      </c>
       <c r="K23" s="3">
         <v>100</v>
       </c>
       <c r="L23" s="3">
+        <v>100</v>
+      </c>
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
-        <v>100</v>
-      </c>
       <c r="N23" s="3">
         <v>100</v>
       </c>
       <c r="O23" s="3">
+        <v>100</v>
+      </c>
+      <c r="P23" s="3">
         <v>200</v>
       </c>
-      <c r="P23" s="3">
-        <v>100</v>
-      </c>
       <c r="Q23" s="3">
         <v>100</v>
       </c>
@@ -1831,13 +1874,13 @@
         <v>100</v>
       </c>
       <c r="S23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T23" s="3">
         <v>200</v>
       </c>
       <c r="U23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V23" s="3">
         <v>100</v>
@@ -1855,15 +1898,18 @@
         <v>100</v>
       </c>
       <c r="AA23" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB23" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1872,20 +1918,20 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
@@ -1905,11 +1951,11 @@
         <v>0</v>
       </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>-200</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,13 +2060,16 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E26" s="3">
         <v>100</v>
@@ -2032,22 +2084,22 @@
         <v>100</v>
       </c>
       <c r="I26" s="3">
+        <v>100</v>
+      </c>
+      <c r="J26" s="3">
         <v>300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
-        <v>100</v>
-      </c>
       <c r="L26" s="3">
+        <v>100</v>
+      </c>
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O26" s="3">
         <v>100</v>
@@ -2059,16 +2111,16 @@
         <v>100</v>
       </c>
       <c r="R26" s="3">
+        <v>100</v>
+      </c>
+      <c r="S26" s="3">
         <v>300</v>
-      </c>
-      <c r="S26" s="3">
-        <v>200</v>
       </c>
       <c r="T26" s="3">
         <v>200</v>
       </c>
       <c r="U26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V26" s="3">
         <v>100</v>
@@ -2086,15 +2138,18 @@
         <v>100</v>
       </c>
       <c r="AA26" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E27" s="3">
         <v>100</v>
@@ -2109,22 +2164,22 @@
         <v>100</v>
       </c>
       <c r="I27" s="3">
+        <v>100</v>
+      </c>
+      <c r="J27" s="3">
         <v>300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
-        <v>100</v>
-      </c>
       <c r="L27" s="3">
+        <v>100</v>
+      </c>
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O27" s="3">
         <v>100</v>
@@ -2136,16 +2191,16 @@
         <v>100</v>
       </c>
       <c r="R27" s="3">
+        <v>100</v>
+      </c>
+      <c r="S27" s="3">
         <v>300</v>
-      </c>
-      <c r="S27" s="3">
-        <v>200</v>
       </c>
       <c r="T27" s="3">
         <v>200</v>
       </c>
       <c r="U27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V27" s="3">
         <v>100</v>
@@ -2163,10 +2218,13 @@
         <v>100</v>
       </c>
       <c r="AA27" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2271,8 +2332,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>5</v>
@@ -2289,12 +2350,12 @@
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29" s="3">
         <v>-200</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2310,8 +2371,8 @@
       <c r="X29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y29" s="3">
-        <v>0</v>
+      <c r="Y29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Z29" s="3">
         <v>0</v>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2540,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2550,13 +2620,16 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E33" s="3">
         <v>100</v>
@@ -2571,22 +2644,22 @@
         <v>100</v>
       </c>
       <c r="I33" s="3">
+        <v>100</v>
+      </c>
+      <c r="J33" s="3">
         <v>300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
-        <v>100</v>
-      </c>
       <c r="L33" s="3">
+        <v>100</v>
+      </c>
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O33" s="3">
         <v>100</v>
@@ -2601,13 +2674,13 @@
         <v>100</v>
       </c>
       <c r="S33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T33" s="3">
         <v>200</v>
       </c>
       <c r="U33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V33" s="3">
         <v>100</v>
@@ -2625,10 +2698,13 @@
         <v>100</v>
       </c>
       <c r="AA33" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,13 +2780,16 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E35" s="3">
         <v>100</v>
@@ -2725,22 +2804,22 @@
         <v>100</v>
       </c>
       <c r="I35" s="3">
+        <v>100</v>
+      </c>
+      <c r="J35" s="3">
         <v>300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
-        <v>100</v>
-      </c>
       <c r="L35" s="3">
+        <v>100</v>
+      </c>
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O35" s="3">
         <v>100</v>
@@ -2755,13 +2834,13 @@
         <v>100</v>
       </c>
       <c r="S35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T35" s="3">
         <v>200</v>
       </c>
       <c r="U35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V35" s="3">
         <v>100</v>
@@ -2779,92 +2858,98 @@
         <v>100</v>
       </c>
       <c r="AA35" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44804</v>
+      </c>
+      <c r="E38" s="2">
         <v>44712</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44620</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44530</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44439</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44347</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44255</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44165</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44074</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43982</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43890</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43799</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43708</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43616</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43524</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43434</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43343</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43251</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43159</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43069</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42978</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42886</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42794</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42704</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,8 +3007,9 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2939,28 +3026,28 @@
         <v>1500</v>
       </c>
       <c r="H41" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I41" s="3">
         <v>1400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1100</v>
-      </c>
-      <c r="O41" s="3">
-        <v>1000</v>
       </c>
       <c r="P41" s="3">
         <v>1000</v>
@@ -2969,37 +3056,40 @@
         <v>1000</v>
       </c>
       <c r="R41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S41" s="3">
         <v>1100</v>
-      </c>
-      <c r="S41" s="3">
-        <v>900</v>
       </c>
       <c r="T41" s="3">
         <v>900</v>
       </c>
       <c r="U41" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="V41" s="3">
         <v>800</v>
       </c>
       <c r="W41" s="3">
+        <v>800</v>
+      </c>
+      <c r="X41" s="3">
         <v>700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,8 +3165,11 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3105,10 +3198,10 @@
         <v>100</v>
       </c>
       <c r="L43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N43" s="3">
         <v>100</v>
@@ -3152,8 +3245,11 @@
       <c r="AA43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3196,11 +3292,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R44" s="3">
-        <v>0</v>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S44" s="3">
         <v>0</v>
@@ -3229,16 +3325,19 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E45" s="3">
         <v>800</v>
-      </c>
-      <c r="E45" s="3">
-        <v>700</v>
       </c>
       <c r="F45" s="3">
         <v>700</v>
@@ -3247,7 +3346,7 @@
         <v>700</v>
       </c>
       <c r="H45" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="I45" s="3">
         <v>500</v>
@@ -3256,13 +3355,13 @@
         <v>500</v>
       </c>
       <c r="K45" s="3">
+        <v>500</v>
+      </c>
+      <c r="L45" s="3">
         <v>400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>300</v>
-      </c>
-      <c r="M45" s="3">
-        <v>500</v>
       </c>
       <c r="N45" s="3">
         <v>500</v>
@@ -3280,13 +3379,13 @@
         <v>500</v>
       </c>
       <c r="S45" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T45" s="3">
         <v>700</v>
       </c>
       <c r="U45" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="V45" s="3">
         <v>800</v>
@@ -3295,7 +3394,7 @@
         <v>800</v>
       </c>
       <c r="X45" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="Y45" s="3">
         <v>700</v>
@@ -3306,108 +3405,114 @@
       <c r="AA45" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E46" s="3">
         <v>2400</v>
-      </c>
-      <c r="E46" s="3">
-        <v>2300</v>
       </c>
       <c r="F46" s="3">
         <v>2300</v>
       </c>
       <c r="G46" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H46" s="3">
         <v>2200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1700</v>
-      </c>
-      <c r="O46" s="3">
-        <v>1600</v>
       </c>
       <c r="P46" s="3">
         <v>1600</v>
       </c>
       <c r="Q46" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R46" s="3">
         <v>1500</v>
-      </c>
-      <c r="R46" s="3">
-        <v>1700</v>
       </c>
       <c r="S46" s="3">
         <v>1700</v>
       </c>
       <c r="T46" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="U46" s="3">
         <v>1600</v>
       </c>
       <c r="V46" s="3">
+        <v>1600</v>
+      </c>
+      <c r="W46" s="3">
         <v>1700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1600</v>
-      </c>
-      <c r="X46" s="3">
-        <v>1500</v>
       </c>
       <c r="Y46" s="3">
         <v>1500</v>
       </c>
       <c r="Z46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AA46" s="3">
         <v>1700</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
         <v>0</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+      <c r="E47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -3460,8 +3565,11 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3478,7 +3586,7 @@
         <v>200</v>
       </c>
       <c r="H48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I48" s="3">
         <v>300</v>
@@ -3493,7 +3601,7 @@
         <v>300</v>
       </c>
       <c r="M48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N48" s="3">
         <v>400</v>
@@ -3505,13 +3613,13 @@
         <v>400</v>
       </c>
       <c r="Q48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="R48" s="3">
         <v>500</v>
       </c>
       <c r="S48" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="T48" s="3">
         <v>0</v>
@@ -3537,8 +3645,11 @@
       <c r="AA48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,19 +3885,22 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>5</v>
+      <c r="F52" s="3">
+        <v>0</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>5</v>
@@ -3791,11 +3911,11 @@
       <c r="I52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="J52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K52" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L52" s="3">
         <v>200</v>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,13 +4045,16 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4500</v>
+        <v>4800</v>
       </c>
       <c r="E54" s="3">
         <v>4500</v>
@@ -3937,28 +4063,28 @@
         <v>4500</v>
       </c>
       <c r="G54" s="3">
+        <v>4500</v>
+      </c>
+      <c r="H54" s="3">
         <v>4400</v>
-      </c>
-      <c r="H54" s="3">
-        <v>4200</v>
       </c>
       <c r="I54" s="3">
         <v>4200</v>
       </c>
       <c r="J54" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="K54" s="3">
         <v>4100</v>
       </c>
       <c r="L54" s="3">
+        <v>4100</v>
+      </c>
+      <c r="M54" s="3">
         <v>3900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4000</v>
-      </c>
-      <c r="N54" s="3">
-        <v>4200</v>
       </c>
       <c r="O54" s="3">
         <v>4200</v>
@@ -3970,37 +4096,40 @@
         <v>4200</v>
       </c>
       <c r="R54" s="3">
+        <v>4200</v>
+      </c>
+      <c r="S54" s="3">
         <v>4400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3900</v>
-      </c>
-      <c r="T54" s="3">
-        <v>3800</v>
       </c>
       <c r="U54" s="3">
         <v>3800</v>
       </c>
       <c r="V54" s="3">
+        <v>3800</v>
+      </c>
+      <c r="W54" s="3">
         <v>3900</v>
-      </c>
-      <c r="W54" s="3">
-        <v>3800</v>
       </c>
       <c r="X54" s="3">
         <v>3800</v>
       </c>
       <c r="Y54" s="3">
+        <v>3800</v>
+      </c>
+      <c r="Z54" s="3">
         <v>3700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>3900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,8 +4187,9 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4123,19 +4254,22 @@
         <v>0</v>
       </c>
       <c r="X57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y57" s="3">
         <v>100</v>
       </c>
       <c r="Z57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4145,8 +4279,8 @@
       <c r="E58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -4158,13 +4292,13 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="K58" s="3">
-        <v>100</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>5</v>
+      <c r="L58" s="3">
+        <v>100</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>5</v>
@@ -4181,8 +4315,8 @@
       <c r="Q58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -4202,61 +4336,64 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-      <c r="Y58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z58" s="3">
-        <v>0</v>
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E59" s="3">
         <v>1200</v>
-      </c>
-      <c r="E59" s="3">
-        <v>1100</v>
       </c>
       <c r="F59" s="3">
         <v>1100</v>
       </c>
       <c r="G59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H59" s="3">
         <v>1000</v>
-      </c>
-      <c r="H59" s="3">
-        <v>900</v>
       </c>
       <c r="I59" s="3">
         <v>900</v>
       </c>
       <c r="J59" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K59" s="3">
         <v>800</v>
       </c>
       <c r="L59" s="3">
+        <v>800</v>
+      </c>
+      <c r="M59" s="3">
         <v>700</v>
-      </c>
-      <c r="M59" s="3">
-        <v>900</v>
       </c>
       <c r="N59" s="3">
         <v>900</v>
       </c>
       <c r="O59" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="P59" s="3">
         <v>800</v>
       </c>
       <c r="Q59" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="R59" s="3">
         <v>900</v>
@@ -4268,7 +4405,7 @@
         <v>900</v>
       </c>
       <c r="U59" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="V59" s="3">
         <v>1000</v>
@@ -4283,54 +4420,57 @@
         <v>1000</v>
       </c>
       <c r="Z59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AA59" s="3">
         <v>1100</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E60" s="3">
         <v>1200</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1100</v>
       </c>
       <c r="F60" s="3">
         <v>1100</v>
       </c>
       <c r="G60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H60" s="3">
         <v>1000</v>
-      </c>
-      <c r="H60" s="3">
-        <v>900</v>
       </c>
       <c r="I60" s="3">
         <v>900</v>
       </c>
       <c r="J60" s="3">
+        <v>900</v>
+      </c>
+      <c r="K60" s="3">
         <v>1100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>700</v>
-      </c>
-      <c r="M60" s="3">
-        <v>900</v>
       </c>
       <c r="N60" s="3">
         <v>900</v>
       </c>
       <c r="O60" s="3">
+        <v>900</v>
+      </c>
+      <c r="P60" s="3">
         <v>800</v>
-      </c>
-      <c r="P60" s="3">
-        <v>900</v>
       </c>
       <c r="Q60" s="3">
         <v>900</v>
@@ -4345,7 +4485,7 @@
         <v>900</v>
       </c>
       <c r="U60" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="V60" s="3">
         <v>1000</v>
@@ -4357,16 +4497,19 @@
         <v>1000</v>
       </c>
       <c r="Y60" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="Z60" s="3">
         <v>1100</v>
       </c>
       <c r="AA60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AB60" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4392,14 +4535,14 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>100</v>
+      </c>
+      <c r="M61" s="3">
         <v>200</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -4442,8 +4585,11 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4457,10 +4603,10 @@
         <v>400</v>
       </c>
       <c r="G62" s="3">
+        <v>400</v>
+      </c>
+      <c r="H62" s="3">
         <v>500</v>
-      </c>
-      <c r="H62" s="3">
-        <v>400</v>
       </c>
       <c r="I62" s="3">
         <v>400</v>
@@ -4481,7 +4627,7 @@
         <v>400</v>
       </c>
       <c r="O62" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="P62" s="3">
         <v>500</v>
@@ -4490,11 +4636,11 @@
         <v>500</v>
       </c>
       <c r="R62" s="3">
+        <v>500</v>
+      </c>
+      <c r="S62" s="3">
         <v>400</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T62" s="3" t="s">
         <v>5</v>
       </c>
@@ -4510,8 +4656,8 @@
       <c r="X62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y62" s="3">
-        <v>0</v>
+      <c r="Y62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Z62" s="3">
         <v>0</v>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,37 +4905,40 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="E66" s="3">
         <v>1600</v>
       </c>
       <c r="F66" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="G66" s="3">
         <v>1500</v>
       </c>
       <c r="H66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I66" s="3">
         <v>1400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1400</v>
-      </c>
-      <c r="L66" s="3">
-        <v>1300</v>
       </c>
       <c r="M66" s="3">
         <v>1300</v>
@@ -4792,7 +4950,7 @@
         <v>1300</v>
       </c>
       <c r="P66" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="Q66" s="3">
         <v>1400</v>
@@ -4801,13 +4959,13 @@
         <v>1400</v>
       </c>
       <c r="S66" s="3">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="T66" s="3">
         <v>900</v>
       </c>
       <c r="U66" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="V66" s="3">
         <v>1000</v>
@@ -4819,16 +4977,19 @@
         <v>1000</v>
       </c>
       <c r="Y66" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="Z66" s="3">
         <v>1100</v>
       </c>
       <c r="AA66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AB66" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,13 +5335,16 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-11300</v>
+        <v>-11200</v>
       </c>
       <c r="E72" s="3">
         <v>-11300</v>
@@ -5179,7 +5353,7 @@
         <v>-11300</v>
       </c>
       <c r="G72" s="3">
-        <v>-11400</v>
+        <v>-11300</v>
       </c>
       <c r="H72" s="3">
         <v>-11400</v>
@@ -5188,61 +5362,64 @@
         <v>-11400</v>
       </c>
       <c r="J72" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-11700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-11600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-11700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-11500</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-11300</v>
       </c>
       <c r="O72" s="3">
         <v>-11300</v>
       </c>
       <c r="P72" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-11400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-11500</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-11300</v>
       </c>
       <c r="S72" s="3">
         <v>-11300</v>
       </c>
       <c r="T72" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="U72" s="3">
         <v>-11400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-11500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-11400</v>
-      </c>
-      <c r="W72" s="3">
-        <v>-11500</v>
       </c>
       <c r="X72" s="3">
         <v>-11500</v>
       </c>
       <c r="Y72" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="Z72" s="3">
         <v>-11600</v>
-      </c>
-      <c r="Z72" s="3">
-        <v>-11500</v>
       </c>
       <c r="AA72" s="3">
         <v>-11500</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3">
+        <v>-11500</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,13 +5655,16 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="E76" s="3">
         <v>2900</v>
@@ -5490,25 +5676,25 @@
         <v>2900</v>
       </c>
       <c r="H76" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="I76" s="3">
         <v>2800</v>
       </c>
       <c r="J76" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K76" s="3">
         <v>2600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2800</v>
-      </c>
-      <c r="N76" s="3">
-        <v>2900</v>
       </c>
       <c r="O76" s="3">
         <v>2900</v>
@@ -5517,40 +5703,43 @@
         <v>2900</v>
       </c>
       <c r="Q76" s="3">
+        <v>2900</v>
+      </c>
+      <c r="R76" s="3">
         <v>2800</v>
-      </c>
-      <c r="R76" s="3">
-        <v>3000</v>
       </c>
       <c r="S76" s="3">
         <v>3000</v>
       </c>
       <c r="T76" s="3">
+        <v>3000</v>
+      </c>
+      <c r="U76" s="3">
         <v>2900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2800</v>
-      </c>
-      <c r="X76" s="3">
-        <v>2700</v>
       </c>
       <c r="Y76" s="3">
         <v>2700</v>
       </c>
       <c r="Z76" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="AA76" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,95 +5815,101 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44804</v>
+      </c>
+      <c r="E80" s="2">
         <v>44712</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44620</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44530</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44439</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44347</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44255</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44165</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44074</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43982</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43890</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43799</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43708</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43616</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43524</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43434</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43343</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43251</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43159</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43069</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42978</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42886</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42794</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42704</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E81" s="3">
         <v>100</v>
@@ -5729,22 +5924,22 @@
         <v>100</v>
       </c>
       <c r="I81" s="3">
+        <v>100</v>
+      </c>
+      <c r="J81" s="3">
         <v>300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
-        <v>100</v>
-      </c>
       <c r="L81" s="3">
+        <v>100</v>
+      </c>
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O81" s="3">
         <v>100</v>
@@ -5759,13 +5954,13 @@
         <v>100</v>
       </c>
       <c r="S81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T81" s="3">
         <v>200</v>
       </c>
       <c r="U81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V81" s="3">
         <v>100</v>
@@ -5783,10 +5978,13 @@
         <v>100</v>
       </c>
       <c r="AA81" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,13 +6490,16 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E89" s="3">
         <v>100</v>
@@ -6291,32 +6508,32 @@
         <v>100</v>
       </c>
       <c r="G89" s="3">
+        <v>100</v>
+      </c>
+      <c r="H89" s="3">
         <v>300</v>
-      </c>
-      <c r="H89" s="3">
-        <v>200</v>
       </c>
       <c r="I89" s="3">
         <v>200</v>
       </c>
       <c r="J89" s="3">
+        <v>200</v>
+      </c>
+      <c r="K89" s="3">
         <v>300</v>
       </c>
-      <c r="K89" s="3">
-        <v>100</v>
-      </c>
       <c r="L89" s="3">
+        <v>100</v>
+      </c>
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
-        <v>100</v>
-      </c>
       <c r="N89" s="3">
+        <v>100</v>
+      </c>
+      <c r="O89" s="3">
         <v>200</v>
       </c>
-      <c r="O89" s="3">
-        <v>100</v>
-      </c>
       <c r="P89" s="3">
         <v>100</v>
       </c>
@@ -6324,37 +6541,40 @@
         <v>100</v>
       </c>
       <c r="R89" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S89" s="3">
         <v>200</v>
       </c>
       <c r="T89" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U89" s="3">
+        <v>100</v>
+      </c>
+      <c r="V89" s="3">
         <v>200</v>
       </c>
-      <c r="V89" s="3">
-        <v>100</v>
-      </c>
       <c r="W89" s="3">
         <v>100</v>
       </c>
       <c r="X89" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y89" s="3">
         <v>200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>200</v>
       </c>
-      <c r="AA89" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,19 +6602,20 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>5</v>
@@ -6411,8 +6632,8 @@
       <c r="K91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -6435,14 +6656,14 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>5</v>
+      <c r="T91" s="3">
+        <v>0</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
+      <c r="V91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W91" s="3">
         <v>0</v>
@@ -6453,14 +6674,17 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-      <c r="Z91" s="3" t="s">
-        <v>5</v>
+      <c r="Z91" s="3">
+        <v>0</v>
       </c>
       <c r="AA91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6690,8 +6920,11 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6743,19 +6977,19 @@
         <v>-100</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-200</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-100</v>
       </c>
       <c r="O96" s="3">
         <v>-100</v>
@@ -6764,10 +6998,10 @@
         <v>-100</v>
       </c>
       <c r="Q96" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R96" s="3">
         <v>-200</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-100</v>
       </c>
       <c r="S96" s="3">
         <v>-100</v>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,8 +7270,11 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7051,19 +7297,19 @@
         <v>-100</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-200</v>
-      </c>
-      <c r="N100" s="3">
-        <v>-100</v>
       </c>
       <c r="O100" s="3">
         <v>-100</v>
@@ -7072,10 +7318,10 @@
         <v>-100</v>
       </c>
       <c r="Q100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R100" s="3">
         <v>-200</v>
-      </c>
-      <c r="R100" s="3">
-        <v>-100</v>
       </c>
       <c r="S100" s="3">
         <v>-100</v>
@@ -7104,8 +7350,11 @@
       <c r="AA100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,56 +7430,59 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F102" s="3">
         <v>100</v>
       </c>
       <c r="G102" s="3">
+        <v>100</v>
+      </c>
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
-        <v>100</v>
-      </c>
       <c r="I102" s="3">
         <v>100</v>
       </c>
       <c r="J102" s="3">
+        <v>100</v>
+      </c>
+      <c r="K102" s="3">
         <v>300</v>
       </c>
-      <c r="K102" s="3">
-        <v>100</v>
-      </c>
       <c r="L102" s="3">
+        <v>100</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
-        <v>100</v>
-      </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
-        <v>100</v>
-      </c>
       <c r="S102" s="3">
         <v>100</v>
       </c>
@@ -7238,7 +7490,7 @@
         <v>100</v>
       </c>
       <c r="U102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V102" s="3">
         <v>0</v>
@@ -7247,15 +7499,18 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z102" s="3">
         <v>-200</v>
       </c>
-      <c r="Z102" s="3">
-        <v>100</v>
-      </c>
       <c r="AA102" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BABB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BABB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="92">
   <si>
     <t>BABB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,139 +665,142 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44895</v>
+      </c>
+      <c r="E7" s="2">
         <v>44804</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44712</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44620</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44530</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44439</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44347</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44255</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44165</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44074</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43982</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43890</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43799</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43708</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43616</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43524</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43434</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43343</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43251</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43159</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43069</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42978</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42886</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42794</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42704</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>800</v>
+      </c>
+      <c r="E8" s="3">
         <v>900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>700</v>
-      </c>
-      <c r="G8" s="3">
-        <v>800</v>
       </c>
       <c r="H8" s="3">
         <v>800</v>
       </c>
       <c r="I8" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="J8" s="3">
         <v>700</v>
@@ -806,16 +809,16 @@
         <v>700</v>
       </c>
       <c r="L8" s="3">
+        <v>700</v>
+      </c>
+      <c r="M8" s="3">
         <v>600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>700</v>
-      </c>
-      <c r="O8" s="3">
-        <v>800</v>
       </c>
       <c r="P8" s="3">
         <v>800</v>
@@ -824,10 +827,10 @@
         <v>800</v>
       </c>
       <c r="R8" s="3">
+        <v>800</v>
+      </c>
+      <c r="S8" s="3">
         <v>700</v>
-      </c>
-      <c r="S8" s="3">
-        <v>600</v>
       </c>
       <c r="T8" s="3">
         <v>600</v>
@@ -836,10 +839,10 @@
         <v>600</v>
       </c>
       <c r="V8" s="3">
+        <v>600</v>
+      </c>
+      <c r="W8" s="3">
         <v>500</v>
-      </c>
-      <c r="W8" s="3">
-        <v>600</v>
       </c>
       <c r="X8" s="3">
         <v>600</v>
@@ -848,16 +851,19 @@
         <v>600</v>
       </c>
       <c r="Z8" s="3">
+        <v>600</v>
+      </c>
+      <c r="AA8" s="3">
         <v>500</v>
-      </c>
-      <c r="AA8" s="3">
-        <v>600</v>
       </c>
       <c r="AB8" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -936,8 +942,11 @@
       <c r="AB9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1016,8 +1025,11 @@
       <c r="AB10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1058,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1126,8 +1139,11 @@
       <c r="AB12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1222,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1230,11 +1249,11 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-200</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1250,8 +1269,8 @@
       <c r="P14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1286,8 +1305,11 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1388,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,8 +1418,9 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1405,37 +1431,37 @@
         <v>700</v>
       </c>
       <c r="F17" s="3">
+        <v>700</v>
+      </c>
+      <c r="G17" s="3">
         <v>600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>700</v>
-      </c>
-      <c r="H17" s="3">
-        <v>600</v>
       </c>
       <c r="I17" s="3">
         <v>600</v>
       </c>
       <c r="J17" s="3">
+        <v>600</v>
+      </c>
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>700</v>
-      </c>
-      <c r="P17" s="3">
-        <v>600</v>
       </c>
       <c r="Q17" s="3">
         <v>600</v>
@@ -1444,10 +1470,10 @@
         <v>600</v>
       </c>
       <c r="S17" s="3">
+        <v>600</v>
+      </c>
+      <c r="T17" s="3">
         <v>500</v>
-      </c>
-      <c r="T17" s="3">
-        <v>400</v>
       </c>
       <c r="U17" s="3">
         <v>400</v>
@@ -1462,28 +1488,31 @@
         <v>400</v>
       </c>
       <c r="Y17" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z17" s="3">
         <v>500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>600</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>100</v>
+      </c>
+      <c r="E18" s="3">
         <v>200</v>
       </c>
-      <c r="E18" s="3">
-        <v>100</v>
-      </c>
       <c r="F18" s="3">
         <v>100</v>
       </c>
@@ -1491,70 +1520,73 @@
         <v>100</v>
       </c>
       <c r="H18" s="3">
+        <v>100</v>
+      </c>
+      <c r="I18" s="3">
         <v>200</v>
       </c>
-      <c r="I18" s="3">
-        <v>100</v>
-      </c>
       <c r="J18" s="3">
+        <v>100</v>
+      </c>
+      <c r="K18" s="3">
         <v>300</v>
       </c>
-      <c r="K18" s="3">
-        <v>100</v>
-      </c>
       <c r="L18" s="3">
         <v>100</v>
       </c>
       <c r="M18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O18" s="3">
         <v>100</v>
       </c>
       <c r="P18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q18" s="3">
         <v>200</v>
       </c>
       <c r="R18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S18" s="3">
         <v>100</v>
       </c>
       <c r="T18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U18" s="3">
         <v>200</v>
       </c>
       <c r="V18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X18" s="3">
         <v>200</v>
       </c>
       <c r="Y18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Z18" s="3">
         <v>100</v>
       </c>
       <c r="AA18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB18" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,8 +1615,9 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1663,8 +1696,11 @@
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1672,7 +1708,7 @@
         <v>200</v>
       </c>
       <c r="E21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F21" s="3">
         <v>100</v>
@@ -1681,35 +1717,35 @@
         <v>100</v>
       </c>
       <c r="H21" s="3">
+        <v>100</v>
+      </c>
+      <c r="I21" s="3">
         <v>200</v>
       </c>
-      <c r="I21" s="3">
-        <v>100</v>
-      </c>
       <c r="J21" s="3">
+        <v>100</v>
+      </c>
+      <c r="K21" s="3">
         <v>400</v>
       </c>
-      <c r="K21" s="3">
-        <v>100</v>
-      </c>
       <c r="L21" s="3">
         <v>100</v>
       </c>
       <c r="M21" s="3">
+        <v>100</v>
+      </c>
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3">
-        <v>100</v>
-      </c>
       <c r="O21" s="3">
         <v>100</v>
       </c>
       <c r="P21" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q21" s="3">
         <v>200</v>
       </c>
-      <c r="Q21" s="3">
-        <v>100</v>
-      </c>
       <c r="R21" s="3">
         <v>100</v>
       </c>
@@ -1717,13 +1753,13 @@
         <v>100</v>
       </c>
       <c r="T21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U21" s="3">
         <v>200</v>
       </c>
       <c r="V21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W21" s="3">
         <v>100</v>
@@ -1741,10 +1777,13 @@
         <v>100</v>
       </c>
       <c r="AB21" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC21" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1799,14 +1838,14 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>5</v>
+      <c r="U22" s="3">
+        <v>0</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
+      <c r="W22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="X22" s="3">
         <v>0</v>
@@ -1823,8 +1862,11 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1832,7 +1874,7 @@
         <v>200</v>
       </c>
       <c r="E23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F23" s="3">
         <v>100</v>
@@ -1841,35 +1883,35 @@
         <v>100</v>
       </c>
       <c r="H23" s="3">
+        <v>100</v>
+      </c>
+      <c r="I23" s="3">
         <v>200</v>
       </c>
-      <c r="I23" s="3">
-        <v>100</v>
-      </c>
       <c r="J23" s="3">
+        <v>100</v>
+      </c>
+      <c r="K23" s="3">
         <v>400</v>
       </c>
-      <c r="K23" s="3">
-        <v>100</v>
-      </c>
       <c r="L23" s="3">
         <v>100</v>
       </c>
       <c r="M23" s="3">
+        <v>100</v>
+      </c>
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
-        <v>100</v>
-      </c>
       <c r="O23" s="3">
         <v>100</v>
       </c>
       <c r="P23" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q23" s="3">
         <v>200</v>
       </c>
-      <c r="Q23" s="3">
-        <v>100</v>
-      </c>
       <c r="R23" s="3">
         <v>100</v>
       </c>
@@ -1877,13 +1919,13 @@
         <v>100</v>
       </c>
       <c r="T23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U23" s="3">
         <v>200</v>
       </c>
       <c r="V23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W23" s="3">
         <v>100</v>
@@ -1901,18 +1943,21 @@
         <v>100</v>
       </c>
       <c r="AB23" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC23" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1921,20 +1966,20 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
@@ -1954,11 +1999,11 @@
         <v>0</v>
       </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>-200</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
       <c r="U24" s="3">
         <v>0</v>
       </c>
@@ -1983,8 +2028,11 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,17 +2111,20 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>100</v>
+      </c>
+      <c r="E26" s="3">
         <v>200</v>
       </c>
-      <c r="E26" s="3">
-        <v>100</v>
-      </c>
       <c r="F26" s="3">
         <v>100</v>
       </c>
@@ -2087,22 +2138,22 @@
         <v>100</v>
       </c>
       <c r="J26" s="3">
+        <v>100</v>
+      </c>
+      <c r="K26" s="3">
         <v>300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
-        <v>100</v>
-      </c>
       <c r="M26" s="3">
+        <v>100</v>
+      </c>
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P26" s="3">
         <v>100</v>
@@ -2114,16 +2165,16 @@
         <v>100</v>
       </c>
       <c r="S26" s="3">
+        <v>100</v>
+      </c>
+      <c r="T26" s="3">
         <v>300</v>
-      </c>
-      <c r="T26" s="3">
-        <v>200</v>
       </c>
       <c r="U26" s="3">
         <v>200</v>
       </c>
       <c r="V26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W26" s="3">
         <v>100</v>
@@ -2141,19 +2192,22 @@
         <v>100</v>
       </c>
       <c r="AB26" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>100</v>
+      </c>
+      <c r="E27" s="3">
         <v>200</v>
       </c>
-      <c r="E27" s="3">
-        <v>100</v>
-      </c>
       <c r="F27" s="3">
         <v>100</v>
       </c>
@@ -2167,22 +2221,22 @@
         <v>100</v>
       </c>
       <c r="J27" s="3">
+        <v>100</v>
+      </c>
+      <c r="K27" s="3">
         <v>300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
-        <v>100</v>
-      </c>
       <c r="M27" s="3">
+        <v>100</v>
+      </c>
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P27" s="3">
         <v>100</v>
@@ -2194,16 +2248,16 @@
         <v>100</v>
       </c>
       <c r="S27" s="3">
+        <v>100</v>
+      </c>
+      <c r="T27" s="3">
         <v>300</v>
-      </c>
-      <c r="T27" s="3">
-        <v>200</v>
       </c>
       <c r="U27" s="3">
         <v>200</v>
       </c>
       <c r="V27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W27" s="3">
         <v>100</v>
@@ -2221,10 +2275,13 @@
         <v>100</v>
       </c>
       <c r="AB27" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2360,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2335,8 +2395,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
@@ -2353,12 +2413,12 @@
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T29" s="3">
         <v>-200</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2374,8 +2434,8 @@
       <c r="Y29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z29" s="3">
-        <v>0</v>
+      <c r="Z29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AA29" s="3">
         <v>0</v>
@@ -2383,8 +2443,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,8 +2609,11 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2623,17 +2692,20 @@
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>100</v>
+      </c>
+      <c r="E33" s="3">
         <v>200</v>
       </c>
-      <c r="E33" s="3">
-        <v>100</v>
-      </c>
       <c r="F33" s="3">
         <v>100</v>
       </c>
@@ -2647,22 +2719,22 @@
         <v>100</v>
       </c>
       <c r="J33" s="3">
+        <v>100</v>
+      </c>
+      <c r="K33" s="3">
         <v>300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
-        <v>100</v>
-      </c>
       <c r="M33" s="3">
+        <v>100</v>
+      </c>
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P33" s="3">
         <v>100</v>
@@ -2677,13 +2749,13 @@
         <v>100</v>
       </c>
       <c r="T33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U33" s="3">
         <v>200</v>
       </c>
       <c r="V33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W33" s="3">
         <v>100</v>
@@ -2701,10 +2773,13 @@
         <v>100</v>
       </c>
       <c r="AB33" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,17 +2858,20 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>100</v>
+      </c>
+      <c r="E35" s="3">
         <v>200</v>
       </c>
-      <c r="E35" s="3">
-        <v>100</v>
-      </c>
       <c r="F35" s="3">
         <v>100</v>
       </c>
@@ -2807,22 +2885,22 @@
         <v>100</v>
       </c>
       <c r="J35" s="3">
+        <v>100</v>
+      </c>
+      <c r="K35" s="3">
         <v>300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
-        <v>100</v>
-      </c>
       <c r="M35" s="3">
+        <v>100</v>
+      </c>
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P35" s="3">
         <v>100</v>
@@ -2837,13 +2915,13 @@
         <v>100</v>
       </c>
       <c r="T35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U35" s="3">
         <v>200</v>
       </c>
       <c r="V35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W35" s="3">
         <v>100</v>
@@ -2861,95 +2939,101 @@
         <v>100</v>
       </c>
       <c r="AB35" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44895</v>
+      </c>
+      <c r="E38" s="2">
         <v>44804</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44712</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44620</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44530</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44439</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44347</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44255</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44165</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44074</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43982</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43890</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43799</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43708</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43616</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43524</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43434</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43343</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43251</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43159</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43069</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42978</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42886</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42794</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42704</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,13 +3093,14 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="E41" s="3">
         <v>1500</v>
@@ -3029,28 +3115,28 @@
         <v>1500</v>
       </c>
       <c r="I41" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J41" s="3">
         <v>1400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1100</v>
-      </c>
-      <c r="P41" s="3">
-        <v>1000</v>
       </c>
       <c r="Q41" s="3">
         <v>1000</v>
@@ -3059,37 +3145,40 @@
         <v>1000</v>
       </c>
       <c r="S41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T41" s="3">
         <v>1100</v>
-      </c>
-      <c r="T41" s="3">
-        <v>900</v>
       </c>
       <c r="U41" s="3">
         <v>900</v>
       </c>
       <c r="V41" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="W41" s="3">
         <v>800</v>
       </c>
       <c r="X41" s="3">
+        <v>800</v>
+      </c>
+      <c r="Y41" s="3">
         <v>700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>900</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,8 +3257,11 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3201,10 +3293,10 @@
         <v>100</v>
       </c>
       <c r="M43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O43" s="3">
         <v>100</v>
@@ -3248,8 +3340,11 @@
       <c r="AB43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3295,11 +3390,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S44" s="3">
-        <v>0</v>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T44" s="3">
         <v>0</v>
@@ -3328,19 +3423,22 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>400</v>
+      </c>
+      <c r="E45" s="3">
         <v>1000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>800</v>
-      </c>
-      <c r="F45" s="3">
-        <v>700</v>
       </c>
       <c r="G45" s="3">
         <v>700</v>
@@ -3349,7 +3447,7 @@
         <v>700</v>
       </c>
       <c r="I45" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="J45" s="3">
         <v>500</v>
@@ -3358,13 +3456,13 @@
         <v>500</v>
       </c>
       <c r="L45" s="3">
+        <v>500</v>
+      </c>
+      <c r="M45" s="3">
         <v>400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>300</v>
-      </c>
-      <c r="N45" s="3">
-        <v>500</v>
       </c>
       <c r="O45" s="3">
         <v>500</v>
@@ -3382,13 +3480,13 @@
         <v>500</v>
       </c>
       <c r="T45" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="U45" s="3">
         <v>700</v>
       </c>
       <c r="V45" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="W45" s="3">
         <v>800</v>
@@ -3397,7 +3495,7 @@
         <v>800</v>
       </c>
       <c r="Y45" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="Z45" s="3">
         <v>700</v>
@@ -3408,96 +3506,102 @@
       <c r="AB45" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E46" s="3">
         <v>2600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2400</v>
-      </c>
-      <c r="F46" s="3">
-        <v>2300</v>
       </c>
       <c r="G46" s="3">
         <v>2300</v>
       </c>
       <c r="H46" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I46" s="3">
         <v>2200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1700</v>
-      </c>
-      <c r="P46" s="3">
-        <v>1600</v>
       </c>
       <c r="Q46" s="3">
         <v>1600</v>
       </c>
       <c r="R46" s="3">
+        <v>1600</v>
+      </c>
+      <c r="S46" s="3">
         <v>1500</v>
-      </c>
-      <c r="S46" s="3">
-        <v>1700</v>
       </c>
       <c r="T46" s="3">
         <v>1700</v>
       </c>
       <c r="U46" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="V46" s="3">
         <v>1600</v>
       </c>
       <c r="W46" s="3">
+        <v>1600</v>
+      </c>
+      <c r="X46" s="3">
         <v>1700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1600</v>
-      </c>
-      <c r="Y46" s="3">
-        <v>1500</v>
       </c>
       <c r="Z46" s="3">
         <v>1500</v>
       </c>
       <c r="AA46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AB46" s="3">
         <v>1700</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
         <v>0</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>5</v>
+      <c r="E47" s="3">
+        <v>0</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>5</v>
@@ -3514,8 +3618,8 @@
       <c r="J47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -3568,13 +3672,16 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E48" s="3">
         <v>200</v>
@@ -3589,7 +3696,7 @@
         <v>200</v>
       </c>
       <c r="I48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J48" s="3">
         <v>300</v>
@@ -3604,7 +3711,7 @@
         <v>300</v>
       </c>
       <c r="N48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="O48" s="3">
         <v>400</v>
@@ -3616,13 +3723,13 @@
         <v>400</v>
       </c>
       <c r="R48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="S48" s="3">
         <v>500</v>
       </c>
       <c r="T48" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="U48" s="3">
         <v>0</v>
@@ -3648,8 +3755,11 @@
       <c r="AB48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3728,8 +3838,11 @@
       <c r="AB49" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,22 +4004,25 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
+      <c r="E52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>5</v>
+      <c r="G52" s="3">
+        <v>0</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>5</v>
@@ -3914,11 +4033,11 @@
       <c r="J52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L52" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M52" s="3">
         <v>200</v>
@@ -3968,8 +4087,11 @@
       <c r="AB52" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,16 +4170,19 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E54" s="3">
         <v>4800</v>
-      </c>
-      <c r="E54" s="3">
-        <v>4500</v>
       </c>
       <c r="F54" s="3">
         <v>4500</v>
@@ -4066,28 +4191,28 @@
         <v>4500</v>
       </c>
       <c r="H54" s="3">
+        <v>4500</v>
+      </c>
+      <c r="I54" s="3">
         <v>4400</v>
-      </c>
-      <c r="I54" s="3">
-        <v>4200</v>
       </c>
       <c r="J54" s="3">
         <v>4200</v>
       </c>
       <c r="K54" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="L54" s="3">
         <v>4100</v>
       </c>
       <c r="M54" s="3">
+        <v>4100</v>
+      </c>
+      <c r="N54" s="3">
         <v>3900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4000</v>
-      </c>
-      <c r="O54" s="3">
-        <v>4200</v>
       </c>
       <c r="P54" s="3">
         <v>4200</v>
@@ -4099,37 +4224,40 @@
         <v>4200</v>
       </c>
       <c r="S54" s="3">
+        <v>4200</v>
+      </c>
+      <c r="T54" s="3">
         <v>4400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3900</v>
-      </c>
-      <c r="U54" s="3">
-        <v>3800</v>
       </c>
       <c r="V54" s="3">
         <v>3800</v>
       </c>
       <c r="W54" s="3">
+        <v>3800</v>
+      </c>
+      <c r="X54" s="3">
         <v>3900</v>
-      </c>
-      <c r="X54" s="3">
-        <v>3800</v>
       </c>
       <c r="Y54" s="3">
         <v>3800</v>
       </c>
       <c r="Z54" s="3">
+        <v>3800</v>
+      </c>
+      <c r="AA54" s="3">
         <v>3700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>3900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,8 +4317,9 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4257,30 +4387,33 @@
         <v>0</v>
       </c>
       <c r="Y57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z57" s="3">
         <v>100</v>
       </c>
       <c r="AA57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>5</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -4295,13 +4428,13 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>200</v>
       </c>
-      <c r="L58" s="3">
-        <v>100</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>5</v>
+      <c r="M58" s="3">
+        <v>100</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>5</v>
@@ -4318,8 +4451,8 @@
       <c r="R58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
+      <c r="S58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
@@ -4339,64 +4472,67 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-      <c r="Z58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA58" s="3">
-        <v>0</v>
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>800</v>
+      </c>
+      <c r="E59" s="3">
         <v>1300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1200</v>
-      </c>
-      <c r="F59" s="3">
-        <v>1100</v>
       </c>
       <c r="G59" s="3">
         <v>1100</v>
       </c>
       <c r="H59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I59" s="3">
         <v>1000</v>
-      </c>
-      <c r="I59" s="3">
-        <v>900</v>
       </c>
       <c r="J59" s="3">
         <v>900</v>
       </c>
       <c r="K59" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L59" s="3">
         <v>800</v>
       </c>
       <c r="M59" s="3">
+        <v>800</v>
+      </c>
+      <c r="N59" s="3">
         <v>700</v>
-      </c>
-      <c r="N59" s="3">
-        <v>900</v>
       </c>
       <c r="O59" s="3">
         <v>900</v>
       </c>
       <c r="P59" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="Q59" s="3">
         <v>800</v>
       </c>
       <c r="R59" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="S59" s="3">
         <v>900</v>
@@ -4408,7 +4544,7 @@
         <v>900</v>
       </c>
       <c r="V59" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="W59" s="3">
         <v>1000</v>
@@ -4423,57 +4559,60 @@
         <v>1000</v>
       </c>
       <c r="AA59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AB59" s="3">
         <v>1100</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>800</v>
+      </c>
+      <c r="E60" s="3">
         <v>1300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1200</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1100</v>
       </c>
       <c r="G60" s="3">
         <v>1100</v>
       </c>
       <c r="H60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I60" s="3">
         <v>1000</v>
-      </c>
-      <c r="I60" s="3">
-        <v>900</v>
       </c>
       <c r="J60" s="3">
         <v>900</v>
       </c>
       <c r="K60" s="3">
+        <v>900</v>
+      </c>
+      <c r="L60" s="3">
         <v>1100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>700</v>
-      </c>
-      <c r="N60" s="3">
-        <v>900</v>
       </c>
       <c r="O60" s="3">
         <v>900</v>
       </c>
       <c r="P60" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q60" s="3">
         <v>800</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>900</v>
       </c>
       <c r="R60" s="3">
         <v>900</v>
@@ -4488,7 +4627,7 @@
         <v>900</v>
       </c>
       <c r="V60" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="W60" s="3">
         <v>1000</v>
@@ -4500,16 +4639,19 @@
         <v>1000</v>
       </c>
       <c r="Z60" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="AA60" s="3">
         <v>1100</v>
       </c>
       <c r="AB60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AC60" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4538,14 +4680,14 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>100</v>
+      </c>
+      <c r="N61" s="3">
         <v>200</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -4588,8 +4730,11 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4606,10 +4751,10 @@
         <v>400</v>
       </c>
       <c r="H62" s="3">
+        <v>400</v>
+      </c>
+      <c r="I62" s="3">
         <v>500</v>
-      </c>
-      <c r="I62" s="3">
-        <v>400</v>
       </c>
       <c r="J62" s="3">
         <v>400</v>
@@ -4630,7 +4775,7 @@
         <v>400</v>
       </c>
       <c r="P62" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q62" s="3">
         <v>500</v>
@@ -4639,11 +4784,11 @@
         <v>500</v>
       </c>
       <c r="S62" s="3">
+        <v>500</v>
+      </c>
+      <c r="T62" s="3">
         <v>400</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U62" s="3" t="s">
         <v>5</v>
       </c>
@@ -4659,8 +4804,8 @@
       <c r="Y62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z62" s="3">
-        <v>0</v>
+      <c r="Z62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AA62" s="3">
         <v>0</v>
@@ -4668,8 +4813,11 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,40 +5062,43 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E66" s="3">
         <v>1700</v>
-      </c>
-      <c r="E66" s="3">
-        <v>1600</v>
       </c>
       <c r="F66" s="3">
         <v>1600</v>
       </c>
       <c r="G66" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="H66" s="3">
         <v>1500</v>
       </c>
       <c r="I66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J66" s="3">
         <v>1400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1400</v>
-      </c>
-      <c r="M66" s="3">
-        <v>1300</v>
       </c>
       <c r="N66" s="3">
         <v>1300</v>
@@ -4953,7 +5110,7 @@
         <v>1300</v>
       </c>
       <c r="Q66" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="R66" s="3">
         <v>1400</v>
@@ -4962,13 +5119,13 @@
         <v>1400</v>
       </c>
       <c r="T66" s="3">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="U66" s="3">
         <v>900</v>
       </c>
       <c r="V66" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="W66" s="3">
         <v>1000</v>
@@ -4980,16 +5137,19 @@
         <v>1000</v>
       </c>
       <c r="Z66" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="AA66" s="3">
         <v>1100</v>
       </c>
       <c r="AB66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AC66" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5342,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,8 +5508,11 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5347,7 +5520,7 @@
         <v>-11200</v>
       </c>
       <c r="E72" s="3">
-        <v>-11300</v>
+        <v>-11200</v>
       </c>
       <c r="F72" s="3">
         <v>-11300</v>
@@ -5356,7 +5529,7 @@
         <v>-11300</v>
       </c>
       <c r="H72" s="3">
-        <v>-11400</v>
+        <v>-11300</v>
       </c>
       <c r="I72" s="3">
         <v>-11400</v>
@@ -5365,61 +5538,64 @@
         <v>-11400</v>
       </c>
       <c r="K72" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="L72" s="3">
         <v>-11700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-11600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-11700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-11500</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-11300</v>
       </c>
       <c r="P72" s="3">
         <v>-11300</v>
       </c>
       <c r="Q72" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="R72" s="3">
         <v>-11400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-11500</v>
-      </c>
-      <c r="S72" s="3">
-        <v>-11300</v>
       </c>
       <c r="T72" s="3">
         <v>-11300</v>
       </c>
       <c r="U72" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="V72" s="3">
         <v>-11400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-11500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-11400</v>
-      </c>
-      <c r="X72" s="3">
-        <v>-11500</v>
       </c>
       <c r="Y72" s="3">
         <v>-11500</v>
       </c>
       <c r="Z72" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="AA72" s="3">
         <v>-11600</v>
-      </c>
-      <c r="AA72" s="3">
-        <v>-11500</v>
       </c>
       <c r="AB72" s="3">
         <v>-11500</v>
       </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC72" s="3">
+        <v>-11500</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,16 +5840,19 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E76" s="3">
         <v>3000</v>
-      </c>
-      <c r="E76" s="3">
-        <v>2900</v>
       </c>
       <c r="F76" s="3">
         <v>2900</v>
@@ -5679,25 +5864,25 @@
         <v>2900</v>
       </c>
       <c r="I76" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="J76" s="3">
         <v>2800</v>
       </c>
       <c r="K76" s="3">
+        <v>2800</v>
+      </c>
+      <c r="L76" s="3">
         <v>2600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2800</v>
-      </c>
-      <c r="O76" s="3">
-        <v>2900</v>
       </c>
       <c r="P76" s="3">
         <v>2900</v>
@@ -5706,40 +5891,43 @@
         <v>2900</v>
       </c>
       <c r="R76" s="3">
+        <v>2900</v>
+      </c>
+      <c r="S76" s="3">
         <v>2800</v>
-      </c>
-      <c r="S76" s="3">
-        <v>3000</v>
       </c>
       <c r="T76" s="3">
         <v>3000</v>
       </c>
       <c r="U76" s="3">
+        <v>3000</v>
+      </c>
+      <c r="V76" s="3">
         <v>2900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2800</v>
-      </c>
-      <c r="Y76" s="3">
-        <v>2700</v>
       </c>
       <c r="Z76" s="3">
         <v>2700</v>
       </c>
       <c r="AA76" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="AB76" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC76" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,102 +6006,108 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44895</v>
+      </c>
+      <c r="E80" s="2">
         <v>44804</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44712</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44620</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44530</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44439</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44347</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44255</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44165</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44074</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43982</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43890</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43799</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43708</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43616</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43524</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43434</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43343</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43251</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43159</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43069</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42978</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42886</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42794</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42704</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>100</v>
+      </c>
+      <c r="E81" s="3">
         <v>200</v>
       </c>
-      <c r="E81" s="3">
-        <v>100</v>
-      </c>
       <c r="F81" s="3">
         <v>100</v>
       </c>
@@ -5927,22 +6121,22 @@
         <v>100</v>
       </c>
       <c r="J81" s="3">
+        <v>100</v>
+      </c>
+      <c r="K81" s="3">
         <v>300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
-        <v>100</v>
-      </c>
       <c r="M81" s="3">
+        <v>100</v>
+      </c>
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P81" s="3">
         <v>100</v>
@@ -5957,13 +6151,13 @@
         <v>100</v>
       </c>
       <c r="T81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U81" s="3">
         <v>200</v>
       </c>
       <c r="V81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W81" s="3">
         <v>100</v>
@@ -5981,10 +6175,13 @@
         <v>100</v>
       </c>
       <c r="AB81" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6210,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6093,8 +6291,11 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,17 +6706,20 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E89" s="3">
         <v>300</v>
       </c>
-      <c r="E89" s="3">
-        <v>100</v>
-      </c>
       <c r="F89" s="3">
         <v>100</v>
       </c>
@@ -6511,32 +6727,32 @@
         <v>100</v>
       </c>
       <c r="H89" s="3">
+        <v>100</v>
+      </c>
+      <c r="I89" s="3">
         <v>300</v>
-      </c>
-      <c r="I89" s="3">
-        <v>200</v>
       </c>
       <c r="J89" s="3">
         <v>200</v>
       </c>
       <c r="K89" s="3">
+        <v>200</v>
+      </c>
+      <c r="L89" s="3">
         <v>300</v>
       </c>
-      <c r="L89" s="3">
-        <v>100</v>
-      </c>
       <c r="M89" s="3">
+        <v>100</v>
+      </c>
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
-        <v>100</v>
-      </c>
       <c r="O89" s="3">
+        <v>100</v>
+      </c>
+      <c r="P89" s="3">
         <v>200</v>
       </c>
-      <c r="P89" s="3">
-        <v>100</v>
-      </c>
       <c r="Q89" s="3">
         <v>100</v>
       </c>
@@ -6544,37 +6760,40 @@
         <v>100</v>
       </c>
       <c r="S89" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T89" s="3">
         <v>200</v>
       </c>
       <c r="U89" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V89" s="3">
+        <v>100</v>
+      </c>
+      <c r="W89" s="3">
         <v>200</v>
       </c>
-      <c r="W89" s="3">
-        <v>100</v>
-      </c>
       <c r="X89" s="3">
         <v>100</v>
       </c>
       <c r="Y89" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z89" s="3">
         <v>200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>200</v>
       </c>
-      <c r="AB89" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,25 +6822,26 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>5</v>
@@ -6635,8 +6855,8 @@
       <c r="L91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -6659,14 +6879,14 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>5</v>
+      <c r="U91" s="3">
+        <v>0</v>
       </c>
       <c r="V91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
+      <c r="W91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="X91" s="3">
         <v>0</v>
@@ -6677,14 +6897,17 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-      <c r="AA91" s="3" t="s">
-        <v>5</v>
+      <c r="AA91" s="3">
+        <v>0</v>
       </c>
       <c r="AB91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,8 +7069,11 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6923,8 +7152,11 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7185,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6980,19 +7213,19 @@
         <v>-100</v>
       </c>
       <c r="K96" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-200</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-100</v>
       </c>
       <c r="P96" s="3">
         <v>-100</v>
@@ -7001,10 +7234,10 @@
         <v>-100</v>
       </c>
       <c r="R96" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S96" s="3">
         <v>-200</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-100</v>
       </c>
       <c r="T96" s="3">
         <v>-100</v>
@@ -7033,8 +7266,11 @@
       <c r="AB96" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,8 +7515,11 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7300,19 +7545,19 @@
         <v>-100</v>
       </c>
       <c r="K100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-200</v>
-      </c>
-      <c r="O100" s="3">
-        <v>-100</v>
       </c>
       <c r="P100" s="3">
         <v>-100</v>
@@ -7321,10 +7566,10 @@
         <v>-100</v>
       </c>
       <c r="R100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S100" s="3">
         <v>-200</v>
-      </c>
-      <c r="S100" s="3">
-        <v>-100</v>
       </c>
       <c r="T100" s="3">
         <v>-100</v>
@@ -7353,8 +7598,11 @@
       <c r="AB100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,59 +7681,62 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3">
         <v>100</v>
       </c>
       <c r="H102" s="3">
+        <v>100</v>
+      </c>
+      <c r="I102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
-        <v>100</v>
-      </c>
       <c r="J102" s="3">
         <v>100</v>
       </c>
       <c r="K102" s="3">
+        <v>100</v>
+      </c>
+      <c r="L102" s="3">
         <v>300</v>
       </c>
-      <c r="L102" s="3">
-        <v>100</v>
-      </c>
       <c r="M102" s="3">
+        <v>100</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
-        <v>100</v>
-      </c>
       <c r="P102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
-        <v>100</v>
-      </c>
       <c r="T102" s="3">
         <v>100</v>
       </c>
@@ -7493,7 +7744,7 @@
         <v>100</v>
       </c>
       <c r="V102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W102" s="3">
         <v>0</v>
@@ -7502,15 +7753,18 @@
         <v>0</v>
       </c>
       <c r="Y102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z102" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA102" s="3">
         <v>-200</v>
       </c>
-      <c r="AA102" s="3">
-        <v>100</v>
-      </c>
       <c r="AB102" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BABB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BABB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="92">
   <si>
     <t>BABB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,145 +665,149 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44985</v>
+      </c>
+      <c r="E7" s="2">
         <v>44895</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44804</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44712</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44620</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44530</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44439</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44347</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44255</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44165</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44074</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43982</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43890</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43799</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43708</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43616</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43524</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43434</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43343</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43251</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43159</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43069</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42978</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42886</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42794</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42704</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>700</v>
+      </c>
+      <c r="E8" s="3">
         <v>800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>700</v>
-      </c>
-      <c r="H8" s="3">
-        <v>800</v>
       </c>
       <c r="I8" s="3">
         <v>800</v>
       </c>
       <c r="J8" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K8" s="3">
         <v>700</v>
@@ -812,16 +816,16 @@
         <v>700</v>
       </c>
       <c r="M8" s="3">
+        <v>700</v>
+      </c>
+      <c r="N8" s="3">
         <v>600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>700</v>
-      </c>
-      <c r="P8" s="3">
-        <v>800</v>
       </c>
       <c r="Q8" s="3">
         <v>800</v>
@@ -830,10 +834,10 @@
         <v>800</v>
       </c>
       <c r="S8" s="3">
+        <v>800</v>
+      </c>
+      <c r="T8" s="3">
         <v>700</v>
-      </c>
-      <c r="T8" s="3">
-        <v>600</v>
       </c>
       <c r="U8" s="3">
         <v>600</v>
@@ -842,10 +846,10 @@
         <v>600</v>
       </c>
       <c r="W8" s="3">
+        <v>600</v>
+      </c>
+      <c r="X8" s="3">
         <v>500</v>
-      </c>
-      <c r="X8" s="3">
-        <v>600</v>
       </c>
       <c r="Y8" s="3">
         <v>600</v>
@@ -854,16 +858,19 @@
         <v>600</v>
       </c>
       <c r="AA8" s="3">
+        <v>600</v>
+      </c>
+      <c r="AB8" s="3">
         <v>500</v>
-      </c>
-      <c r="AB8" s="3">
-        <v>600</v>
       </c>
       <c r="AC8" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -945,8 +952,11 @@
       <c r="AC9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1028,8 +1038,11 @@
       <c r="AC10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1072,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1142,8 +1156,11 @@
       <c r="AC12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,13 +1242,16 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1252,11 +1272,11 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-200</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1272,8 +1292,8 @@
       <c r="Q14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1308,8 +1328,11 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1391,8 +1414,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,8 +1445,9 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1434,37 +1461,37 @@
         <v>700</v>
       </c>
       <c r="G17" s="3">
+        <v>700</v>
+      </c>
+      <c r="H17" s="3">
         <v>600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>700</v>
-      </c>
-      <c r="I17" s="3">
-        <v>600</v>
       </c>
       <c r="J17" s="3">
         <v>600</v>
       </c>
       <c r="K17" s="3">
+        <v>600</v>
+      </c>
+      <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>700</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>600</v>
       </c>
       <c r="R17" s="3">
         <v>600</v>
@@ -1473,10 +1500,10 @@
         <v>600</v>
       </c>
       <c r="T17" s="3">
+        <v>600</v>
+      </c>
+      <c r="U17" s="3">
         <v>500</v>
-      </c>
-      <c r="U17" s="3">
-        <v>400</v>
       </c>
       <c r="V17" s="3">
         <v>400</v>
@@ -1491,31 +1518,34 @@
         <v>400</v>
       </c>
       <c r="Z17" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA17" s="3">
         <v>500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>400</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>600</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E18" s="3">
+        <v>100</v>
+      </c>
+      <c r="F18" s="3">
         <v>200</v>
       </c>
-      <c r="F18" s="3">
-        <v>100</v>
-      </c>
       <c r="G18" s="3">
         <v>100</v>
       </c>
@@ -1523,70 +1553,73 @@
         <v>100</v>
       </c>
       <c r="I18" s="3">
+        <v>100</v>
+      </c>
+      <c r="J18" s="3">
         <v>200</v>
       </c>
-      <c r="J18" s="3">
-        <v>100</v>
-      </c>
       <c r="K18" s="3">
+        <v>100</v>
+      </c>
+      <c r="L18" s="3">
         <v>300</v>
       </c>
-      <c r="L18" s="3">
-        <v>100</v>
-      </c>
       <c r="M18" s="3">
         <v>100</v>
       </c>
       <c r="N18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P18" s="3">
         <v>100</v>
       </c>
       <c r="Q18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R18" s="3">
         <v>200</v>
       </c>
       <c r="S18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T18" s="3">
         <v>100</v>
       </c>
       <c r="U18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V18" s="3">
         <v>200</v>
       </c>
       <c r="W18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y18" s="3">
         <v>200</v>
       </c>
       <c r="Z18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AA18" s="3">
         <v>100</v>
       </c>
       <c r="AB18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC18" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,8 +1649,9 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1699,19 +1733,22 @@
       <c r="AC20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E21" s="3">
         <v>200</v>
       </c>
       <c r="F21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G21" s="3">
         <v>100</v>
@@ -1720,35 +1757,35 @@
         <v>100</v>
       </c>
       <c r="I21" s="3">
+        <v>100</v>
+      </c>
+      <c r="J21" s="3">
         <v>200</v>
       </c>
-      <c r="J21" s="3">
-        <v>100</v>
-      </c>
       <c r="K21" s="3">
+        <v>100</v>
+      </c>
+      <c r="L21" s="3">
         <v>400</v>
       </c>
-      <c r="L21" s="3">
-        <v>100</v>
-      </c>
       <c r="M21" s="3">
         <v>100</v>
       </c>
       <c r="N21" s="3">
+        <v>100</v>
+      </c>
+      <c r="O21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3">
-        <v>100</v>
-      </c>
       <c r="P21" s="3">
         <v>100</v>
       </c>
       <c r="Q21" s="3">
+        <v>100</v>
+      </c>
+      <c r="R21" s="3">
         <v>200</v>
       </c>
-      <c r="R21" s="3">
-        <v>100</v>
-      </c>
       <c r="S21" s="3">
         <v>100</v>
       </c>
@@ -1756,13 +1793,13 @@
         <v>100</v>
       </c>
       <c r="U21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V21" s="3">
         <v>200</v>
       </c>
       <c r="W21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X21" s="3">
         <v>100</v>
@@ -1780,10 +1817,13 @@
         <v>100</v>
       </c>
       <c r="AC21" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD21" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1841,14 +1881,14 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>5</v>
+      <c r="V22" s="3">
+        <v>0</v>
       </c>
       <c r="W22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X22" s="3">
-        <v>0</v>
+      <c r="X22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y22" s="3">
         <v>0</v>
@@ -1865,19 +1905,22 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3">
         <v>200</v>
       </c>
       <c r="F23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G23" s="3">
         <v>100</v>
@@ -1886,35 +1929,35 @@
         <v>100</v>
       </c>
       <c r="I23" s="3">
+        <v>100</v>
+      </c>
+      <c r="J23" s="3">
         <v>200</v>
       </c>
-      <c r="J23" s="3">
-        <v>100</v>
-      </c>
       <c r="K23" s="3">
+        <v>100</v>
+      </c>
+      <c r="L23" s="3">
         <v>400</v>
       </c>
-      <c r="L23" s="3">
-        <v>100</v>
-      </c>
       <c r="M23" s="3">
         <v>100</v>
       </c>
       <c r="N23" s="3">
+        <v>100</v>
+      </c>
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
-        <v>100</v>
-      </c>
       <c r="P23" s="3">
         <v>100</v>
       </c>
       <c r="Q23" s="3">
+        <v>100</v>
+      </c>
+      <c r="R23" s="3">
         <v>200</v>
       </c>
-      <c r="R23" s="3">
-        <v>100</v>
-      </c>
       <c r="S23" s="3">
         <v>100</v>
       </c>
@@ -1922,13 +1965,13 @@
         <v>100</v>
       </c>
       <c r="U23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V23" s="3">
         <v>200</v>
       </c>
       <c r="W23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X23" s="3">
         <v>100</v>
@@ -1946,10 +1989,13 @@
         <v>100</v>
       </c>
       <c r="AC23" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD23" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1957,10 +2003,10 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -1969,20 +2015,20 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
@@ -2002,11 +2048,11 @@
         <v>0</v>
       </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>-200</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
       <c r="V24" s="3">
         <v>0</v>
       </c>
@@ -2031,8 +2077,11 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,20 +2163,23 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3">
+        <v>100</v>
+      </c>
+      <c r="F26" s="3">
         <v>200</v>
       </c>
-      <c r="F26" s="3">
-        <v>100</v>
-      </c>
       <c r="G26" s="3">
         <v>100</v>
       </c>
@@ -2141,22 +2193,22 @@
         <v>100</v>
       </c>
       <c r="K26" s="3">
+        <v>100</v>
+      </c>
+      <c r="L26" s="3">
         <v>300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
-        <v>100</v>
-      </c>
       <c r="N26" s="3">
+        <v>100</v>
+      </c>
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="3">
         <v>100</v>
@@ -2168,16 +2220,16 @@
         <v>100</v>
       </c>
       <c r="T26" s="3">
+        <v>100</v>
+      </c>
+      <c r="U26" s="3">
         <v>300</v>
-      </c>
-      <c r="U26" s="3">
-        <v>200</v>
       </c>
       <c r="V26" s="3">
         <v>200</v>
       </c>
       <c r="W26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X26" s="3">
         <v>100</v>
@@ -2195,22 +2247,25 @@
         <v>100</v>
       </c>
       <c r="AC26" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E27" s="3">
+        <v>100</v>
+      </c>
+      <c r="F27" s="3">
         <v>200</v>
       </c>
-      <c r="F27" s="3">
-        <v>100</v>
-      </c>
       <c r="G27" s="3">
         <v>100</v>
       </c>
@@ -2224,22 +2279,22 @@
         <v>100</v>
       </c>
       <c r="K27" s="3">
+        <v>100</v>
+      </c>
+      <c r="L27" s="3">
         <v>300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
-        <v>100</v>
-      </c>
       <c r="N27" s="3">
+        <v>100</v>
+      </c>
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="3">
         <v>100</v>
@@ -2251,16 +2306,16 @@
         <v>100</v>
       </c>
       <c r="T27" s="3">
+        <v>100</v>
+      </c>
+      <c r="U27" s="3">
         <v>300</v>
-      </c>
-      <c r="U27" s="3">
-        <v>200</v>
       </c>
       <c r="V27" s="3">
         <v>200</v>
       </c>
       <c r="W27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X27" s="3">
         <v>100</v>
@@ -2278,10 +2333,13 @@
         <v>100</v>
       </c>
       <c r="AC27" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2421,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2398,8 +2459,8 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
@@ -2416,12 +2477,12 @@
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U29" s="3">
         <v>-200</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2437,8 +2498,8 @@
       <c r="Z29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AA29" s="3">
-        <v>0</v>
+      <c r="AA29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AB29" s="3">
         <v>0</v>
@@ -2446,8 +2507,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,8 +2679,11 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2695,20 +2765,23 @@
       <c r="AC32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E33" s="3">
+        <v>100</v>
+      </c>
+      <c r="F33" s="3">
         <v>200</v>
       </c>
-      <c r="F33" s="3">
-        <v>100</v>
-      </c>
       <c r="G33" s="3">
         <v>100</v>
       </c>
@@ -2722,22 +2795,22 @@
         <v>100</v>
       </c>
       <c r="K33" s="3">
+        <v>100</v>
+      </c>
+      <c r="L33" s="3">
         <v>300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
-        <v>100</v>
-      </c>
       <c r="N33" s="3">
+        <v>100</v>
+      </c>
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="3">
         <v>100</v>
@@ -2752,13 +2825,13 @@
         <v>100</v>
       </c>
       <c r="U33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V33" s="3">
         <v>200</v>
       </c>
       <c r="W33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X33" s="3">
         <v>100</v>
@@ -2776,10 +2849,13 @@
         <v>100</v>
       </c>
       <c r="AC33" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,20 +2937,23 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E35" s="3">
+        <v>100</v>
+      </c>
+      <c r="F35" s="3">
         <v>200</v>
       </c>
-      <c r="F35" s="3">
-        <v>100</v>
-      </c>
       <c r="G35" s="3">
         <v>100</v>
       </c>
@@ -2888,22 +2967,22 @@
         <v>100</v>
       </c>
       <c r="K35" s="3">
+        <v>100</v>
+      </c>
+      <c r="L35" s="3">
         <v>300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
-        <v>100</v>
-      </c>
       <c r="N35" s="3">
+        <v>100</v>
+      </c>
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="3">
         <v>100</v>
@@ -2918,13 +2997,13 @@
         <v>100</v>
       </c>
       <c r="U35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V35" s="3">
         <v>200</v>
       </c>
       <c r="W35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X35" s="3">
         <v>100</v>
@@ -2942,98 +3021,104 @@
         <v>100</v>
       </c>
       <c r="AC35" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44985</v>
+      </c>
+      <c r="E38" s="2">
         <v>44895</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44804</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44712</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44620</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44530</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44439</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44347</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44255</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44165</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44074</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43982</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43890</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43799</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43708</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43616</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43524</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43434</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43343</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43251</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43159</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43069</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42978</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42886</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42794</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42704</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,8 +3180,9 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3103,7 +3190,7 @@
         <v>1600</v>
       </c>
       <c r="E41" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="F41" s="3">
         <v>1500</v>
@@ -3118,28 +3205,28 @@
         <v>1500</v>
       </c>
       <c r="J41" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K41" s="3">
         <v>1400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1100</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>1000</v>
       </c>
       <c r="R41" s="3">
         <v>1000</v>
@@ -3148,37 +3235,40 @@
         <v>1000</v>
       </c>
       <c r="T41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U41" s="3">
         <v>1100</v>
-      </c>
-      <c r="U41" s="3">
-        <v>900</v>
       </c>
       <c r="V41" s="3">
         <v>900</v>
       </c>
       <c r="W41" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="X41" s="3">
         <v>800</v>
       </c>
       <c r="Y41" s="3">
+        <v>800</v>
+      </c>
+      <c r="Z41" s="3">
         <v>700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>900</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3260,8 +3350,11 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3296,10 +3389,10 @@
         <v>100</v>
       </c>
       <c r="N43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P43" s="3">
         <v>100</v>
@@ -3343,8 +3436,11 @@
       <c r="AC43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3393,11 +3489,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T44" s="3">
-        <v>0</v>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U44" s="3">
         <v>0</v>
@@ -3426,22 +3522,25 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>500</v>
+      </c>
+      <c r="E45" s="3">
         <v>400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>800</v>
-      </c>
-      <c r="G45" s="3">
-        <v>700</v>
       </c>
       <c r="H45" s="3">
         <v>700</v>
@@ -3450,7 +3549,7 @@
         <v>700</v>
       </c>
       <c r="J45" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K45" s="3">
         <v>500</v>
@@ -3459,13 +3558,13 @@
         <v>500</v>
       </c>
       <c r="M45" s="3">
+        <v>500</v>
+      </c>
+      <c r="N45" s="3">
         <v>400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>300</v>
-      </c>
-      <c r="O45" s="3">
-        <v>500</v>
       </c>
       <c r="P45" s="3">
         <v>500</v>
@@ -3483,13 +3582,13 @@
         <v>500</v>
       </c>
       <c r="U45" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="V45" s="3">
         <v>700</v>
       </c>
       <c r="W45" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="X45" s="3">
         <v>800</v>
@@ -3498,7 +3597,7 @@
         <v>800</v>
       </c>
       <c r="Z45" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AA45" s="3">
         <v>700</v>
@@ -3509,8 +3608,11 @@
       <c r="AC45" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3518,82 +3620,85 @@
         <v>2200</v>
       </c>
       <c r="E46" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F46" s="3">
         <v>2600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2400</v>
-      </c>
-      <c r="G46" s="3">
-        <v>2300</v>
       </c>
       <c r="H46" s="3">
         <v>2300</v>
       </c>
       <c r="I46" s="3">
+        <v>2300</v>
+      </c>
+      <c r="J46" s="3">
         <v>2200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1700</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>1600</v>
       </c>
       <c r="R46" s="3">
         <v>1600</v>
       </c>
       <c r="S46" s="3">
+        <v>1600</v>
+      </c>
+      <c r="T46" s="3">
         <v>1500</v>
-      </c>
-      <c r="T46" s="3">
-        <v>1700</v>
       </c>
       <c r="U46" s="3">
         <v>1700</v>
       </c>
       <c r="V46" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="W46" s="3">
         <v>1600</v>
       </c>
       <c r="X46" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Y46" s="3">
         <v>1700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1600</v>
-      </c>
-      <c r="Z46" s="3">
-        <v>1500</v>
       </c>
       <c r="AA46" s="3">
         <v>1500</v>
       </c>
       <c r="AB46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AC46" s="3">
         <v>1700</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3603,8 +3708,8 @@
       <c r="E47" s="3">
         <v>0</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>5</v>
+      <c r="F47" s="3">
+        <v>0</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>5</v>
@@ -3621,8 +3726,8 @@
       <c r="K47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -3675,8 +3780,11 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3684,7 +3792,7 @@
         <v>100</v>
       </c>
       <c r="E48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F48" s="3">
         <v>200</v>
@@ -3699,7 +3807,7 @@
         <v>200</v>
       </c>
       <c r="J48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K48" s="3">
         <v>300</v>
@@ -3714,7 +3822,7 @@
         <v>300</v>
       </c>
       <c r="O48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="P48" s="3">
         <v>400</v>
@@ -3726,13 +3834,13 @@
         <v>400</v>
       </c>
       <c r="S48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="T48" s="3">
         <v>500</v>
       </c>
       <c r="U48" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="V48" s="3">
         <v>0</v>
@@ -3758,8 +3866,11 @@
       <c r="AC48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3841,8 +3952,11 @@
       <c r="AC49" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,8 +4124,11 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4018,14 +4138,14 @@
       <c r="E52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
+      <c r="F52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>5</v>
+      <c r="H52" s="3">
+        <v>0</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>5</v>
@@ -4036,11 +4156,11 @@
       <c r="K52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M52" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N52" s="3">
         <v>200</v>
@@ -4090,8 +4210,11 @@
       <c r="AC52" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,8 +4296,11 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4182,10 +4308,10 @@
         <v>4300</v>
       </c>
       <c r="E54" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F54" s="3">
         <v>4800</v>
-      </c>
-      <c r="F54" s="3">
-        <v>4500</v>
       </c>
       <c r="G54" s="3">
         <v>4500</v>
@@ -4194,28 +4320,28 @@
         <v>4500</v>
       </c>
       <c r="I54" s="3">
+        <v>4500</v>
+      </c>
+      <c r="J54" s="3">
         <v>4400</v>
-      </c>
-      <c r="J54" s="3">
-        <v>4200</v>
       </c>
       <c r="K54" s="3">
         <v>4200</v>
       </c>
       <c r="L54" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="M54" s="3">
         <v>4100</v>
       </c>
       <c r="N54" s="3">
+        <v>4100</v>
+      </c>
+      <c r="O54" s="3">
         <v>3900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4000</v>
-      </c>
-      <c r="P54" s="3">
-        <v>4200</v>
       </c>
       <c r="Q54" s="3">
         <v>4200</v>
@@ -4227,37 +4353,40 @@
         <v>4200</v>
       </c>
       <c r="T54" s="3">
+        <v>4200</v>
+      </c>
+      <c r="U54" s="3">
         <v>4400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3900</v>
-      </c>
-      <c r="V54" s="3">
-        <v>3800</v>
       </c>
       <c r="W54" s="3">
         <v>3800</v>
       </c>
       <c r="X54" s="3">
+        <v>3800</v>
+      </c>
+      <c r="Y54" s="3">
         <v>3900</v>
-      </c>
-      <c r="Y54" s="3">
-        <v>3800</v>
       </c>
       <c r="Z54" s="3">
         <v>3800</v>
       </c>
       <c r="AA54" s="3">
+        <v>3800</v>
+      </c>
+      <c r="AB54" s="3">
         <v>3700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>3900</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,8 +4448,9 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4390,19 +4521,22 @@
         <v>0</v>
       </c>
       <c r="Z57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA57" s="3">
         <v>100</v>
       </c>
       <c r="AB57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4431,13 +4565,13 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>200</v>
       </c>
-      <c r="M58" s="3">
-        <v>100</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>5</v>
+      <c r="N58" s="3">
+        <v>100</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>5</v>
@@ -4454,8 +4588,8 @@
       <c r="S58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
+      <c r="T58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U58" s="3">
         <v>0</v>
@@ -4475,67 +4609,70 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-      <c r="AA58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB58" s="3">
-        <v>0</v>
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>900</v>
+      </c>
+      <c r="E59" s="3">
         <v>800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1200</v>
-      </c>
-      <c r="G59" s="3">
-        <v>1100</v>
       </c>
       <c r="H59" s="3">
         <v>1100</v>
       </c>
       <c r="I59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J59" s="3">
         <v>1000</v>
-      </c>
-      <c r="J59" s="3">
-        <v>900</v>
       </c>
       <c r="K59" s="3">
         <v>900</v>
       </c>
       <c r="L59" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M59" s="3">
         <v>800</v>
       </c>
       <c r="N59" s="3">
+        <v>800</v>
+      </c>
+      <c r="O59" s="3">
         <v>700</v>
-      </c>
-      <c r="O59" s="3">
-        <v>900</v>
       </c>
       <c r="P59" s="3">
         <v>900</v>
       </c>
       <c r="Q59" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="R59" s="3">
         <v>800</v>
       </c>
       <c r="S59" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T59" s="3">
         <v>900</v>
@@ -4547,7 +4684,7 @@
         <v>900</v>
       </c>
       <c r="W59" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="X59" s="3">
         <v>1000</v>
@@ -4562,60 +4699,63 @@
         <v>1000</v>
       </c>
       <c r="AB59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AC59" s="3">
         <v>1100</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>900</v>
+      </c>
+      <c r="E60" s="3">
         <v>800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1200</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1100</v>
       </c>
       <c r="H60" s="3">
         <v>1100</v>
       </c>
       <c r="I60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J60" s="3">
         <v>1000</v>
-      </c>
-      <c r="J60" s="3">
-        <v>900</v>
       </c>
       <c r="K60" s="3">
         <v>900</v>
       </c>
       <c r="L60" s="3">
+        <v>900</v>
+      </c>
+      <c r="M60" s="3">
         <v>1100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>700</v>
-      </c>
-      <c r="O60" s="3">
-        <v>900</v>
       </c>
       <c r="P60" s="3">
         <v>900</v>
       </c>
       <c r="Q60" s="3">
+        <v>900</v>
+      </c>
+      <c r="R60" s="3">
         <v>800</v>
-      </c>
-      <c r="R60" s="3">
-        <v>900</v>
       </c>
       <c r="S60" s="3">
         <v>900</v>
@@ -4630,7 +4770,7 @@
         <v>900</v>
       </c>
       <c r="W60" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="X60" s="3">
         <v>1000</v>
@@ -4642,16 +4782,19 @@
         <v>1000</v>
       </c>
       <c r="AA60" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="AB60" s="3">
         <v>1100</v>
       </c>
       <c r="AC60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AD60" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4683,14 +4826,14 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>100</v>
+      </c>
+      <c r="O61" s="3">
         <v>200</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -4733,8 +4876,11 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4754,10 +4900,10 @@
         <v>400</v>
       </c>
       <c r="I62" s="3">
+        <v>400</v>
+      </c>
+      <c r="J62" s="3">
         <v>500</v>
-      </c>
-      <c r="J62" s="3">
-        <v>400</v>
       </c>
       <c r="K62" s="3">
         <v>400</v>
@@ -4778,7 +4924,7 @@
         <v>400</v>
       </c>
       <c r="Q62" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="R62" s="3">
         <v>500</v>
@@ -4787,11 +4933,11 @@
         <v>500</v>
       </c>
       <c r="T62" s="3">
+        <v>500</v>
+      </c>
+      <c r="U62" s="3">
         <v>400</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V62" s="3" t="s">
         <v>5</v>
       </c>
@@ -4807,8 +4953,8 @@
       <c r="Z62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AA62" s="3">
-        <v>0</v>
+      <c r="AA62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AB62" s="3">
         <v>0</v>
@@ -4816,8 +4962,11 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,43 +5220,46 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E66" s="3">
         <v>1200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1700</v>
-      </c>
-      <c r="F66" s="3">
-        <v>1600</v>
       </c>
       <c r="G66" s="3">
         <v>1600</v>
       </c>
       <c r="H66" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="I66" s="3">
         <v>1500</v>
       </c>
       <c r="J66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K66" s="3">
         <v>1400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1400</v>
-      </c>
-      <c r="N66" s="3">
-        <v>1300</v>
       </c>
       <c r="O66" s="3">
         <v>1300</v>
@@ -5113,7 +5271,7 @@
         <v>1300</v>
       </c>
       <c r="R66" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="S66" s="3">
         <v>1400</v>
@@ -5122,13 +5280,13 @@
         <v>1400</v>
       </c>
       <c r="U66" s="3">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="V66" s="3">
         <v>900</v>
       </c>
       <c r="W66" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="X66" s="3">
         <v>1000</v>
@@ -5140,16 +5298,19 @@
         <v>1000</v>
       </c>
       <c r="AA66" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="AB66" s="3">
         <v>1100</v>
       </c>
       <c r="AC66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AD66" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5510,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5596,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,19 +5682,22 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-11200</v>
+        <v>-11300</v>
       </c>
       <c r="E72" s="3">
         <v>-11200</v>
       </c>
       <c r="F72" s="3">
-        <v>-11300</v>
+        <v>-11200</v>
       </c>
       <c r="G72" s="3">
         <v>-11300</v>
@@ -5532,7 +5706,7 @@
         <v>-11300</v>
       </c>
       <c r="I72" s="3">
-        <v>-11400</v>
+        <v>-11300</v>
       </c>
       <c r="J72" s="3">
         <v>-11400</v>
@@ -5541,61 +5715,64 @@
         <v>-11400</v>
       </c>
       <c r="L72" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="M72" s="3">
         <v>-11700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-11600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-11700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-11500</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-11300</v>
       </c>
       <c r="Q72" s="3">
         <v>-11300</v>
       </c>
       <c r="R72" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="S72" s="3">
         <v>-11400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-11500</v>
-      </c>
-      <c r="T72" s="3">
-        <v>-11300</v>
       </c>
       <c r="U72" s="3">
         <v>-11300</v>
       </c>
       <c r="V72" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="W72" s="3">
         <v>-11400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-11500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-11400</v>
-      </c>
-      <c r="Y72" s="3">
-        <v>-11500</v>
       </c>
       <c r="Z72" s="3">
         <v>-11500</v>
       </c>
       <c r="AA72" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="AB72" s="3">
         <v>-11600</v>
-      </c>
-      <c r="AB72" s="3">
-        <v>-11500</v>
       </c>
       <c r="AC72" s="3">
         <v>-11500</v>
       </c>
-    </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD72" s="3">
+        <v>-11500</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,19 +6026,22 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E76" s="3">
         <v>3100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3000</v>
-      </c>
-      <c r="F76" s="3">
-        <v>2900</v>
       </c>
       <c r="G76" s="3">
         <v>2900</v>
@@ -5867,25 +6053,25 @@
         <v>2900</v>
       </c>
       <c r="J76" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="K76" s="3">
         <v>2800</v>
       </c>
       <c r="L76" s="3">
+        <v>2800</v>
+      </c>
+      <c r="M76" s="3">
         <v>2600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2800</v>
-      </c>
-      <c r="P76" s="3">
-        <v>2900</v>
       </c>
       <c r="Q76" s="3">
         <v>2900</v>
@@ -5894,40 +6080,43 @@
         <v>2900</v>
       </c>
       <c r="S76" s="3">
+        <v>2900</v>
+      </c>
+      <c r="T76" s="3">
         <v>2800</v>
-      </c>
-      <c r="T76" s="3">
-        <v>3000</v>
       </c>
       <c r="U76" s="3">
         <v>3000</v>
       </c>
       <c r="V76" s="3">
+        <v>3000</v>
+      </c>
+      <c r="W76" s="3">
         <v>2900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2800</v>
-      </c>
-      <c r="Z76" s="3">
-        <v>2700</v>
       </c>
       <c r="AA76" s="3">
         <v>2700</v>
       </c>
       <c r="AB76" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="AC76" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD76" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,108 +6198,114 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44985</v>
+      </c>
+      <c r="E80" s="2">
         <v>44895</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44804</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44712</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44620</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44530</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44439</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44347</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44255</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44165</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44074</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43982</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43890</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43799</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43708</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43616</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43524</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43434</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43343</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43251</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43159</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43069</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42978</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42886</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42794</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42704</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E81" s="3">
+        <v>100</v>
+      </c>
+      <c r="F81" s="3">
         <v>200</v>
       </c>
-      <c r="F81" s="3">
-        <v>100</v>
-      </c>
       <c r="G81" s="3">
         <v>100</v>
       </c>
@@ -6124,22 +6319,22 @@
         <v>100</v>
       </c>
       <c r="K81" s="3">
+        <v>100</v>
+      </c>
+      <c r="L81" s="3">
         <v>300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
-        <v>100</v>
-      </c>
       <c r="N81" s="3">
+        <v>100</v>
+      </c>
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q81" s="3">
         <v>100</v>
@@ -6154,13 +6349,13 @@
         <v>100</v>
       </c>
       <c r="U81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V81" s="3">
         <v>200</v>
       </c>
       <c r="W81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X81" s="3">
         <v>100</v>
@@ -6178,10 +6373,13 @@
         <v>100</v>
       </c>
       <c r="AC81" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,8 +6409,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6294,8 +6493,11 @@
       <c r="AC83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,20 +6923,23 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>300</v>
       </c>
-      <c r="F89" s="3">
-        <v>100</v>
-      </c>
       <c r="G89" s="3">
         <v>100</v>
       </c>
@@ -6730,32 +6947,32 @@
         <v>100</v>
       </c>
       <c r="I89" s="3">
+        <v>100</v>
+      </c>
+      <c r="J89" s="3">
         <v>300</v>
-      </c>
-      <c r="J89" s="3">
-        <v>200</v>
       </c>
       <c r="K89" s="3">
         <v>200</v>
       </c>
       <c r="L89" s="3">
+        <v>200</v>
+      </c>
+      <c r="M89" s="3">
         <v>300</v>
       </c>
-      <c r="M89" s="3">
-        <v>100</v>
-      </c>
       <c r="N89" s="3">
+        <v>100</v>
+      </c>
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
-        <v>100</v>
-      </c>
       <c r="P89" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q89" s="3">
         <v>200</v>
       </c>
-      <c r="Q89" s="3">
-        <v>100</v>
-      </c>
       <c r="R89" s="3">
         <v>100</v>
       </c>
@@ -6763,37 +6980,40 @@
         <v>100</v>
       </c>
       <c r="T89" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U89" s="3">
         <v>200</v>
       </c>
       <c r="V89" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W89" s="3">
+        <v>100</v>
+      </c>
+      <c r="X89" s="3">
         <v>200</v>
       </c>
-      <c r="X89" s="3">
-        <v>100</v>
-      </c>
       <c r="Y89" s="3">
         <v>100</v>
       </c>
       <c r="Z89" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA89" s="3">
         <v>200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-100</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>200</v>
       </c>
-      <c r="AC89" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,16 +7043,17 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>5</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -6843,11 +7064,11 @@
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>5</v>
@@ -6858,8 +7079,8 @@
       <c r="M91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -6882,14 +7103,14 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>5</v>
+      <c r="V91" s="3">
+        <v>0</v>
       </c>
       <c r="W91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X91" s="3">
-        <v>0</v>
+      <c r="X91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y91" s="3">
         <v>0</v>
@@ -6900,14 +7121,17 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-      <c r="AB91" s="3" t="s">
-        <v>5</v>
+      <c r="AB91" s="3">
+        <v>0</v>
       </c>
       <c r="AC91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,8 +7299,11 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7155,8 +7385,11 @@
       <c r="AC94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7419,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7216,19 +7450,19 @@
         <v>-100</v>
       </c>
       <c r="L96" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-200</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-100</v>
       </c>
       <c r="Q96" s="3">
         <v>-100</v>
@@ -7237,10 +7471,10 @@
         <v>-100</v>
       </c>
       <c r="S96" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T96" s="3">
         <v>-200</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-100</v>
       </c>
       <c r="U96" s="3">
         <v>-100</v>
@@ -7269,8 +7503,11 @@
       <c r="AC96" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,8 +7761,11 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7548,19 +7794,19 @@
         <v>-100</v>
       </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-200</v>
-      </c>
-      <c r="P100" s="3">
-        <v>-100</v>
       </c>
       <c r="Q100" s="3">
         <v>-100</v>
@@ -7569,10 +7815,10 @@
         <v>-100</v>
       </c>
       <c r="S100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T100" s="3">
         <v>-200</v>
-      </c>
-      <c r="T100" s="3">
-        <v>-100</v>
       </c>
       <c r="U100" s="3">
         <v>-100</v>
@@ -7601,8 +7847,11 @@
       <c r="AC100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7684,62 +7933,65 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H102" s="3">
         <v>100</v>
       </c>
       <c r="I102" s="3">
+        <v>100</v>
+      </c>
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
-        <v>100</v>
-      </c>
       <c r="K102" s="3">
         <v>100</v>
       </c>
       <c r="L102" s="3">
+        <v>100</v>
+      </c>
+      <c r="M102" s="3">
         <v>300</v>
       </c>
-      <c r="M102" s="3">
-        <v>100</v>
-      </c>
       <c r="N102" s="3">
+        <v>100</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
-        <v>100</v>
-      </c>
       <c r="Q102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
-        <v>100</v>
-      </c>
       <c r="U102" s="3">
         <v>100</v>
       </c>
@@ -7747,7 +7999,7 @@
         <v>100</v>
       </c>
       <c r="W102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X102" s="3">
         <v>0</v>
@@ -7756,15 +8008,18 @@
         <v>0</v>
       </c>
       <c r="Z102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB102" s="3">
         <v>-200</v>
       </c>
-      <c r="AB102" s="3">
-        <v>100</v>
-      </c>
       <c r="AC102" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BABB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BABB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="92">
   <si>
     <t>BABB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,152 +665,156 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45077</v>
+      </c>
+      <c r="E7" s="2">
         <v>44985</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44895</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44804</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44712</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44620</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44530</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44439</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44347</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44255</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44165</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44074</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43982</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43890</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43799</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43708</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43616</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43524</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43434</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43343</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43251</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43159</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43069</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42978</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42886</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42794</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42704</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>900</v>
+      </c>
+      <c r="E8" s="3">
         <v>700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>700</v>
-      </c>
-      <c r="I8" s="3">
-        <v>800</v>
       </c>
       <c r="J8" s="3">
         <v>800</v>
       </c>
       <c r="K8" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L8" s="3">
         <v>700</v>
@@ -819,16 +823,16 @@
         <v>700</v>
       </c>
       <c r="N8" s="3">
+        <v>700</v>
+      </c>
+      <c r="O8" s="3">
         <v>600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>700</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>800</v>
       </c>
       <c r="R8" s="3">
         <v>800</v>
@@ -837,10 +841,10 @@
         <v>800</v>
       </c>
       <c r="T8" s="3">
+        <v>800</v>
+      </c>
+      <c r="U8" s="3">
         <v>700</v>
-      </c>
-      <c r="U8" s="3">
-        <v>600</v>
       </c>
       <c r="V8" s="3">
         <v>600</v>
@@ -849,10 +853,10 @@
         <v>600</v>
       </c>
       <c r="X8" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y8" s="3">
         <v>500</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>600</v>
       </c>
       <c r="Z8" s="3">
         <v>600</v>
@@ -861,16 +865,19 @@
         <v>600</v>
       </c>
       <c r="AB8" s="3">
+        <v>600</v>
+      </c>
+      <c r="AC8" s="3">
         <v>500</v>
-      </c>
-      <c r="AC8" s="3">
-        <v>600</v>
       </c>
       <c r="AD8" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -955,8 +962,11 @@
       <c r="AD9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1041,8 +1051,11 @@
       <c r="AD10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,16 +1262,19 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1275,11 +1295,11 @@
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-200</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1295,8 +1315,8 @@
       <c r="R14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1331,8 +1351,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,8 +1472,9 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1464,37 +1491,37 @@
         <v>700</v>
       </c>
       <c r="H17" s="3">
+        <v>700</v>
+      </c>
+      <c r="I17" s="3">
         <v>600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>700</v>
-      </c>
-      <c r="J17" s="3">
-        <v>600</v>
       </c>
       <c r="K17" s="3">
         <v>600</v>
       </c>
       <c r="L17" s="3">
+        <v>600</v>
+      </c>
+      <c r="M17" s="3">
         <v>400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>700</v>
-      </c>
-      <c r="R17" s="3">
-        <v>600</v>
       </c>
       <c r="S17" s="3">
         <v>600</v>
@@ -1503,10 +1530,10 @@
         <v>600</v>
       </c>
       <c r="U17" s="3">
+        <v>600</v>
+      </c>
+      <c r="V17" s="3">
         <v>500</v>
-      </c>
-      <c r="V17" s="3">
-        <v>400</v>
       </c>
       <c r="W17" s="3">
         <v>400</v>
@@ -1521,34 +1548,37 @@
         <v>400</v>
       </c>
       <c r="AA17" s="3">
+        <v>400</v>
+      </c>
+      <c r="AB17" s="3">
         <v>500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>400</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>600</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
+        <v>100</v>
+      </c>
+      <c r="G18" s="3">
         <v>200</v>
       </c>
-      <c r="G18" s="3">
-        <v>100</v>
-      </c>
       <c r="H18" s="3">
         <v>100</v>
       </c>
@@ -1556,70 +1586,73 @@
         <v>100</v>
       </c>
       <c r="J18" s="3">
+        <v>100</v>
+      </c>
+      <c r="K18" s="3">
         <v>200</v>
       </c>
-      <c r="K18" s="3">
-        <v>100</v>
-      </c>
       <c r="L18" s="3">
+        <v>100</v>
+      </c>
+      <c r="M18" s="3">
         <v>300</v>
       </c>
-      <c r="M18" s="3">
-        <v>100</v>
-      </c>
       <c r="N18" s="3">
         <v>100</v>
       </c>
       <c r="O18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="3">
         <v>100</v>
       </c>
       <c r="R18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S18" s="3">
         <v>200</v>
       </c>
       <c r="T18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U18" s="3">
         <v>100</v>
       </c>
       <c r="V18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W18" s="3">
         <v>200</v>
       </c>
       <c r="X18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Z18" s="3">
         <v>200</v>
       </c>
       <c r="AA18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AB18" s="3">
         <v>100</v>
       </c>
       <c r="AC18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD18" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,8 +1683,9 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1736,22 +1770,25 @@
       <c r="AD20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F21" s="3">
         <v>200</v>
       </c>
       <c r="G21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H21" s="3">
         <v>100</v>
@@ -1760,35 +1797,35 @@
         <v>100</v>
       </c>
       <c r="J21" s="3">
+        <v>100</v>
+      </c>
+      <c r="K21" s="3">
         <v>200</v>
       </c>
-      <c r="K21" s="3">
-        <v>100</v>
-      </c>
       <c r="L21" s="3">
+        <v>100</v>
+      </c>
+      <c r="M21" s="3">
         <v>400</v>
       </c>
-      <c r="M21" s="3">
-        <v>100</v>
-      </c>
       <c r="N21" s="3">
         <v>100</v>
       </c>
       <c r="O21" s="3">
+        <v>100</v>
+      </c>
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
-      <c r="P21" s="3">
-        <v>100</v>
-      </c>
       <c r="Q21" s="3">
         <v>100</v>
       </c>
       <c r="R21" s="3">
+        <v>100</v>
+      </c>
+      <c r="S21" s="3">
         <v>200</v>
       </c>
-      <c r="S21" s="3">
-        <v>100</v>
-      </c>
       <c r="T21" s="3">
         <v>100</v>
       </c>
@@ -1796,13 +1833,13 @@
         <v>100</v>
       </c>
       <c r="V21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W21" s="3">
         <v>200</v>
       </c>
       <c r="X21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y21" s="3">
         <v>100</v>
@@ -1820,10 +1857,13 @@
         <v>100</v>
       </c>
       <c r="AD21" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE21" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1884,14 +1924,14 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>5</v>
+      <c r="W22" s="3">
+        <v>0</v>
       </c>
       <c r="X22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y22" s="3">
-        <v>0</v>
+      <c r="Y22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Z22" s="3">
         <v>0</v>
@@ -1908,22 +1948,25 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E23" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F23" s="3">
         <v>200</v>
       </c>
       <c r="G23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H23" s="3">
         <v>100</v>
@@ -1932,35 +1975,35 @@
         <v>100</v>
       </c>
       <c r="J23" s="3">
+        <v>100</v>
+      </c>
+      <c r="K23" s="3">
         <v>200</v>
       </c>
-      <c r="K23" s="3">
-        <v>100</v>
-      </c>
       <c r="L23" s="3">
+        <v>100</v>
+      </c>
+      <c r="M23" s="3">
         <v>400</v>
       </c>
-      <c r="M23" s="3">
-        <v>100</v>
-      </c>
       <c r="N23" s="3">
         <v>100</v>
       </c>
       <c r="O23" s="3">
+        <v>100</v>
+      </c>
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
-        <v>100</v>
-      </c>
       <c r="Q23" s="3">
         <v>100</v>
       </c>
       <c r="R23" s="3">
+        <v>100</v>
+      </c>
+      <c r="S23" s="3">
         <v>200</v>
       </c>
-      <c r="S23" s="3">
-        <v>100</v>
-      </c>
       <c r="T23" s="3">
         <v>100</v>
       </c>
@@ -1968,13 +2011,13 @@
         <v>100</v>
       </c>
       <c r="V23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W23" s="3">
         <v>200</v>
       </c>
       <c r="X23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y23" s="3">
         <v>100</v>
@@ -1992,24 +2035,27 @@
         <v>100</v>
       </c>
       <c r="AD23" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE23" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -2018,20 +2064,20 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>300</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
@@ -2051,11 +2097,11 @@
         <v>0</v>
       </c>
       <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>-200</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
       <c r="W24" s="3">
         <v>0</v>
       </c>
@@ -2080,8 +2126,11 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,23 +2215,26 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F26" s="3">
+        <v>100</v>
+      </c>
+      <c r="G26" s="3">
         <v>200</v>
       </c>
-      <c r="G26" s="3">
-        <v>100</v>
-      </c>
       <c r="H26" s="3">
         <v>100</v>
       </c>
@@ -2196,22 +2248,22 @@
         <v>100</v>
       </c>
       <c r="L26" s="3">
+        <v>100</v>
+      </c>
+      <c r="M26" s="3">
         <v>300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
-        <v>100</v>
-      </c>
       <c r="O26" s="3">
+        <v>100</v>
+      </c>
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R26" s="3">
         <v>100</v>
@@ -2223,16 +2275,16 @@
         <v>100</v>
       </c>
       <c r="U26" s="3">
+        <v>100</v>
+      </c>
+      <c r="V26" s="3">
         <v>300</v>
-      </c>
-      <c r="V26" s="3">
-        <v>200</v>
       </c>
       <c r="W26" s="3">
         <v>200</v>
       </c>
       <c r="X26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y26" s="3">
         <v>100</v>
@@ -2250,25 +2302,28 @@
         <v>100</v>
       </c>
       <c r="AD26" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F27" s="3">
+        <v>100</v>
+      </c>
+      <c r="G27" s="3">
         <v>200</v>
       </c>
-      <c r="G27" s="3">
-        <v>100</v>
-      </c>
       <c r="H27" s="3">
         <v>100</v>
       </c>
@@ -2282,22 +2337,22 @@
         <v>100</v>
       </c>
       <c r="L27" s="3">
+        <v>100</v>
+      </c>
+      <c r="M27" s="3">
         <v>300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
-        <v>100</v>
-      </c>
       <c r="O27" s="3">
+        <v>100</v>
+      </c>
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R27" s="3">
         <v>100</v>
@@ -2309,16 +2364,16 @@
         <v>100</v>
       </c>
       <c r="U27" s="3">
+        <v>100</v>
+      </c>
+      <c r="V27" s="3">
         <v>300</v>
-      </c>
-      <c r="V27" s="3">
-        <v>200</v>
       </c>
       <c r="W27" s="3">
         <v>200</v>
       </c>
       <c r="X27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y27" s="3">
         <v>100</v>
@@ -2336,10 +2391,13 @@
         <v>100</v>
       </c>
       <c r="AD27" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2462,8 +2523,8 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
@@ -2480,12 +2541,12 @@
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V29" s="3">
         <v>-200</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2501,8 +2562,8 @@
       <c r="AA29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB29" s="3">
-        <v>0</v>
+      <c r="AB29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AC29" s="3">
         <v>0</v>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,8 +2749,11 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2768,23 +2838,26 @@
       <c r="AD32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F33" s="3">
+        <v>100</v>
+      </c>
+      <c r="G33" s="3">
         <v>200</v>
       </c>
-      <c r="G33" s="3">
-        <v>100</v>
-      </c>
       <c r="H33" s="3">
         <v>100</v>
       </c>
@@ -2798,22 +2871,22 @@
         <v>100</v>
       </c>
       <c r="L33" s="3">
+        <v>100</v>
+      </c>
+      <c r="M33" s="3">
         <v>300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
-        <v>100</v>
-      </c>
       <c r="O33" s="3">
+        <v>100</v>
+      </c>
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R33" s="3">
         <v>100</v>
@@ -2828,13 +2901,13 @@
         <v>100</v>
       </c>
       <c r="V33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W33" s="3">
         <v>200</v>
       </c>
       <c r="X33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y33" s="3">
         <v>100</v>
@@ -2852,10 +2925,13 @@
         <v>100</v>
       </c>
       <c r="AD33" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,23 +3016,26 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F35" s="3">
+        <v>100</v>
+      </c>
+      <c r="G35" s="3">
         <v>200</v>
       </c>
-      <c r="G35" s="3">
-        <v>100</v>
-      </c>
       <c r="H35" s="3">
         <v>100</v>
       </c>
@@ -2970,22 +3049,22 @@
         <v>100</v>
       </c>
       <c r="L35" s="3">
+        <v>100</v>
+      </c>
+      <c r="M35" s="3">
         <v>300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
-        <v>100</v>
-      </c>
       <c r="O35" s="3">
+        <v>100</v>
+      </c>
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R35" s="3">
         <v>100</v>
@@ -3000,13 +3079,13 @@
         <v>100</v>
       </c>
       <c r="V35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W35" s="3">
         <v>200</v>
       </c>
       <c r="X35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y35" s="3">
         <v>100</v>
@@ -3024,101 +3103,107 @@
         <v>100</v>
       </c>
       <c r="AD35" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45077</v>
+      </c>
+      <c r="E38" s="2">
         <v>44985</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44895</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44804</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44712</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44620</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44530</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44439</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44347</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44255</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44165</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44074</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43982</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43890</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43799</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43708</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43616</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43524</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43434</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43343</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43251</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43159</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43069</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42978</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42886</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42794</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42704</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,19 +3267,20 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="E41" s="3">
         <v>1600</v>
       </c>
       <c r="F41" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="G41" s="3">
         <v>1500</v>
@@ -3208,28 +3295,28 @@
         <v>1500</v>
       </c>
       <c r="K41" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L41" s="3">
         <v>1400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1100</v>
-      </c>
-      <c r="R41" s="3">
-        <v>1000</v>
       </c>
       <c r="S41" s="3">
         <v>1000</v>
@@ -3238,37 +3325,40 @@
         <v>1000</v>
       </c>
       <c r="U41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V41" s="3">
         <v>1100</v>
-      </c>
-      <c r="V41" s="3">
-        <v>900</v>
       </c>
       <c r="W41" s="3">
         <v>900</v>
       </c>
       <c r="X41" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="Y41" s="3">
         <v>800</v>
       </c>
       <c r="Z41" s="3">
+        <v>800</v>
+      </c>
+      <c r="AA41" s="3">
         <v>700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>800</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>700</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>900</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3353,8 +3443,11 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3392,10 +3485,10 @@
         <v>100</v>
       </c>
       <c r="O43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="3">
         <v>100</v>
@@ -3439,8 +3532,11 @@
       <c r="AD43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3492,11 +3588,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U44" s="3">
-        <v>0</v>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V44" s="3">
         <v>0</v>
@@ -3525,25 +3621,28 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>400</v>
+      </c>
+      <c r="E45" s="3">
         <v>500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>800</v>
-      </c>
-      <c r="H45" s="3">
-        <v>700</v>
       </c>
       <c r="I45" s="3">
         <v>700</v>
@@ -3552,7 +3651,7 @@
         <v>700</v>
       </c>
       <c r="K45" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L45" s="3">
         <v>500</v>
@@ -3561,13 +3660,13 @@
         <v>500</v>
       </c>
       <c r="N45" s="3">
+        <v>500</v>
+      </c>
+      <c r="O45" s="3">
         <v>400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>300</v>
-      </c>
-      <c r="P45" s="3">
-        <v>500</v>
       </c>
       <c r="Q45" s="3">
         <v>500</v>
@@ -3585,13 +3684,13 @@
         <v>500</v>
       </c>
       <c r="V45" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="W45" s="3">
         <v>700</v>
       </c>
       <c r="X45" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="Y45" s="3">
         <v>800</v>
@@ -3600,7 +3699,7 @@
         <v>800</v>
       </c>
       <c r="AA45" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AB45" s="3">
         <v>700</v>
@@ -3611,8 +3710,11 @@
       <c r="AD45" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3623,82 +3725,85 @@
         <v>2200</v>
       </c>
       <c r="F46" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G46" s="3">
         <v>2600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2400</v>
-      </c>
-      <c r="H46" s="3">
-        <v>2300</v>
       </c>
       <c r="I46" s="3">
         <v>2300</v>
       </c>
       <c r="J46" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K46" s="3">
         <v>2200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1700</v>
-      </c>
-      <c r="R46" s="3">
-        <v>1600</v>
       </c>
       <c r="S46" s="3">
         <v>1600</v>
       </c>
       <c r="T46" s="3">
+        <v>1600</v>
+      </c>
+      <c r="U46" s="3">
         <v>1500</v>
-      </c>
-      <c r="U46" s="3">
-        <v>1700</v>
       </c>
       <c r="V46" s="3">
         <v>1700</v>
       </c>
       <c r="W46" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="X46" s="3">
         <v>1600</v>
       </c>
       <c r="Y46" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Z46" s="3">
         <v>1700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1600</v>
-      </c>
-      <c r="AA46" s="3">
-        <v>1500</v>
       </c>
       <c r="AB46" s="3">
         <v>1500</v>
       </c>
       <c r="AC46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AD46" s="3">
         <v>1700</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3711,8 +3816,8 @@
       <c r="F47" s="3">
         <v>0</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>5</v>
+      <c r="G47" s="3">
+        <v>0</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>5</v>
@@ -3729,8 +3834,8 @@
       <c r="L47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -3783,8 +3888,11 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3795,7 +3903,7 @@
         <v>100</v>
       </c>
       <c r="F48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G48" s="3">
         <v>200</v>
@@ -3810,7 +3918,7 @@
         <v>200</v>
       </c>
       <c r="K48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L48" s="3">
         <v>300</v>
@@ -3825,7 +3933,7 @@
         <v>300</v>
       </c>
       <c r="P48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Q48" s="3">
         <v>400</v>
@@ -3837,13 +3945,13 @@
         <v>400</v>
       </c>
       <c r="T48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="U48" s="3">
         <v>500</v>
       </c>
       <c r="V48" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="W48" s="3">
         <v>0</v>
@@ -3869,8 +3977,11 @@
       <c r="AD48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3955,8 +4066,11 @@
       <c r="AD49" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,8 +4244,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4141,14 +4261,14 @@
       <c r="F52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
+      <c r="G52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>5</v>
+      <c r="I52" s="3">
+        <v>0</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>5</v>
@@ -4159,11 +4279,11 @@
       <c r="L52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N52" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O52" s="3">
         <v>200</v>
@@ -4213,8 +4333,11 @@
       <c r="AD52" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,8 +4422,11 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4311,10 +4437,10 @@
         <v>4300</v>
       </c>
       <c r="F54" s="3">
+        <v>4300</v>
+      </c>
+      <c r="G54" s="3">
         <v>4800</v>
-      </c>
-      <c r="G54" s="3">
-        <v>4500</v>
       </c>
       <c r="H54" s="3">
         <v>4500</v>
@@ -4323,28 +4449,28 @@
         <v>4500</v>
       </c>
       <c r="J54" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K54" s="3">
         <v>4400</v>
-      </c>
-      <c r="K54" s="3">
-        <v>4200</v>
       </c>
       <c r="L54" s="3">
         <v>4200</v>
       </c>
       <c r="M54" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="N54" s="3">
         <v>4100</v>
       </c>
       <c r="O54" s="3">
+        <v>4100</v>
+      </c>
+      <c r="P54" s="3">
         <v>3900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4000</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>4200</v>
       </c>
       <c r="R54" s="3">
         <v>4200</v>
@@ -4356,37 +4482,40 @@
         <v>4200</v>
       </c>
       <c r="U54" s="3">
+        <v>4200</v>
+      </c>
+      <c r="V54" s="3">
         <v>4400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3900</v>
-      </c>
-      <c r="W54" s="3">
-        <v>3800</v>
       </c>
       <c r="X54" s="3">
         <v>3800</v>
       </c>
       <c r="Y54" s="3">
+        <v>3800</v>
+      </c>
+      <c r="Z54" s="3">
         <v>3900</v>
-      </c>
-      <c r="Z54" s="3">
-        <v>3800</v>
       </c>
       <c r="AA54" s="3">
         <v>3800</v>
       </c>
       <c r="AB54" s="3">
+        <v>3800</v>
+      </c>
+      <c r="AC54" s="3">
         <v>3700</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>3900</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,8 +4579,9 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4524,19 +4655,22 @@
         <v>0</v>
       </c>
       <c r="AA57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB57" s="3">
         <v>100</v>
       </c>
       <c r="AC57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4568,13 +4702,13 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>200</v>
       </c>
-      <c r="N58" s="3">
-        <v>100</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>5</v>
+      <c r="O58" s="3">
+        <v>100</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>5</v>
@@ -4591,8 +4725,8 @@
       <c r="T58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
+      <c r="U58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
@@ -4612,70 +4746,73 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-      <c r="AB58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC58" s="3">
-        <v>0</v>
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>800</v>
+      </c>
+      <c r="E59" s="3">
         <v>900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1200</v>
-      </c>
-      <c r="H59" s="3">
-        <v>1100</v>
       </c>
       <c r="I59" s="3">
         <v>1100</v>
       </c>
       <c r="J59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K59" s="3">
         <v>1000</v>
-      </c>
-      <c r="K59" s="3">
-        <v>900</v>
       </c>
       <c r="L59" s="3">
         <v>900</v>
       </c>
       <c r="M59" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="N59" s="3">
         <v>800</v>
       </c>
       <c r="O59" s="3">
+        <v>800</v>
+      </c>
+      <c r="P59" s="3">
         <v>700</v>
-      </c>
-      <c r="P59" s="3">
-        <v>900</v>
       </c>
       <c r="Q59" s="3">
         <v>900</v>
       </c>
       <c r="R59" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="S59" s="3">
         <v>800</v>
       </c>
       <c r="T59" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="U59" s="3">
         <v>900</v>
@@ -4687,7 +4824,7 @@
         <v>900</v>
       </c>
       <c r="X59" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="Y59" s="3">
         <v>1000</v>
@@ -4702,13 +4839,16 @@
         <v>1000</v>
       </c>
       <c r="AC59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AD59" s="3">
         <v>1100</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4716,49 +4856,49 @@
         <v>900</v>
       </c>
       <c r="E60" s="3">
+        <v>900</v>
+      </c>
+      <c r="F60" s="3">
         <v>800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1200</v>
-      </c>
-      <c r="H60" s="3">
-        <v>1100</v>
       </c>
       <c r="I60" s="3">
         <v>1100</v>
       </c>
       <c r="J60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K60" s="3">
         <v>1000</v>
-      </c>
-      <c r="K60" s="3">
-        <v>900</v>
       </c>
       <c r="L60" s="3">
         <v>900</v>
       </c>
       <c r="M60" s="3">
+        <v>900</v>
+      </c>
+      <c r="N60" s="3">
         <v>1100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>700</v>
-      </c>
-      <c r="P60" s="3">
-        <v>900</v>
       </c>
       <c r="Q60" s="3">
         <v>900</v>
       </c>
       <c r="R60" s="3">
+        <v>900</v>
+      </c>
+      <c r="S60" s="3">
         <v>800</v>
-      </c>
-      <c r="S60" s="3">
-        <v>900</v>
       </c>
       <c r="T60" s="3">
         <v>900</v>
@@ -4773,7 +4913,7 @@
         <v>900</v>
       </c>
       <c r="X60" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="Y60" s="3">
         <v>1000</v>
@@ -4785,16 +4925,19 @@
         <v>1000</v>
       </c>
       <c r="AB60" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="AC60" s="3">
         <v>1100</v>
       </c>
       <c r="AD60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AE60" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4829,14 +4972,14 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O61" s="3">
+        <v>100</v>
+      </c>
+      <c r="P61" s="3">
         <v>200</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -4879,8 +5022,11 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4903,10 +5049,10 @@
         <v>400</v>
       </c>
       <c r="J62" s="3">
+        <v>400</v>
+      </c>
+      <c r="K62" s="3">
         <v>500</v>
-      </c>
-      <c r="K62" s="3">
-        <v>400</v>
       </c>
       <c r="L62" s="3">
         <v>400</v>
@@ -4927,7 +5073,7 @@
         <v>400</v>
       </c>
       <c r="R62" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="S62" s="3">
         <v>500</v>
@@ -4936,11 +5082,11 @@
         <v>500</v>
       </c>
       <c r="U62" s="3">
+        <v>500</v>
+      </c>
+      <c r="V62" s="3">
         <v>400</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W62" s="3" t="s">
         <v>5</v>
       </c>
@@ -4956,8 +5102,8 @@
       <c r="AA62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB62" s="3">
-        <v>0</v>
+      <c r="AB62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AC62" s="3">
         <v>0</v>
@@ -4965,8 +5111,11 @@
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,8 +5378,11 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -5232,37 +5390,37 @@
         <v>1300</v>
       </c>
       <c r="E66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F66" s="3">
         <v>1200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1700</v>
-      </c>
-      <c r="G66" s="3">
-        <v>1600</v>
       </c>
       <c r="H66" s="3">
         <v>1600</v>
       </c>
       <c r="I66" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="J66" s="3">
         <v>1500</v>
       </c>
       <c r="K66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L66" s="3">
         <v>1400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1400</v>
-      </c>
-      <c r="O66" s="3">
-        <v>1300</v>
       </c>
       <c r="P66" s="3">
         <v>1300</v>
@@ -5274,7 +5432,7 @@
         <v>1300</v>
       </c>
       <c r="S66" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="T66" s="3">
         <v>1400</v>
@@ -5283,13 +5441,13 @@
         <v>1400</v>
       </c>
       <c r="V66" s="3">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="W66" s="3">
         <v>900</v>
       </c>
       <c r="X66" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="Y66" s="3">
         <v>1000</v>
@@ -5301,16 +5459,19 @@
         <v>1000</v>
       </c>
       <c r="AB66" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="AC66" s="3">
         <v>1100</v>
       </c>
       <c r="AD66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AE66" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,8 +5856,11 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5694,13 +5868,13 @@
         <v>-11300</v>
       </c>
       <c r="E72" s="3">
-        <v>-11200</v>
+        <v>-11300</v>
       </c>
       <c r="F72" s="3">
         <v>-11200</v>
       </c>
       <c r="G72" s="3">
-        <v>-11300</v>
+        <v>-11200</v>
       </c>
       <c r="H72" s="3">
         <v>-11300</v>
@@ -5709,7 +5883,7 @@
         <v>-11300</v>
       </c>
       <c r="J72" s="3">
-        <v>-11400</v>
+        <v>-11300</v>
       </c>
       <c r="K72" s="3">
         <v>-11400</v>
@@ -5718,61 +5892,64 @@
         <v>-11400</v>
       </c>
       <c r="M72" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="N72" s="3">
         <v>-11700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-11600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-11700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-11500</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-11300</v>
       </c>
       <c r="R72" s="3">
         <v>-11300</v>
       </c>
       <c r="S72" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="T72" s="3">
         <v>-11400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-11500</v>
-      </c>
-      <c r="U72" s="3">
-        <v>-11300</v>
       </c>
       <c r="V72" s="3">
         <v>-11300</v>
       </c>
       <c r="W72" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="X72" s="3">
         <v>-11400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-11500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-11400</v>
-      </c>
-      <c r="Z72" s="3">
-        <v>-11500</v>
       </c>
       <c r="AA72" s="3">
         <v>-11500</v>
       </c>
       <c r="AB72" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="AC72" s="3">
         <v>-11600</v>
-      </c>
-      <c r="AC72" s="3">
-        <v>-11500</v>
       </c>
       <c r="AD72" s="3">
         <v>-11500</v>
       </c>
-    </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE72" s="3">
+        <v>-11500</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,8 +6212,11 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -6038,13 +6224,13 @@
         <v>3000</v>
       </c>
       <c r="E76" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F76" s="3">
         <v>3100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3000</v>
-      </c>
-      <c r="G76" s="3">
-        <v>2900</v>
       </c>
       <c r="H76" s="3">
         <v>2900</v>
@@ -6056,25 +6242,25 @@
         <v>2900</v>
       </c>
       <c r="K76" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="L76" s="3">
         <v>2800</v>
       </c>
       <c r="M76" s="3">
+        <v>2800</v>
+      </c>
+      <c r="N76" s="3">
         <v>2600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2800</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>2900</v>
       </c>
       <c r="R76" s="3">
         <v>2900</v>
@@ -6083,40 +6269,43 @@
         <v>2900</v>
       </c>
       <c r="T76" s="3">
+        <v>2900</v>
+      </c>
+      <c r="U76" s="3">
         <v>2800</v>
-      </c>
-      <c r="U76" s="3">
-        <v>3000</v>
       </c>
       <c r="V76" s="3">
         <v>3000</v>
       </c>
       <c r="W76" s="3">
+        <v>3000</v>
+      </c>
+      <c r="X76" s="3">
         <v>2900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2800</v>
-      </c>
-      <c r="AA76" s="3">
-        <v>2700</v>
       </c>
       <c r="AB76" s="3">
         <v>2700</v>
       </c>
       <c r="AC76" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="AD76" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE76" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,114 +6390,120 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45077</v>
+      </c>
+      <c r="E80" s="2">
         <v>44985</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44895</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44804</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44712</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44620</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44530</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44439</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44347</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44255</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44165</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44074</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43982</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43890</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43799</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43708</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43616</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43524</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43434</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43343</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43251</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43159</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43069</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42978</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42886</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42794</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42704</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F81" s="3">
+        <v>100</v>
+      </c>
+      <c r="G81" s="3">
         <v>200</v>
       </c>
-      <c r="G81" s="3">
-        <v>100</v>
-      </c>
       <c r="H81" s="3">
         <v>100</v>
       </c>
@@ -6322,22 +6517,22 @@
         <v>100</v>
       </c>
       <c r="L81" s="3">
+        <v>100</v>
+      </c>
+      <c r="M81" s="3">
         <v>300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
-        <v>100</v>
-      </c>
       <c r="O81" s="3">
+        <v>100</v>
+      </c>
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R81" s="3">
         <v>100</v>
@@ -6352,13 +6547,13 @@
         <v>100</v>
       </c>
       <c r="V81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W81" s="3">
         <v>200</v>
       </c>
       <c r="X81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y81" s="3">
         <v>100</v>
@@ -6376,10 +6571,13 @@
         <v>100</v>
       </c>
       <c r="AD81" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6496,8 +6695,11 @@
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,8 +7140,11 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6935,14 +7152,14 @@
         <v>200</v>
       </c>
       <c r="E89" s="3">
+        <v>200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>300</v>
       </c>
-      <c r="G89" s="3">
-        <v>100</v>
-      </c>
       <c r="H89" s="3">
         <v>100</v>
       </c>
@@ -6950,32 +7167,32 @@
         <v>100</v>
       </c>
       <c r="J89" s="3">
+        <v>100</v>
+      </c>
+      <c r="K89" s="3">
         <v>300</v>
-      </c>
-      <c r="K89" s="3">
-        <v>200</v>
       </c>
       <c r="L89" s="3">
         <v>200</v>
       </c>
       <c r="M89" s="3">
+        <v>200</v>
+      </c>
+      <c r="N89" s="3">
         <v>300</v>
       </c>
-      <c r="N89" s="3">
-        <v>100</v>
-      </c>
       <c r="O89" s="3">
+        <v>100</v>
+      </c>
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
-        <v>100</v>
-      </c>
       <c r="Q89" s="3">
+        <v>100</v>
+      </c>
+      <c r="R89" s="3">
         <v>200</v>
       </c>
-      <c r="R89" s="3">
-        <v>100</v>
-      </c>
       <c r="S89" s="3">
         <v>100</v>
       </c>
@@ -6983,37 +7200,40 @@
         <v>100</v>
       </c>
       <c r="U89" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V89" s="3">
         <v>200</v>
       </c>
       <c r="W89" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X89" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y89" s="3">
         <v>200</v>
       </c>
-      <c r="Y89" s="3">
-        <v>100</v>
-      </c>
       <c r="Z89" s="3">
         <v>100</v>
       </c>
       <c r="AA89" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB89" s="3">
         <v>200</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-100</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>200</v>
       </c>
-      <c r="AD89" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,8 +7264,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7070,8 +7291,8 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>5</v>
@@ -7082,8 +7303,8 @@
       <c r="N91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -7106,14 +7327,14 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>5</v>
+      <c r="W91" s="3">
+        <v>0</v>
       </c>
       <c r="X91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y91" s="3">
-        <v>0</v>
+      <c r="Y91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Z91" s="3">
         <v>0</v>
@@ -7124,14 +7345,17 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-      <c r="AC91" s="3" t="s">
-        <v>5</v>
+      <c r="AC91" s="3">
+        <v>0</v>
       </c>
       <c r="AD91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,8 +7529,11 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7388,8 +7618,11 @@
       <c r="AD94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7453,19 +7687,19 @@
         <v>-100</v>
       </c>
       <c r="M96" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-100</v>
       </c>
       <c r="R96" s="3">
         <v>-100</v>
@@ -7474,10 +7708,10 @@
         <v>-100</v>
       </c>
       <c r="T96" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U96" s="3">
         <v>-200</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-100</v>
       </c>
       <c r="V96" s="3">
         <v>-100</v>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,8 +8007,11 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7797,19 +8043,19 @@
         <v>-100</v>
       </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>-100</v>
       </c>
       <c r="R100" s="3">
         <v>-100</v>
@@ -7818,10 +8064,10 @@
         <v>-100</v>
       </c>
       <c r="T100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U100" s="3">
         <v>-200</v>
-      </c>
-      <c r="U100" s="3">
-        <v>-100</v>
       </c>
       <c r="V100" s="3">
         <v>-100</v>
@@ -7850,8 +8096,11 @@
       <c r="AD100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7936,65 +8185,68 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I102" s="3">
         <v>100</v>
       </c>
       <c r="J102" s="3">
+        <v>100</v>
+      </c>
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
-        <v>100</v>
-      </c>
       <c r="L102" s="3">
         <v>100</v>
       </c>
       <c r="M102" s="3">
+        <v>100</v>
+      </c>
+      <c r="N102" s="3">
         <v>300</v>
       </c>
-      <c r="N102" s="3">
-        <v>100</v>
-      </c>
       <c r="O102" s="3">
+        <v>100</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
-        <v>100</v>
-      </c>
       <c r="R102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S102" s="3">
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
-        <v>100</v>
-      </c>
       <c r="V102" s="3">
         <v>100</v>
       </c>
@@ -8002,7 +8254,7 @@
         <v>100</v>
       </c>
       <c r="X102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y102" s="3">
         <v>0</v>
@@ -8011,15 +8263,18 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB102" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC102" s="3">
         <v>-200</v>
       </c>
-      <c r="AC102" s="3">
-        <v>100</v>
-      </c>
       <c r="AD102" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BABB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BABB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="92">
   <si>
     <t>BABB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,130 +665,134 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45169</v>
+      </c>
+      <c r="E7" s="2">
         <v>45077</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44985</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44895</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44804</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44712</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44620</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44530</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44439</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44347</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44255</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44165</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44074</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43982</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43890</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43799</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43708</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43616</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43524</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43434</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43343</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43251</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43159</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43069</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42978</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42886</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42794</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42704</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -796,28 +800,28 @@
         <v>900</v>
       </c>
       <c r="E8" s="3">
+        <v>900</v>
+      </c>
+      <c r="F8" s="3">
         <v>700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>700</v>
-      </c>
-      <c r="J8" s="3">
-        <v>800</v>
       </c>
       <c r="K8" s="3">
         <v>800</v>
       </c>
       <c r="L8" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M8" s="3">
         <v>700</v>
@@ -826,16 +830,16 @@
         <v>700</v>
       </c>
       <c r="O8" s="3">
+        <v>700</v>
+      </c>
+      <c r="P8" s="3">
         <v>600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>700</v>
-      </c>
-      <c r="R8" s="3">
-        <v>800</v>
       </c>
       <c r="S8" s="3">
         <v>800</v>
@@ -844,10 +848,10 @@
         <v>800</v>
       </c>
       <c r="U8" s="3">
+        <v>800</v>
+      </c>
+      <c r="V8" s="3">
         <v>700</v>
-      </c>
-      <c r="V8" s="3">
-        <v>600</v>
       </c>
       <c r="W8" s="3">
         <v>600</v>
@@ -856,10 +860,10 @@
         <v>600</v>
       </c>
       <c r="Y8" s="3">
+        <v>600</v>
+      </c>
+      <c r="Z8" s="3">
         <v>500</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>600</v>
       </c>
       <c r="AA8" s="3">
         <v>600</v>
@@ -868,16 +872,19 @@
         <v>600</v>
       </c>
       <c r="AC8" s="3">
+        <v>600</v>
+      </c>
+      <c r="AD8" s="3">
         <v>500</v>
-      </c>
-      <c r="AD8" s="3">
-        <v>600</v>
       </c>
       <c r="AE8" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF8" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -965,8 +972,11 @@
       <c r="AE9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1054,8 +1064,11 @@
       <c r="AE10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,8 +1282,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1276,8 +1296,8 @@
       <c r="E14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1298,11 +1318,11 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>-200</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1318,8 +1338,8 @@
       <c r="S14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1354,8 +1374,11 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,8 +1499,9 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1494,37 +1521,37 @@
         <v>700</v>
       </c>
       <c r="I17" s="3">
+        <v>700</v>
+      </c>
+      <c r="J17" s="3">
         <v>600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>700</v>
-      </c>
-      <c r="K17" s="3">
-        <v>600</v>
       </c>
       <c r="L17" s="3">
         <v>600</v>
       </c>
       <c r="M17" s="3">
+        <v>600</v>
+      </c>
+      <c r="N17" s="3">
         <v>400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>700</v>
-      </c>
-      <c r="S17" s="3">
-        <v>600</v>
       </c>
       <c r="T17" s="3">
         <v>600</v>
@@ -1533,10 +1560,10 @@
         <v>600</v>
       </c>
       <c r="V17" s="3">
+        <v>600</v>
+      </c>
+      <c r="W17" s="3">
         <v>500</v>
-      </c>
-      <c r="W17" s="3">
-        <v>400</v>
       </c>
       <c r="X17" s="3">
         <v>400</v>
@@ -1551,19 +1578,22 @@
         <v>400</v>
       </c>
       <c r="AB17" s="3">
+        <v>400</v>
+      </c>
+      <c r="AC17" s="3">
         <v>500</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>400</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>600</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1571,16 +1601,16 @@
         <v>200</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I18" s="3">
         <v>100</v>
@@ -1589,70 +1619,73 @@
         <v>100</v>
       </c>
       <c r="K18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M18" s="3">
+        <v>100</v>
+      </c>
+      <c r="N18" s="3">
         <v>300</v>
       </c>
-      <c r="N18" s="3">
-        <v>100</v>
-      </c>
       <c r="O18" s="3">
         <v>100</v>
       </c>
       <c r="P18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R18" s="3">
         <v>100</v>
       </c>
       <c r="S18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T18" s="3">
         <v>200</v>
       </c>
       <c r="U18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V18" s="3">
         <v>100</v>
       </c>
       <c r="W18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X18" s="3">
         <v>200</v>
       </c>
       <c r="Y18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Z18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AA18" s="3">
         <v>200</v>
       </c>
       <c r="AB18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AC18" s="3">
         <v>100</v>
       </c>
       <c r="AD18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AE18" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,13 +1717,14 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1773,8 +1807,11 @@
       <c r="AE20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1782,16 +1819,16 @@
         <v>200</v>
       </c>
       <c r="E21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G21" s="3">
         <v>200</v>
       </c>
       <c r="H21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I21" s="3">
         <v>100</v>
@@ -1800,34 +1837,34 @@
         <v>100</v>
       </c>
       <c r="K21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M21" s="3">
+        <v>100</v>
+      </c>
+      <c r="N21" s="3">
         <v>400</v>
       </c>
-      <c r="N21" s="3">
-        <v>100</v>
-      </c>
       <c r="O21" s="3">
         <v>100</v>
       </c>
       <c r="P21" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="Q21" s="3">
-        <v>100</v>
-      </c>
       <c r="R21" s="3">
         <v>100</v>
       </c>
       <c r="S21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U21" s="3">
         <v>100</v>
@@ -1836,13 +1873,13 @@
         <v>100</v>
       </c>
       <c r="W21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X21" s="3">
         <v>200</v>
       </c>
       <c r="Y21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Z21" s="3">
         <v>100</v>
@@ -1860,10 +1897,13 @@
         <v>100</v>
       </c>
       <c r="AE21" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AF21" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1927,14 +1967,14 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-      <c r="X22" s="3" t="s">
-        <v>5</v>
+      <c r="X22" s="3">
+        <v>0</v>
       </c>
       <c r="Y22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z22" s="3">
-        <v>0</v>
+      <c r="Z22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AA22" s="3">
         <v>0</v>
@@ -1951,8 +1991,11 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1960,16 +2003,16 @@
         <v>200</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F23" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G23" s="3">
         <v>200</v>
       </c>
       <c r="H23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I23" s="3">
         <v>100</v>
@@ -1978,34 +2021,34 @@
         <v>100</v>
       </c>
       <c r="K23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M23" s="3">
+        <v>100</v>
+      </c>
+      <c r="N23" s="3">
         <v>400</v>
       </c>
-      <c r="N23" s="3">
-        <v>100</v>
-      </c>
       <c r="O23" s="3">
         <v>100</v>
       </c>
       <c r="P23" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
-        <v>100</v>
-      </c>
       <c r="R23" s="3">
         <v>100</v>
       </c>
       <c r="S23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U23" s="3">
         <v>100</v>
@@ -2014,13 +2057,13 @@
         <v>100</v>
       </c>
       <c r="W23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X23" s="3">
         <v>200</v>
       </c>
       <c r="Y23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Z23" s="3">
         <v>100</v>
@@ -2038,10 +2081,13 @@
         <v>100</v>
       </c>
       <c r="AE23" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AF23" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2049,16 +2095,16 @@
         <v>100</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -2067,20 +2113,20 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>300</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
@@ -2100,11 +2146,11 @@
         <v>0</v>
       </c>
       <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
         <v>-200</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
       <c r="X24" s="3">
         <v>0</v>
       </c>
@@ -2129,8 +2175,11 @@
       <c r="AE24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,25 +2267,28 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I26" s="3">
         <v>100</v>
@@ -2251,22 +2303,22 @@
         <v>100</v>
       </c>
       <c r="M26" s="3">
+        <v>100</v>
+      </c>
+      <c r="N26" s="3">
         <v>300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
-        <v>100</v>
-      </c>
       <c r="P26" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S26" s="3">
         <v>100</v>
@@ -2278,16 +2330,16 @@
         <v>100</v>
       </c>
       <c r="V26" s="3">
+        <v>100</v>
+      </c>
+      <c r="W26" s="3">
         <v>300</v>
       </c>
-      <c r="W26" s="3">
-        <v>200</v>
-      </c>
       <c r="X26" s="3">
         <v>200</v>
       </c>
       <c r="Y26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Z26" s="3">
         <v>100</v>
@@ -2305,27 +2357,30 @@
         <v>100</v>
       </c>
       <c r="AE26" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AF26" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G27" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I27" s="3">
         <v>100</v>
@@ -2340,22 +2395,22 @@
         <v>100</v>
       </c>
       <c r="M27" s="3">
+        <v>100</v>
+      </c>
+      <c r="N27" s="3">
         <v>300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
-        <v>100</v>
-      </c>
       <c r="P27" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S27" s="3">
         <v>100</v>
@@ -2367,16 +2422,16 @@
         <v>100</v>
       </c>
       <c r="V27" s="3">
+        <v>100</v>
+      </c>
+      <c r="W27" s="3">
         <v>300</v>
       </c>
-      <c r="W27" s="3">
-        <v>200</v>
-      </c>
       <c r="X27" s="3">
         <v>200</v>
       </c>
       <c r="Y27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Z27" s="3">
         <v>100</v>
@@ -2394,10 +2449,13 @@
         <v>100</v>
       </c>
       <c r="AE27" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AF27" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2526,8 +2587,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
@@ -2544,12 +2605,12 @@
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W29" s="3">
         <v>-200</v>
       </c>
-      <c r="W29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2565,8 +2626,8 @@
       <c r="AB29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AC29" s="3">
-        <v>0</v>
+      <c r="AC29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AD29" s="3">
         <v>0</v>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,13 +2819,16 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2841,25 +2911,28 @@
       <c r="AE32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I33" s="3">
         <v>100</v>
@@ -2874,22 +2947,22 @@
         <v>100</v>
       </c>
       <c r="M33" s="3">
+        <v>100</v>
+      </c>
+      <c r="N33" s="3">
         <v>300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
-        <v>100</v>
-      </c>
       <c r="P33" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S33" s="3">
         <v>100</v>
@@ -2904,13 +2977,13 @@
         <v>100</v>
       </c>
       <c r="W33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X33" s="3">
         <v>200</v>
       </c>
       <c r="Y33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Z33" s="3">
         <v>100</v>
@@ -2928,10 +3001,13 @@
         <v>100</v>
       </c>
       <c r="AE33" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AF33" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,25 +3095,28 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I35" s="3">
         <v>100</v>
@@ -3052,22 +3131,22 @@
         <v>100</v>
       </c>
       <c r="M35" s="3">
+        <v>100</v>
+      </c>
+      <c r="N35" s="3">
         <v>300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
-        <v>100</v>
-      </c>
       <c r="P35" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S35" s="3">
         <v>100</v>
@@ -3082,13 +3161,13 @@
         <v>100</v>
       </c>
       <c r="W35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X35" s="3">
         <v>200</v>
       </c>
       <c r="Y35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Z35" s="3">
         <v>100</v>
@@ -3106,104 +3185,110 @@
         <v>100</v>
       </c>
       <c r="AE35" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AF35" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45169</v>
+      </c>
+      <c r="E38" s="2">
         <v>45077</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44985</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44895</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44804</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44712</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44620</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44530</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44439</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44347</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44255</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44165</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44074</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43982</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43890</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43799</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43708</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43616</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43524</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43434</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43343</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43251</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43159</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43069</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42978</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42886</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42794</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42704</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,8 +3354,9 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3277,13 +3364,13 @@
         <v>1700</v>
       </c>
       <c r="E41" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="F41" s="3">
         <v>1600</v>
       </c>
       <c r="G41" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="H41" s="3">
         <v>1500</v>
@@ -3298,28 +3385,28 @@
         <v>1500</v>
       </c>
       <c r="L41" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M41" s="3">
         <v>1400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1100</v>
-      </c>
-      <c r="S41" s="3">
-        <v>1000</v>
       </c>
       <c r="T41" s="3">
         <v>1000</v>
@@ -3328,37 +3415,40 @@
         <v>1000</v>
       </c>
       <c r="V41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="W41" s="3">
         <v>1100</v>
-      </c>
-      <c r="W41" s="3">
-        <v>900</v>
       </c>
       <c r="X41" s="3">
         <v>900</v>
       </c>
       <c r="Y41" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="Z41" s="3">
         <v>800</v>
       </c>
       <c r="AA41" s="3">
+        <v>800</v>
+      </c>
+      <c r="AB41" s="3">
         <v>700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>800</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>700</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>900</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3446,8 +3536,11 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3488,10 +3581,10 @@
         <v>100</v>
       </c>
       <c r="P43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R43" s="3">
         <v>100</v>
@@ -3535,8 +3628,11 @@
       <c r="AE43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3591,11 +3687,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V44" s="3">
-        <v>0</v>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W44" s="3">
         <v>0</v>
@@ -3624,8 +3720,11 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3633,19 +3732,19 @@
         <v>400</v>
       </c>
       <c r="E45" s="3">
+        <v>400</v>
+      </c>
+      <c r="F45" s="3">
         <v>500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>800</v>
-      </c>
-      <c r="I45" s="3">
-        <v>700</v>
       </c>
       <c r="J45" s="3">
         <v>700</v>
@@ -3654,7 +3753,7 @@
         <v>700</v>
       </c>
       <c r="L45" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M45" s="3">
         <v>500</v>
@@ -3663,13 +3762,13 @@
         <v>500</v>
       </c>
       <c r="O45" s="3">
+        <v>500</v>
+      </c>
+      <c r="P45" s="3">
         <v>400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>300</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>500</v>
       </c>
       <c r="R45" s="3">
         <v>500</v>
@@ -3687,13 +3786,13 @@
         <v>500</v>
       </c>
       <c r="W45" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="X45" s="3">
         <v>700</v>
       </c>
       <c r="Y45" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="Z45" s="3">
         <v>800</v>
@@ -3702,7 +3801,7 @@
         <v>800</v>
       </c>
       <c r="AB45" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AC45" s="3">
         <v>700</v>
@@ -3713,8 +3812,11 @@
       <c r="AE45" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3728,82 +3830,85 @@
         <v>2200</v>
       </c>
       <c r="G46" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H46" s="3">
         <v>2600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2400</v>
-      </c>
-      <c r="I46" s="3">
-        <v>2300</v>
       </c>
       <c r="J46" s="3">
         <v>2300</v>
       </c>
       <c r="K46" s="3">
+        <v>2300</v>
+      </c>
+      <c r="L46" s="3">
         <v>2200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1700</v>
-      </c>
-      <c r="S46" s="3">
-        <v>1600</v>
       </c>
       <c r="T46" s="3">
         <v>1600</v>
       </c>
       <c r="U46" s="3">
+        <v>1600</v>
+      </c>
+      <c r="V46" s="3">
         <v>1500</v>
-      </c>
-      <c r="V46" s="3">
-        <v>1700</v>
       </c>
       <c r="W46" s="3">
         <v>1700</v>
       </c>
       <c r="X46" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="Y46" s="3">
         <v>1600</v>
       </c>
       <c r="Z46" s="3">
+        <v>1600</v>
+      </c>
+      <c r="AA46" s="3">
         <v>1700</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1600</v>
-      </c>
-      <c r="AB46" s="3">
-        <v>1500</v>
       </c>
       <c r="AC46" s="3">
         <v>1500</v>
       </c>
       <c r="AD46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AE46" s="3">
         <v>1700</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3819,8 +3924,8 @@
       <c r="G47" s="3">
         <v>0</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>5</v>
+      <c r="H47" s="3">
+        <v>0</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>5</v>
@@ -3837,8 +3942,8 @@
       <c r="M47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -3891,8 +3996,11 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3906,7 +4014,7 @@
         <v>100</v>
       </c>
       <c r="G48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H48" s="3">
         <v>200</v>
@@ -3921,7 +4029,7 @@
         <v>200</v>
       </c>
       <c r="L48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M48" s="3">
         <v>300</v>
@@ -3936,7 +4044,7 @@
         <v>300</v>
       </c>
       <c r="Q48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="R48" s="3">
         <v>400</v>
@@ -3948,13 +4056,13 @@
         <v>400</v>
       </c>
       <c r="U48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="V48" s="3">
         <v>500</v>
       </c>
       <c r="W48" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="X48" s="3">
         <v>0</v>
@@ -3980,8 +4088,11 @@
       <c r="AE48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -4069,8 +4180,11 @@
       <c r="AE49" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,13 +4364,16 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>5</v>
+      <c r="D52" s="3">
+        <v>0</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>5</v>
@@ -4264,14 +4384,14 @@
       <c r="G52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
+      <c r="H52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>5</v>
+      <c r="J52" s="3">
+        <v>0</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>5</v>
@@ -4282,11 +4402,11 @@
       <c r="M52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O52" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P52" s="3">
         <v>200</v>
@@ -4336,8 +4456,11 @@
       <c r="AE52" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,8 +4548,11 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4440,10 +4566,10 @@
         <v>4300</v>
       </c>
       <c r="G54" s="3">
+        <v>4300</v>
+      </c>
+      <c r="H54" s="3">
         <v>4800</v>
-      </c>
-      <c r="H54" s="3">
-        <v>4500</v>
       </c>
       <c r="I54" s="3">
         <v>4500</v>
@@ -4452,28 +4578,28 @@
         <v>4500</v>
       </c>
       <c r="K54" s="3">
+        <v>4500</v>
+      </c>
+      <c r="L54" s="3">
         <v>4400</v>
-      </c>
-      <c r="L54" s="3">
-        <v>4200</v>
       </c>
       <c r="M54" s="3">
         <v>4200</v>
       </c>
       <c r="N54" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="O54" s="3">
         <v>4100</v>
       </c>
       <c r="P54" s="3">
+        <v>4100</v>
+      </c>
+      <c r="Q54" s="3">
         <v>3900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4000</v>
-      </c>
-      <c r="R54" s="3">
-        <v>4200</v>
       </c>
       <c r="S54" s="3">
         <v>4200</v>
@@ -4485,37 +4611,40 @@
         <v>4200</v>
       </c>
       <c r="V54" s="3">
+        <v>4200</v>
+      </c>
+      <c r="W54" s="3">
         <v>4400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3900</v>
-      </c>
-      <c r="X54" s="3">
-        <v>3800</v>
       </c>
       <c r="Y54" s="3">
         <v>3800</v>
       </c>
       <c r="Z54" s="3">
+        <v>3800</v>
+      </c>
+      <c r="AA54" s="3">
         <v>3900</v>
-      </c>
-      <c r="AA54" s="3">
-        <v>3800</v>
       </c>
       <c r="AB54" s="3">
         <v>3800</v>
       </c>
       <c r="AC54" s="3">
+        <v>3800</v>
+      </c>
+      <c r="AD54" s="3">
         <v>3700</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>3900</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,8 +4710,9 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4658,19 +4789,22 @@
         <v>0</v>
       </c>
       <c r="AB57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC57" s="3">
         <v>100</v>
       </c>
       <c r="AD57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AE57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4705,13 +4839,13 @@
         <v>0</v>
       </c>
       <c r="N58" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O58" s="3">
-        <v>100</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>5</v>
+        <v>200</v>
+      </c>
+      <c r="P58" s="3">
+        <v>100</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>5</v>
@@ -4728,8 +4862,8 @@
       <c r="U58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
+      <c r="V58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W58" s="3">
         <v>0</v>
@@ -4749,17 +4883,20 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-      <c r="AC58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD58" s="3">
-        <v>0</v>
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AE58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4767,55 +4904,55 @@
         <v>800</v>
       </c>
       <c r="E59" s="3">
+        <v>800</v>
+      </c>
+      <c r="F59" s="3">
         <v>900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1200</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1100</v>
       </c>
       <c r="J59" s="3">
         <v>1100</v>
       </c>
       <c r="K59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L59" s="3">
         <v>1000</v>
-      </c>
-      <c r="L59" s="3">
-        <v>900</v>
       </c>
       <c r="M59" s="3">
         <v>900</v>
       </c>
       <c r="N59" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="O59" s="3">
         <v>800</v>
       </c>
       <c r="P59" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q59" s="3">
         <v>700</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>900</v>
       </c>
       <c r="R59" s="3">
         <v>900</v>
       </c>
       <c r="S59" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T59" s="3">
         <v>800</v>
       </c>
       <c r="U59" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="V59" s="3">
         <v>900</v>
@@ -4827,7 +4964,7 @@
         <v>900</v>
       </c>
       <c r="Y59" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="Z59" s="3">
         <v>1000</v>
@@ -4842,66 +4979,69 @@
         <v>1000</v>
       </c>
       <c r="AD59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AE59" s="3">
         <v>1100</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E60" s="3">
         <v>900</v>
       </c>
       <c r="F60" s="3">
+        <v>900</v>
+      </c>
+      <c r="G60" s="3">
         <v>800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1200</v>
-      </c>
-      <c r="I60" s="3">
-        <v>1100</v>
       </c>
       <c r="J60" s="3">
         <v>1100</v>
       </c>
       <c r="K60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L60" s="3">
         <v>1000</v>
-      </c>
-      <c r="L60" s="3">
-        <v>900</v>
       </c>
       <c r="M60" s="3">
         <v>900</v>
       </c>
       <c r="N60" s="3">
+        <v>900</v>
+      </c>
+      <c r="O60" s="3">
         <v>1100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>700</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>900</v>
       </c>
       <c r="R60" s="3">
         <v>900</v>
       </c>
       <c r="S60" s="3">
+        <v>900</v>
+      </c>
+      <c r="T60" s="3">
         <v>800</v>
-      </c>
-      <c r="T60" s="3">
-        <v>900</v>
       </c>
       <c r="U60" s="3">
         <v>900</v>
@@ -4916,7 +5056,7 @@
         <v>900</v>
       </c>
       <c r="Y60" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="Z60" s="3">
         <v>1000</v>
@@ -4928,16 +5068,19 @@
         <v>1000</v>
       </c>
       <c r="AC60" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="AD60" s="3">
         <v>1100</v>
       </c>
       <c r="AE60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AF60" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4975,13 +5118,13 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R61" s="3">
         <v>0</v>
@@ -5025,8 +5168,11 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -5052,10 +5198,10 @@
         <v>400</v>
       </c>
       <c r="K62" s="3">
+        <v>400</v>
+      </c>
+      <c r="L62" s="3">
         <v>500</v>
-      </c>
-      <c r="L62" s="3">
-        <v>400</v>
       </c>
       <c r="M62" s="3">
         <v>400</v>
@@ -5076,7 +5222,7 @@
         <v>400</v>
       </c>
       <c r="S62" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="T62" s="3">
         <v>500</v>
@@ -5085,11 +5231,11 @@
         <v>500</v>
       </c>
       <c r="V62" s="3">
+        <v>500</v>
+      </c>
+      <c r="W62" s="3">
         <v>400</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X62" s="3" t="s">
         <v>5</v>
       </c>
@@ -5105,8 +5251,8 @@
       <c r="AB62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AC62" s="3">
-        <v>0</v>
+      <c r="AC62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AD62" s="3">
         <v>0</v>
@@ -5114,8 +5260,11 @@
       <c r="AE62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,49 +5536,52 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="E66" s="3">
         <v>1300</v>
       </c>
       <c r="F66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G66" s="3">
         <v>1200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1700</v>
-      </c>
-      <c r="H66" s="3">
-        <v>1600</v>
       </c>
       <c r="I66" s="3">
         <v>1600</v>
       </c>
       <c r="J66" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K66" s="3">
         <v>1500</v>
       </c>
       <c r="L66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M66" s="3">
         <v>1400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1400</v>
-      </c>
-      <c r="P66" s="3">
-        <v>1300</v>
       </c>
       <c r="Q66" s="3">
         <v>1300</v>
@@ -5435,7 +5593,7 @@
         <v>1300</v>
       </c>
       <c r="T66" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="U66" s="3">
         <v>1400</v>
@@ -5444,13 +5602,13 @@
         <v>1400</v>
       </c>
       <c r="W66" s="3">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="X66" s="3">
         <v>900</v>
       </c>
       <c r="Y66" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="Z66" s="3">
         <v>1000</v>
@@ -5462,16 +5620,19 @@
         <v>1000</v>
       </c>
       <c r="AC66" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="AD66" s="3">
         <v>1100</v>
       </c>
       <c r="AE66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AF66" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,25 +6030,28 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-11300</v>
+        <v>-11200</v>
       </c>
       <c r="E72" s="3">
         <v>-11300</v>
       </c>
       <c r="F72" s="3">
-        <v>-11200</v>
+        <v>-11300</v>
       </c>
       <c r="G72" s="3">
         <v>-11200</v>
       </c>
       <c r="H72" s="3">
-        <v>-11300</v>
+        <v>-11200</v>
       </c>
       <c r="I72" s="3">
         <v>-11300</v>
@@ -5886,7 +6060,7 @@
         <v>-11300</v>
       </c>
       <c r="K72" s="3">
-        <v>-11400</v>
+        <v>-11300</v>
       </c>
       <c r="L72" s="3">
         <v>-11400</v>
@@ -5895,61 +6069,64 @@
         <v>-11400</v>
       </c>
       <c r="N72" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="O72" s="3">
         <v>-11700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-11600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-11700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-11500</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-11300</v>
       </c>
       <c r="S72" s="3">
         <v>-11300</v>
       </c>
       <c r="T72" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="U72" s="3">
         <v>-11400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-11500</v>
-      </c>
-      <c r="V72" s="3">
-        <v>-11300</v>
       </c>
       <c r="W72" s="3">
         <v>-11300</v>
       </c>
       <c r="X72" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="Y72" s="3">
         <v>-11400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-11500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-11400</v>
-      </c>
-      <c r="AA72" s="3">
-        <v>-11500</v>
       </c>
       <c r="AB72" s="3">
         <v>-11500</v>
       </c>
       <c r="AC72" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="AD72" s="3">
         <v>-11600</v>
-      </c>
-      <c r="AD72" s="3">
-        <v>-11500</v>
       </c>
       <c r="AE72" s="3">
         <v>-11500</v>
       </c>
-    </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF72" s="3">
+        <v>-11500</v>
+      </c>
+    </row>
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,25 +6398,28 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="E76" s="3">
         <v>3000</v>
       </c>
       <c r="F76" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G76" s="3">
         <v>3100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3000</v>
-      </c>
-      <c r="H76" s="3">
-        <v>2900</v>
       </c>
       <c r="I76" s="3">
         <v>2900</v>
@@ -6245,25 +6431,25 @@
         <v>2900</v>
       </c>
       <c r="L76" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="M76" s="3">
         <v>2800</v>
       </c>
       <c r="N76" s="3">
+        <v>2800</v>
+      </c>
+      <c r="O76" s="3">
         <v>2600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2800</v>
-      </c>
-      <c r="R76" s="3">
-        <v>2900</v>
       </c>
       <c r="S76" s="3">
         <v>2900</v>
@@ -6272,40 +6458,43 @@
         <v>2900</v>
       </c>
       <c r="U76" s="3">
+        <v>2900</v>
+      </c>
+      <c r="V76" s="3">
         <v>2800</v>
-      </c>
-      <c r="V76" s="3">
-        <v>3000</v>
       </c>
       <c r="W76" s="3">
         <v>3000</v>
       </c>
       <c r="X76" s="3">
+        <v>3000</v>
+      </c>
+      <c r="Y76" s="3">
         <v>2900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>2800</v>
-      </c>
-      <c r="AB76" s="3">
-        <v>2700</v>
       </c>
       <c r="AC76" s="3">
         <v>2700</v>
       </c>
       <c r="AD76" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="AE76" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF76" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,119 +6582,125 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45169</v>
+      </c>
+      <c r="E80" s="2">
         <v>45077</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44985</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44895</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44804</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44712</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44620</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44530</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44439</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44347</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44255</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44165</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44074</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43982</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43890</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43799</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43708</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43616</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43524</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43434</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43343</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43251</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43159</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43069</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42978</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42886</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42794</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42704</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I81" s="3">
         <v>100</v>
@@ -6520,22 +6715,22 @@
         <v>100</v>
       </c>
       <c r="M81" s="3">
+        <v>100</v>
+      </c>
+      <c r="N81" s="3">
         <v>300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
-        <v>100</v>
-      </c>
       <c r="P81" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S81" s="3">
         <v>100</v>
@@ -6550,13 +6745,13 @@
         <v>100</v>
       </c>
       <c r="W81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X81" s="3">
         <v>200</v>
       </c>
       <c r="Y81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Z81" s="3">
         <v>100</v>
@@ -6574,10 +6769,13 @@
         <v>100</v>
       </c>
       <c r="AE81" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AF81" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,8 +6807,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6698,8 +6897,11 @@
       <c r="AE83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,26 +7357,29 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E89" s="3">
         <v>200</v>
       </c>
       <c r="F89" s="3">
+        <v>200</v>
+      </c>
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>300</v>
       </c>
-      <c r="H89" s="3">
-        <v>100</v>
-      </c>
       <c r="I89" s="3">
         <v>100</v>
       </c>
@@ -7170,31 +7387,31 @@
         <v>100</v>
       </c>
       <c r="K89" s="3">
+        <v>100</v>
+      </c>
+      <c r="L89" s="3">
         <v>300</v>
       </c>
-      <c r="L89" s="3">
-        <v>200</v>
-      </c>
       <c r="M89" s="3">
         <v>200</v>
       </c>
       <c r="N89" s="3">
+        <v>200</v>
+      </c>
+      <c r="O89" s="3">
         <v>300</v>
       </c>
-      <c r="O89" s="3">
-        <v>100</v>
-      </c>
       <c r="P89" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
-        <v>100</v>
-      </c>
       <c r="R89" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S89" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T89" s="3">
         <v>100</v>
@@ -7203,37 +7420,40 @@
         <v>100</v>
       </c>
       <c r="V89" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W89" s="3">
         <v>200</v>
       </c>
       <c r="X89" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y89" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Z89" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AA89" s="3">
         <v>100</v>
       </c>
       <c r="AB89" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AC89" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD89" s="3">
         <v>-100</v>
       </c>
-      <c r="AD89" s="3">
-        <v>200</v>
-      </c>
       <c r="AE89" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AF89" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,8 +7485,9 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7294,8 +7515,8 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>5</v>
@@ -7306,8 +7527,8 @@
       <c r="O91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -7330,14 +7551,14 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>5</v>
+      <c r="X91" s="3">
+        <v>0</v>
       </c>
       <c r="Y91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z91" s="3">
-        <v>0</v>
+      <c r="Z91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AA91" s="3">
         <v>0</v>
@@ -7348,14 +7569,17 @@
       <c r="AC91" s="3">
         <v>0</v>
       </c>
-      <c r="AD91" s="3" t="s">
-        <v>5</v>
+      <c r="AD91" s="3">
+        <v>0</v>
       </c>
       <c r="AE91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,8 +7759,11 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7621,8 +7851,11 @@
       <c r="AE94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7690,19 +7924,19 @@
         <v>-100</v>
       </c>
       <c r="N96" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-200</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-100</v>
       </c>
       <c r="S96" s="3">
         <v>-100</v>
@@ -7711,10 +7945,10 @@
         <v>-100</v>
       </c>
       <c r="U96" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V96" s="3">
         <v>-200</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-100</v>
       </c>
       <c r="W96" s="3">
         <v>-100</v>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,8 +8253,11 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -8046,19 +8292,19 @@
         <v>-100</v>
       </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
       <c r="P100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>200</v>
+      </c>
+      <c r="R100" s="3">
         <v>-200</v>
-      </c>
-      <c r="R100" s="3">
-        <v>-100</v>
       </c>
       <c r="S100" s="3">
         <v>-100</v>
@@ -8067,10 +8313,10 @@
         <v>-100</v>
       </c>
       <c r="U100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V100" s="3">
         <v>-200</v>
-      </c>
-      <c r="V100" s="3">
-        <v>-100</v>
       </c>
       <c r="W100" s="3">
         <v>-100</v>
@@ -8099,8 +8345,11 @@
       <c r="AE100" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF100" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8188,68 +8437,71 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-500</v>
       </c>
-      <c r="G102" s="3">
-        <v>200</v>
-      </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J102" s="3">
         <v>100</v>
       </c>
       <c r="K102" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L102" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M102" s="3">
         <v>100</v>
       </c>
       <c r="N102" s="3">
+        <v>100</v>
+      </c>
+      <c r="O102" s="3">
         <v>300</v>
       </c>
-      <c r="O102" s="3">
-        <v>100</v>
-      </c>
       <c r="P102" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3">
-        <v>100</v>
-      </c>
       <c r="S102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T102" s="3">
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
-        <v>100</v>
-      </c>
       <c r="W102" s="3">
         <v>100</v>
       </c>
@@ -8257,7 +8509,7 @@
         <v>100</v>
       </c>
       <c r="Y102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z102" s="3">
         <v>0</v>
@@ -8266,15 +8518,18 @@
         <v>0</v>
       </c>
       <c r="AB102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC102" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD102" s="3">
         <v>-200</v>
       </c>
-      <c r="AD102" s="3">
-        <v>100</v>
-      </c>
       <c r="AE102" s="3">
+        <v>100</v>
+      </c>
+      <c r="AF102" s="3">
         <v>100</v>
       </c>
     </row>
